--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9096" uniqueCount="2226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9115" uniqueCount="2237">
   <si>
     <t>ID</t>
   </si>
@@ -8016,12 +8016,6 @@
     <t>massapercentage bitumen (% in mortel) bij OSA</t>
   </si>
   <si>
-    <t>massapercentage vulstof (&lt; 63 mm) bij OSA</t>
-  </si>
-  <si>
-    <t>massapercentage zand (&lt;2mm en &gt; 63 mm) bij OSA</t>
-  </si>
-  <si>
     <t>massapercentage mortel (&lt;2mm) bij OSA</t>
   </si>
   <si>
@@ -8032,12 +8026,6 @@
   </si>
   <si>
     <t>massapercentage bitumen (% op 100% mineraal) bij WAB</t>
-  </si>
-  <si>
-    <t>massapercentage vulstof (&lt; 63 mm) bij WAB</t>
-  </si>
-  <si>
-    <t>massapercentage zand (&lt;2mm en &gt; 63 mm) bij WAB</t>
   </si>
   <si>
     <t>massapercentage steenslag/grind (&gt;2mm) bij WAB</t>
@@ -10657,6 +10645,140 @@
   </si>
   <si>
     <t>3/4</t>
+  </si>
+  <si>
+    <t>Mengselsamenstelling WAB: zand (&lt;2mm en &gt; 63 μm)</t>
+  </si>
+  <si>
+    <t>Mengselsamenstelling WAB: vulstof (&lt; 63 μm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengselsamenstelling OSA: zand (&lt;2mm en &gt; 63 μm) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mengselsamenstelling OSA:  vulstof (&lt; 63 μm) </t>
+  </si>
+  <si>
+    <t>massapercentage vulstof (&lt; 63 μm) bij OSA</t>
+  </si>
+  <si>
+    <t>massapercentage zand (&lt;2mm en &gt; 63 μm) bij OSA</t>
+  </si>
+  <si>
+    <t>massapercentage vulstof (&lt; 63 μm) bij WAB</t>
+  </si>
+  <si>
+    <t>massapercentage zand (&lt;2mm en &gt; 63 μm) bij WAB</t>
+  </si>
+  <si>
+    <r>
+      <t>Lft</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+  </si>
+  <si>
+    <t>jaar</t>
+  </si>
+  <si>
+    <t>Hoogste niveau grondwaterstand tijdens maatgevende omstandigheden</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>nb</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>na</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <rFont val="Symbol"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>nb</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -14492,6 +14614,9 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -14511,9 +14636,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -14996,17 +15118,17 @@
       </c>
       <c r="C4" s="91"/>
       <c r="E4" s="50" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F4" s="50" t="s">
         <v>1849</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>1853</v>
       </c>
       <c r="G4" s="50"/>
       <c r="H4" s="584" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="I4" s="584" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="J4" s="88" t="s">
         <v>1035</v>
@@ -15035,10 +15157,10 @@
         <v>417</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="F5" s="50" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="88" t="s">
@@ -15071,13 +15193,13 @@
         <v>24</v>
       </c>
       <c r="C6" s="87" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="E6" s="50" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F6" s="50" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="88" t="s">
@@ -15113,23 +15235,23 @@
         <v>107</v>
       </c>
       <c r="E7" s="50" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="F7" s="50" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="G7" s="50"/>
       <c r="H7" s="79" t="s">
         <v>1152</v>
       </c>
       <c r="I7" s="88" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="J7" s="88" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="88" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L7" s="91"/>
       <c r="M7" s="91"/>
@@ -15765,7 +15887,7 @@
         <v>970</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="88" t="s">
@@ -15787,7 +15909,7 @@
         <v>164</v>
       </c>
       <c r="P23" s="19" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q23" s="58"/>
       <c r="R23" s="62" t="s">
@@ -16393,7 +16515,7 @@
     </row>
     <row r="37" spans="1:18" s="19" customFormat="1" collapsed="1">
       <c r="A37" s="78" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B37" s="58"/>
       <c r="C37" s="58"/>
@@ -16483,17 +16605,17 @@
       </c>
       <c r="C40" s="91"/>
       <c r="E40" s="50" t="s">
+        <v>1845</v>
+      </c>
+      <c r="F40" s="50" t="s">
         <v>1849</v>
-      </c>
-      <c r="F40" s="50" t="s">
-        <v>1853</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="584" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="I40" s="584" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="J40" s="88" t="s">
         <v>1035</v>
@@ -16522,10 +16644,10 @@
         <v>417</v>
       </c>
       <c r="E41" s="50" t="s">
-        <v>1850</v>
+        <v>1846</v>
       </c>
       <c r="F41" s="50" t="s">
-        <v>1859</v>
+        <v>1855</v>
       </c>
       <c r="G41" s="50"/>
       <c r="H41" s="88" t="s">
@@ -16558,13 +16680,13 @@
         <v>24</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>1855</v>
+        <v>1851</v>
       </c>
       <c r="E42" s="50" t="s">
-        <v>1851</v>
+        <v>1847</v>
       </c>
       <c r="F42" s="50" t="s">
-        <v>1854</v>
+        <v>1850</v>
       </c>
       <c r="G42" s="50"/>
       <c r="H42" s="88" t="s">
@@ -16600,23 +16722,23 @@
         <v>107</v>
       </c>
       <c r="E43" s="50" t="s">
-        <v>1852</v>
+        <v>1848</v>
       </c>
       <c r="F43" s="50" t="s">
-        <v>1858</v>
+        <v>1854</v>
       </c>
       <c r="G43" s="50"/>
       <c r="H43" s="79" t="s">
         <v>1152</v>
       </c>
       <c r="I43" s="88" t="s">
-        <v>1860</v>
+        <v>1856</v>
       </c>
       <c r="J43" s="88" t="s">
         <v>15</v>
       </c>
       <c r="K43" s="88" t="s">
-        <v>1861</v>
+        <v>1857</v>
       </c>
       <c r="L43" s="91"/>
       <c r="M43" s="91"/>
@@ -17211,7 +17333,7 @@
         <v>970</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="G58" s="50"/>
       <c r="H58" s="88" t="s">
@@ -17233,7 +17355,7 @@
         <v>164</v>
       </c>
       <c r="P58" s="91" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q58" s="58"/>
       <c r="R58" s="62" t="s">
@@ -17512,7 +17634,7 @@
     </row>
     <row r="65" spans="1:21" s="19" customFormat="1" collapsed="1">
       <c r="A65" s="78" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B65" s="58"/>
       <c r="C65" s="58"/>
@@ -18270,17 +18392,17 @@
       <c r="C85" s="115"/>
       <c r="D85" s="115"/>
       <c r="E85" s="115" t="s">
-        <v>2032</v>
+        <v>2028</v>
       </c>
       <c r="F85" s="116" t="s">
-        <v>2034</v>
+        <v>2030</v>
       </c>
       <c r="G85" s="115"/>
       <c r="H85" s="107" t="s">
         <v>1034</v>
       </c>
       <c r="I85" s="107" t="s">
-        <v>2043</v>
+        <v>2039</v>
       </c>
       <c r="J85" s="107" t="s">
         <v>15</v>
@@ -18312,7 +18434,7 @@
       <c r="C86" s="115"/>
       <c r="D86" s="115"/>
       <c r="E86" s="115" t="s">
-        <v>2033</v>
+        <v>2029</v>
       </c>
       <c r="F86" s="116" t="s">
         <v>462</v>
@@ -18423,7 +18545,7 @@
         <v>1427</v>
       </c>
       <c r="F89" s="28" t="s">
-        <v>2035</v>
+        <v>2031</v>
       </c>
       <c r="G89" s="28"/>
       <c r="H89" s="88" t="s">
@@ -18507,7 +18629,7 @@
         <v>1017</v>
       </c>
       <c r="F91" s="115" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="G91" s="115"/>
       <c r="H91" s="107" t="s">
@@ -18569,7 +18691,7 @@
         <v>189</v>
       </c>
       <c r="F93" s="116" t="s">
-        <v>2036</v>
+        <v>2032</v>
       </c>
       <c r="G93" s="115"/>
       <c r="H93" s="107" t="s">
@@ -18611,14 +18733,14 @@
         <v>156</v>
       </c>
       <c r="F94" s="116" t="s">
-        <v>2041</v>
+        <v>2037</v>
       </c>
       <c r="G94" s="115"/>
       <c r="H94" s="107" t="s">
         <v>1326</v>
       </c>
       <c r="I94" s="79" t="s">
-        <v>2042</v>
+        <v>2038</v>
       </c>
       <c r="J94" s="79" t="s">
         <v>1197</v>
@@ -18651,7 +18773,7 @@
         <v>463</v>
       </c>
       <c r="F95" s="229" t="s">
-        <v>2038</v>
+        <v>2034</v>
       </c>
       <c r="G95" s="240"/>
       <c r="H95" s="241"/>
@@ -18683,7 +18805,7 @@
         <v>559</v>
       </c>
       <c r="F96" s="229" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="G96" s="240"/>
       <c r="H96" s="679"/>
@@ -18754,10 +18876,10 @@
       <c r="C98" s="115"/>
       <c r="D98" s="115"/>
       <c r="E98" s="116" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="F98" s="28" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="G98" s="116"/>
       <c r="H98" s="88" t="s">
@@ -18796,10 +18918,10 @@
       <c r="C99" s="586"/>
       <c r="D99" s="115"/>
       <c r="E99" s="585" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="F99" s="28" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="G99" s="116"/>
       <c r="H99" s="88" t="s">
@@ -18993,7 +19115,7 @@
         <v>1416</v>
       </c>
       <c r="P105" s="32" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q105" s="127"/>
       <c r="R105" s="29"/>
@@ -19007,14 +19129,14 @@
         <v>17</v>
       </c>
       <c r="C106" s="128" t="s">
-        <v>1942</v>
+        <v>1938</v>
       </c>
       <c r="D106" s="128"/>
       <c r="E106" s="50" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="F106" s="50" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="G106" s="31"/>
       <c r="H106" s="129" t="s">
@@ -19041,7 +19163,7 @@
       </c>
       <c r="Q106" s="127"/>
       <c r="R106" s="31" t="s">
-        <v>1912</v>
+        <v>1908</v>
       </c>
       <c r="U106" s="15"/>
     </row>
@@ -19057,10 +19179,10 @@
       </c>
       <c r="D107" s="124"/>
       <c r="E107" s="50" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="F107" s="50" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="G107" s="55"/>
       <c r="H107" s="125" t="s">
@@ -19088,7 +19210,7 @@
       </c>
       <c r="Q107" s="127"/>
       <c r="R107" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U107" s="15"/>
     </row>
@@ -19102,10 +19224,10 @@
       <c r="C108" s="124"/>
       <c r="D108" s="124"/>
       <c r="E108" s="31" t="s">
-        <v>1903</v>
+        <v>1899</v>
       </c>
       <c r="F108" s="31" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="G108" s="31"/>
       <c r="H108" s="88" t="s">
@@ -19125,11 +19247,11 @@
         <v>1416</v>
       </c>
       <c r="P108" s="32" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q108" s="127"/>
       <c r="R108" s="31" t="s">
-        <v>1899</v>
+        <v>1895</v>
       </c>
       <c r="U108" s="15"/>
     </row>
@@ -19141,14 +19263,14 @@
         <v>24</v>
       </c>
       <c r="C109" s="132" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="D109" s="124"/>
       <c r="E109" s="50" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="F109" s="175" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="G109" s="31"/>
       <c r="H109" s="125" t="s">
@@ -19168,7 +19290,7 @@
         <v>18</v>
       </c>
       <c r="N109" s="88" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="O109" s="99" t="s">
         <v>1416</v>
@@ -19178,7 +19300,7 @@
       </c>
       <c r="Q109" s="127"/>
       <c r="R109" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U109" s="15"/>
     </row>
@@ -19190,14 +19312,14 @@
         <v>26</v>
       </c>
       <c r="C110" s="132" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="D110" s="124"/>
       <c r="E110" s="50" t="s">
-        <v>1917</v>
+        <v>1913</v>
       </c>
       <c r="F110" s="50" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="G110" s="31"/>
       <c r="H110" s="125" t="s">
@@ -19217,7 +19339,7 @@
         <v>18</v>
       </c>
       <c r="N110" s="88" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="O110" s="99" t="s">
         <v>1416</v>
@@ -19227,7 +19349,7 @@
       </c>
       <c r="Q110" s="127"/>
       <c r="R110" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U110" s="15"/>
     </row>
@@ -19239,14 +19361,14 @@
         <v>28</v>
       </c>
       <c r="C111" s="132" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="D111" s="124"/>
       <c r="E111" s="50" t="s">
-        <v>1918</v>
+        <v>1914</v>
       </c>
       <c r="F111" s="50" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="G111" s="31"/>
       <c r="H111" s="125" t="s">
@@ -19266,7 +19388,7 @@
         <v>18</v>
       </c>
       <c r="N111" s="88" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="O111" s="99" t="s">
         <v>1416</v>
@@ -19276,7 +19398,7 @@
       </c>
       <c r="Q111" s="127"/>
       <c r="R111" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U111" s="15"/>
     </row>
@@ -19288,14 +19410,14 @@
         <v>29</v>
       </c>
       <c r="C112" s="132" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="D112" s="124"/>
       <c r="E112" s="50" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="F112" s="50" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="G112" s="55"/>
       <c r="H112" s="125" t="s">
@@ -19315,7 +19437,7 @@
         <v>18</v>
       </c>
       <c r="N112" s="88" t="s">
-        <v>1890</v>
+        <v>1886</v>
       </c>
       <c r="O112" s="99" t="s">
         <v>1416</v>
@@ -19325,7 +19447,7 @@
       </c>
       <c r="Q112" s="127"/>
       <c r="R112" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U112" s="15"/>
     </row>
@@ -19337,14 +19459,14 @@
         <v>30</v>
       </c>
       <c r="C113" s="132" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="D113" s="124"/>
       <c r="E113" s="50" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="F113" s="50" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="G113" s="55"/>
       <c r="H113" s="125" t="s">
@@ -19364,7 +19486,7 @@
         <v>18</v>
       </c>
       <c r="N113" s="88" t="s">
-        <v>1938</v>
+        <v>1934</v>
       </c>
       <c r="O113" s="99" t="s">
         <v>1416</v>
@@ -19374,7 +19496,7 @@
       </c>
       <c r="Q113" s="127"/>
       <c r="R113" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U113" s="15"/>
     </row>
@@ -19386,14 +19508,14 @@
         <v>32</v>
       </c>
       <c r="C114" s="163" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="D114" s="124"/>
       <c r="E114" s="175" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="F114" s="175" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="G114" s="55"/>
       <c r="H114" s="125" t="s">
@@ -19413,7 +19535,7 @@
         <v>18</v>
       </c>
       <c r="N114" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O114" s="99" t="s">
         <v>1416</v>
@@ -19423,7 +19545,7 @@
       </c>
       <c r="Q114" s="127"/>
       <c r="R114" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U114" s="15"/>
     </row>
@@ -19435,14 +19557,14 @@
         <v>34</v>
       </c>
       <c r="C115" s="132" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D115" s="124"/>
       <c r="E115" s="50" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="F115" s="175" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="G115" s="31"/>
       <c r="H115" s="125" t="s">
@@ -19462,7 +19584,7 @@
         <v>18</v>
       </c>
       <c r="N115" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O115" s="99" t="s">
         <v>1416</v>
@@ -19472,7 +19594,7 @@
       </c>
       <c r="Q115" s="127"/>
       <c r="R115" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U115" s="15"/>
     </row>
@@ -19484,14 +19606,14 @@
         <v>36</v>
       </c>
       <c r="C116" s="132" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="D116" s="124"/>
       <c r="E116" s="175" t="s">
-        <v>1935</v>
+        <v>1931</v>
       </c>
       <c r="F116" s="50" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="G116" s="55"/>
       <c r="H116" s="125" t="s">
@@ -19511,7 +19633,7 @@
         <v>18</v>
       </c>
       <c r="N116" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O116" s="99" t="s">
         <v>1416</v>
@@ -19521,7 +19643,7 @@
       </c>
       <c r="Q116" s="127"/>
       <c r="R116" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U116" s="15"/>
     </row>
@@ -19533,14 +19655,14 @@
         <v>38</v>
       </c>
       <c r="C117" s="132" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="D117" s="124"/>
       <c r="E117" s="50" t="s">
-        <v>1936</v>
+        <v>1932</v>
       </c>
       <c r="F117" s="50" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="G117" s="31"/>
       <c r="H117" s="125" t="s">
@@ -19560,7 +19682,7 @@
         <v>18</v>
       </c>
       <c r="N117" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O117" s="99" t="s">
         <v>1416</v>
@@ -19570,7 +19692,7 @@
       </c>
       <c r="Q117" s="127"/>
       <c r="R117" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U117" s="15"/>
     </row>
@@ -19582,14 +19704,14 @@
         <v>40</v>
       </c>
       <c r="C118" s="132" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="D118" s="124"/>
       <c r="E118" s="50" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="F118" s="50" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="G118" s="31"/>
       <c r="H118" s="125" t="s">
@@ -19609,7 +19731,7 @@
         <v>18</v>
       </c>
       <c r="N118" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O118" s="99" t="s">
         <v>1416</v>
@@ -19619,7 +19741,7 @@
       </c>
       <c r="Q118" s="127"/>
       <c r="R118" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U118" s="15"/>
     </row>
@@ -19633,10 +19755,10 @@
       <c r="C119" s="124"/>
       <c r="D119" s="124"/>
       <c r="E119" s="50" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="F119" s="50" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="G119" s="31"/>
       <c r="H119" s="88" t="s">
@@ -19652,7 +19774,7 @@
       <c r="L119" s="125"/>
       <c r="M119" s="125"/>
       <c r="N119" s="88" t="s">
-        <v>1891</v>
+        <v>1887</v>
       </c>
       <c r="O119" s="99" t="s">
         <v>1416</v>
@@ -19662,7 +19784,7 @@
       </c>
       <c r="Q119" s="127"/>
       <c r="R119" s="31" t="s">
-        <v>1900</v>
+        <v>1896</v>
       </c>
       <c r="U119" s="15"/>
     </row>
@@ -19674,14 +19796,14 @@
         <v>44</v>
       </c>
       <c r="C120" s="128" t="s">
-        <v>1943</v>
+        <v>1939</v>
       </c>
       <c r="D120" s="128"/>
       <c r="E120" s="175" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="F120" s="175" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="G120" s="55"/>
       <c r="H120" s="129" t="s">
@@ -19727,10 +19849,10 @@
       </c>
       <c r="D121" s="131"/>
       <c r="E121" s="31" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="F121" s="31" t="s">
-        <v>1909</v>
+        <v>1905</v>
       </c>
       <c r="G121" s="31"/>
       <c r="H121" s="125" t="s">
@@ -19758,7 +19880,7 @@
       </c>
       <c r="Q121" s="127"/>
       <c r="R121" s="31" t="s">
-        <v>1898</v>
+        <v>1894</v>
       </c>
       <c r="U121" s="15"/>
     </row>
@@ -19772,7 +19894,7 @@
       <c r="C122" s="123"/>
       <c r="D122" s="124"/>
       <c r="E122" s="31" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="F122" s="57" t="s">
         <v>309</v>
@@ -19799,7 +19921,7 @@
       </c>
       <c r="Q122" s="127"/>
       <c r="R122" s="31" t="s">
-        <v>1901</v>
+        <v>1897</v>
       </c>
       <c r="U122" s="15"/>
     </row>
@@ -19908,10 +20030,10 @@
       <c r="C125" s="131"/>
       <c r="D125" s="131"/>
       <c r="E125" s="50" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="F125" s="50" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="G125" s="31"/>
       <c r="H125" s="125" t="s">
@@ -20104,10 +20226,10 @@
       </c>
       <c r="D129" s="30"/>
       <c r="E129" s="622" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="F129" s="57" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="G129" s="55"/>
       <c r="H129" s="129" t="s">
@@ -20172,7 +20294,7 @@
         <v>1416</v>
       </c>
       <c r="P130" s="589" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q130" s="127"/>
       <c r="R130" s="26" t="s">
@@ -20192,7 +20314,7 @@
       </c>
       <c r="D131" s="134"/>
       <c r="E131" s="623" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="F131" s="57" t="s">
         <v>365</v>
@@ -20654,7 +20776,7 @@
         <v>1445</v>
       </c>
       <c r="F141" s="57" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="G141" s="116"/>
       <c r="H141" s="129" t="s">
@@ -20727,7 +20849,7 @@
         <v>1416</v>
       </c>
       <c r="P142" s="589" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q142" s="127"/>
       <c r="R142" s="26" t="s">
@@ -20776,7 +20898,7 @@
         <v>1416</v>
       </c>
       <c r="P143" s="589" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q143" s="127"/>
       <c r="R143" s="26" t="s">
@@ -22971,7 +23093,7 @@
         <v>207</v>
       </c>
       <c r="F195" s="287" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="G195" s="286"/>
       <c r="H195" s="288"/>
@@ -22983,7 +23105,7 @@
       <c r="N195" s="289"/>
       <c r="O195" s="290"/>
       <c r="P195" s="624" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q195" s="254"/>
       <c r="R195" s="291"/>
@@ -23001,7 +23123,7 @@
         <v>212</v>
       </c>
       <c r="F196" s="126" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="G196" s="143"/>
       <c r="H196" s="88" t="s">
@@ -23019,7 +23141,7 @@
       <c r="N196" s="299"/>
       <c r="O196" s="300"/>
       <c r="P196" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q196" s="123"/>
       <c r="R196" s="145" t="s">
@@ -23034,14 +23156,14 @@
         <v>19</v>
       </c>
       <c r="C197" s="301" t="s">
-        <v>1894</v>
+        <v>1890</v>
       </c>
       <c r="D197" s="301"/>
       <c r="E197" s="143" t="s">
         <v>213</v>
       </c>
       <c r="F197" s="126" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="G197" s="143"/>
       <c r="H197" s="298" t="s">
@@ -23083,7 +23205,7 @@
         <v>214</v>
       </c>
       <c r="F198" s="126" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="G198" s="143"/>
       <c r="H198" s="298" t="s">
@@ -23109,7 +23231,7 @@
         <v>211</v>
       </c>
       <c r="P198" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q198" s="123"/>
       <c r="R198" s="54"/>
@@ -23127,7 +23249,7 @@
         <v>215</v>
       </c>
       <c r="F199" s="126" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="G199" s="143"/>
       <c r="H199" s="88" t="s">
@@ -23167,7 +23289,7 @@
         <v>216</v>
       </c>
       <c r="F200" s="126" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="G200" s="143"/>
       <c r="H200" s="298" t="s">
@@ -23215,7 +23337,7 @@
         <v>217</v>
       </c>
       <c r="F201" s="126" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="G201" s="143"/>
       <c r="H201" s="298" t="s">
@@ -23261,7 +23383,7 @@
         <v>218</v>
       </c>
       <c r="F202" s="126" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="G202" s="143"/>
       <c r="H202" s="298" t="s">
@@ -23306,7 +23428,7 @@
         <v>219</v>
       </c>
       <c r="F203" s="126" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="G203" s="143"/>
       <c r="H203" s="298" t="s">
@@ -23337,7 +23459,7 @@
         <v>209</v>
       </c>
       <c r="U203" s="116" t="s">
-        <v>2101</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="204" spans="1:21" s="58" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -23353,7 +23475,7 @@
         <v>220</v>
       </c>
       <c r="F204" s="126" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="G204" s="143"/>
       <c r="H204" s="298" t="s">
@@ -23398,7 +23520,7 @@
         <v>221</v>
       </c>
       <c r="F205" s="126" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="G205" s="143"/>
       <c r="H205" s="298" t="s">
@@ -23490,7 +23612,7 @@
         <v>179</v>
       </c>
       <c r="F207" s="57" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="G207" s="57"/>
       <c r="H207" s="109" t="s">
@@ -23512,7 +23634,7 @@
       <c r="N207" s="98"/>
       <c r="O207" s="265"/>
       <c r="P207" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="R207" s="147"/>
       <c r="T207" s="146"/>
@@ -23533,7 +23655,7 @@
         <v>973</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="G208" s="57"/>
       <c r="H208" s="109" t="s">
@@ -23578,7 +23700,7 @@
         <v>939</v>
       </c>
       <c r="F209" s="28" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="G209" s="57"/>
       <c r="H209" s="109" t="s">
@@ -23616,14 +23738,14 @@
         <v>44</v>
       </c>
       <c r="C210" s="144" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="D210" s="144"/>
       <c r="E210" s="97" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>2099</v>
+        <v>2095</v>
       </c>
       <c r="G210" s="57"/>
       <c r="H210" s="109" t="s">
@@ -23650,7 +23772,7 @@
       <c r="R210" s="147"/>
       <c r="T210" s="146"/>
       <c r="U210" s="116" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="15" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -23673,7 +23795,7 @@
         <v>1180</v>
       </c>
       <c r="I211" s="109" t="s">
-        <v>2116</v>
+        <v>2112</v>
       </c>
       <c r="J211" s="129" t="s">
         <v>18</v>
@@ -23732,7 +23854,7 @@
         <v>225</v>
       </c>
       <c r="F213" s="126" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="G213" s="126"/>
       <c r="H213" s="129" t="s">
@@ -23752,7 +23874,7 @@
         <v>211</v>
       </c>
       <c r="P213" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q213" s="90"/>
       <c r="R213" s="62"/>
@@ -23770,7 +23892,7 @@
         <v>151</v>
       </c>
       <c r="F214" s="287" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="G214" s="287"/>
       <c r="H214" s="305"/>
@@ -23784,7 +23906,7 @@
         <v>211</v>
       </c>
       <c r="P214" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q214" s="76"/>
       <c r="R214" s="77"/>
@@ -23802,7 +23924,7 @@
         <v>226</v>
       </c>
       <c r="F215" s="126" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="G215" s="126"/>
       <c r="H215" s="88" t="s">
@@ -23824,7 +23946,7 @@
         <v>211</v>
       </c>
       <c r="P215" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q215" s="90"/>
       <c r="R215" s="62"/>
@@ -23842,7 +23964,7 @@
         <v>215</v>
       </c>
       <c r="F216" s="126" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="G216" s="126"/>
       <c r="H216" s="88" t="s">
@@ -23862,7 +23984,7 @@
         <v>211</v>
       </c>
       <c r="P216" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q216" s="90"/>
       <c r="R216" s="62"/>
@@ -23882,7 +24004,7 @@
         <v>216</v>
       </c>
       <c r="F217" s="126" t="s">
-        <v>2090</v>
+        <v>2086</v>
       </c>
       <c r="G217" s="126"/>
       <c r="H217" s="298" t="s">
@@ -23930,7 +24052,7 @@
         <v>217</v>
       </c>
       <c r="F218" s="126" t="s">
-        <v>2091</v>
+        <v>2087</v>
       </c>
       <c r="G218" s="126"/>
       <c r="H218" s="298" t="s">
@@ -23977,7 +24099,7 @@
         <v>218</v>
       </c>
       <c r="F219" s="126" t="s">
-        <v>2092</v>
+        <v>2088</v>
       </c>
       <c r="G219" s="126"/>
       <c r="H219" s="298" t="s">
@@ -24022,7 +24144,7 @@
         <v>219</v>
       </c>
       <c r="F220" s="126" t="s">
-        <v>2093</v>
+        <v>2089</v>
       </c>
       <c r="G220" s="126"/>
       <c r="H220" s="298" t="s">
@@ -24053,7 +24175,7 @@
         <v>222</v>
       </c>
       <c r="U220" s="116" t="s">
-        <v>2102</v>
+        <v>2098</v>
       </c>
     </row>
     <row r="221" spans="1:21" s="58" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -24069,7 +24191,7 @@
         <v>220</v>
       </c>
       <c r="F221" s="126" t="s">
-        <v>2094</v>
+        <v>2090</v>
       </c>
       <c r="G221" s="126"/>
       <c r="H221" s="298" t="s">
@@ -24114,7 +24236,7 @@
         <v>221</v>
       </c>
       <c r="F222" s="126" t="s">
-        <v>2095</v>
+        <v>2091</v>
       </c>
       <c r="G222" s="126"/>
       <c r="H222" s="298" t="s">
@@ -24159,7 +24281,7 @@
         <v>227</v>
       </c>
       <c r="F223" s="126" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="G223" s="126"/>
       <c r="H223" s="88" t="s">
@@ -24179,7 +24301,7 @@
         <v>211</v>
       </c>
       <c r="P223" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q223" s="90"/>
       <c r="R223" s="62"/>
@@ -24198,7 +24320,7 @@
         <v>228</v>
       </c>
       <c r="F224" s="126" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="G224" s="126"/>
       <c r="H224" s="125" t="s">
@@ -24271,7 +24393,7 @@
         <v>211</v>
       </c>
       <c r="P225" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q225" s="90"/>
       <c r="R225" s="62"/>
@@ -24292,7 +24414,7 @@
         <v>179</v>
       </c>
       <c r="F226" s="126" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="G226" s="126"/>
       <c r="H226" s="109" t="s">
@@ -24316,7 +24438,7 @@
         <v>211</v>
       </c>
       <c r="P226" s="606" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="Q226" s="90"/>
       <c r="R226" s="62"/>
@@ -24336,7 +24458,7 @@
         <v>975</v>
       </c>
       <c r="F227" s="307" t="s">
-        <v>2107</v>
+        <v>2103</v>
       </c>
       <c r="G227" s="307"/>
       <c r="H227" s="308"/>
@@ -24370,7 +24492,7 @@
         <v>185</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>2108</v>
+        <v>2104</v>
       </c>
       <c r="G228" s="28"/>
       <c r="H228" s="109" t="s">
@@ -24414,7 +24536,7 @@
         <v>183</v>
       </c>
       <c r="F229" s="94" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="G229" s="94"/>
       <c r="H229" s="79" t="s">
@@ -24458,7 +24580,7 @@
         <v>184</v>
       </c>
       <c r="F230" s="94" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="G230" s="94"/>
       <c r="H230" s="79" t="s">
@@ -24502,7 +24624,7 @@
         <v>973</v>
       </c>
       <c r="F231" s="94" t="s">
-        <v>2111</v>
+        <v>2107</v>
       </c>
       <c r="G231" s="94"/>
       <c r="H231" s="109" t="s">
@@ -24583,21 +24705,21 @@
         <v>53</v>
       </c>
       <c r="C233" s="224" t="s">
-        <v>2114</v>
+        <v>2110</v>
       </c>
       <c r="D233" s="224"/>
       <c r="E233" s="97" t="s">
         <v>180</v>
       </c>
       <c r="F233" s="94" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="G233" s="94"/>
       <c r="H233" s="109" t="s">
         <v>589</v>
       </c>
       <c r="I233" s="109" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="J233" s="129" t="s">
         <v>163</v>
@@ -24627,14 +24749,14 @@
         <v>54</v>
       </c>
       <c r="C234" s="224" t="s">
-        <v>2115</v>
+        <v>2111</v>
       </c>
       <c r="D234" s="224"/>
       <c r="E234" s="97" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="F234" s="94" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="G234" s="94"/>
       <c r="H234" s="109" t="s">
@@ -24811,13 +24933,13 @@
         <v>24</v>
       </c>
       <c r="C240" s="683" t="s">
+        <v>2070</v>
+      </c>
+      <c r="E240" s="152" t="s">
         <v>2074</v>
       </c>
-      <c r="E240" s="152" t="s">
-        <v>2078</v>
-      </c>
       <c r="F240" s="115" t="s">
-        <v>2080</v>
+        <v>2076</v>
       </c>
       <c r="G240" s="115"/>
       <c r="H240" s="125" t="s">
@@ -24853,13 +24975,13 @@
         <v>26</v>
       </c>
       <c r="C241" s="683" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E241" s="152" t="s">
         <v>2075</v>
       </c>
-      <c r="E241" s="152" t="s">
-        <v>2079</v>
-      </c>
       <c r="F241" s="115" t="s">
-        <v>2081</v>
+        <v>2077</v>
       </c>
       <c r="G241" s="115"/>
       <c r="H241" s="125" t="s">
@@ -24895,7 +25017,7 @@
         <v>28</v>
       </c>
       <c r="C242" s="688" t="s">
-        <v>2076</v>
+        <v>2072</v>
       </c>
       <c r="E242" s="152" t="s">
         <v>1425</v>
@@ -24925,7 +25047,7 @@
         <v>1419</v>
       </c>
       <c r="P242" s="19" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="R242" s="62"/>
     </row>
@@ -24937,7 +25059,7 @@
         <v>29</v>
       </c>
       <c r="C243" s="688" t="s">
-        <v>2077</v>
+        <v>2073</v>
       </c>
       <c r="E243" s="152" t="s">
         <v>1426</v>
@@ -24967,7 +25089,7 @@
         <v>1419</v>
       </c>
       <c r="P243" s="19" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="R243" s="62"/>
     </row>
@@ -32892,13 +33014,13 @@
       </c>
       <c r="G389" s="33"/>
       <c r="H389" s="33" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="I389" s="33" t="s">
         <v>1070</v>
       </c>
       <c r="J389" s="33" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="K389" s="199"/>
       <c r="L389" s="42"/>
@@ -34568,10 +34690,10 @@
   <dimension ref="A1:BG553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AA115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AB135" sqref="AB135"/>
+      <selection pane="bottomRight" activeCell="W181" sqref="W181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -34623,7 +34745,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="952" t="s">
-        <v>1846</v>
+        <v>1842</v>
       </c>
       <c r="F1" s="950" t="s">
         <v>3</v>
@@ -34662,46 +34784,46 @@
         <v>11</v>
       </c>
       <c r="R1" s="955" t="s">
-        <v>1845</v>
+        <v>1841</v>
       </c>
       <c r="S1" s="956" t="s">
-        <v>1906</v>
+        <v>1902</v>
       </c>
       <c r="T1" s="956" t="s">
-        <v>1965</v>
+        <v>1961</v>
       </c>
       <c r="U1" s="956" t="s">
-        <v>2148</v>
+        <v>2144</v>
       </c>
       <c r="V1" s="956" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
       <c r="W1" s="957" t="s">
-        <v>2221</v>
+        <v>2217</v>
       </c>
       <c r="X1" s="948" t="s">
-        <v>2223</v>
+        <v>2219</v>
       </c>
       <c r="Y1" s="957" t="s">
-        <v>2149</v>
+        <v>2145</v>
       </c>
       <c r="Z1" s="957" t="s">
-        <v>2150</v>
+        <v>2146</v>
       </c>
       <c r="AA1" s="957" t="s">
-        <v>2151</v>
+        <v>2147</v>
       </c>
       <c r="AB1" s="961" t="s">
-        <v>2212</v>
+        <v>2208</v>
       </c>
       <c r="AC1" s="948" t="s">
-        <v>2219</v>
+        <v>2215</v>
       </c>
       <c r="AD1" s="961" t="s">
-        <v>2220</v>
+        <v>2216</v>
       </c>
       <c r="AE1" s="948" t="s">
-        <v>2213</v>
+        <v>2209</v>
       </c>
       <c r="AF1" s="958"/>
       <c r="AG1" s="959"/>
@@ -34719,7 +34841,7 @@
         <v>151</v>
       </c>
       <c r="E2" s="693" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="F2" s="436" t="s">
         <v>1605</v>
@@ -34764,7 +34886,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="693" t="s">
-        <v>2202</v>
+        <v>2198</v>
       </c>
       <c r="F3" s="436" t="s">
         <v>152</v>
@@ -34805,16 +34927,16 @@
         <v>266</v>
       </c>
       <c r="C4" s="525" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="D4" s="437" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="E4" s="694" t="s">
         <v>1449</v>
       </c>
       <c r="F4" s="436" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="G4" s="592" t="s">
         <v>1129</v>
@@ -34841,7 +34963,7 @@
       <c r="Q4" s="8"/>
       <c r="R4" s="765"/>
       <c r="S4" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T4" s="8"/>
       <c r="U4" s="760"/>
@@ -34853,10 +34975,10 @@
         <v>50</v>
       </c>
       <c r="Y4" s="844" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z4" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA4" s="859"/>
       <c r="AB4" s="856"/>
@@ -34876,16 +34998,16 @@
         <v>267</v>
       </c>
       <c r="C5" s="525" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="D5" s="437" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="E5" s="694" t="s">
         <v>1450</v>
       </c>
       <c r="F5" s="436" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="G5" s="592" t="s">
         <v>1129</v>
@@ -34912,7 +35034,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="765"/>
       <c r="S5" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T5" s="8"/>
       <c r="U5" s="760"/>
@@ -34924,10 +35046,10 @@
         <v>50</v>
       </c>
       <c r="Y5" s="844" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z5" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA5" s="859"/>
       <c r="AB5" s="856"/>
@@ -34953,10 +35075,10 @@
         <v>153</v>
       </c>
       <c r="E6" s="694" t="s">
-        <v>2109</v>
+        <v>2105</v>
       </c>
       <c r="F6" s="436" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="G6" s="658" t="s">
         <v>1198</v>
@@ -34983,7 +35105,7 @@
       <c r="Q6" s="8"/>
       <c r="R6" s="765"/>
       <c r="S6" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T6" s="8"/>
       <c r="U6" s="760"/>
@@ -34995,20 +35117,20 @@
         <v>5</v>
       </c>
       <c r="Y6" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z6" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA6" s="845"/>
       <c r="AB6" s="842" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="AC6" s="851">
         <v>0</v>
       </c>
       <c r="AD6" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE6" s="982">
         <v>4</v>
@@ -35028,10 +35150,10 @@
         <v>154</v>
       </c>
       <c r="E7" s="694" t="s">
-        <v>2110</v>
+        <v>2106</v>
       </c>
       <c r="F7" s="436" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="G7" s="658" t="s">
         <v>1196</v>
@@ -35058,7 +35180,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="765"/>
       <c r="S7" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T7" s="8"/>
       <c r="U7" s="760"/>
@@ -35070,10 +35192,10 @@
         <v>5</v>
       </c>
       <c r="Y7" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z7" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA7" s="845"/>
       <c r="AB7" s="842">
@@ -35083,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE7" s="982">
         <v>4</v>
@@ -35097,13 +35219,13 @@
         <v>270</v>
       </c>
       <c r="C8" s="527" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="D8" s="432" t="s">
         <v>155</v>
       </c>
       <c r="E8" s="695" t="s">
-        <v>2201</v>
+        <v>2197</v>
       </c>
       <c r="F8" s="436" t="s">
         <v>1478</v>
@@ -35154,10 +35276,10 @@
         <v>156</v>
       </c>
       <c r="E9" s="694" t="s">
-        <v>2204</v>
+        <v>2200</v>
       </c>
       <c r="F9" s="436" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="G9" s="592" t="s">
         <v>1034</v>
@@ -35207,7 +35329,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="696" t="s">
-        <v>2205</v>
+        <v>2201</v>
       </c>
       <c r="F10" s="436" t="s">
         <v>1477</v>
@@ -35247,20 +35369,20 @@
         <v>5</v>
       </c>
       <c r="Y10" s="844" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z10" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA10" s="844">
         <v>0.1</v>
       </c>
       <c r="AB10" s="846"/>
       <c r="AC10" s="905" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AD10" s="963" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AE10" s="982">
         <v>4</v>
@@ -35278,7 +35400,7 @@
         <v>158</v>
       </c>
       <c r="E11" s="696" t="s">
-        <v>2206</v>
+        <v>2202</v>
       </c>
       <c r="F11" s="436" t="s">
         <v>158</v>
@@ -35325,10 +35447,10 @@
         <v>159</v>
       </c>
       <c r="E12" s="694" t="s">
-        <v>2207</v>
+        <v>2203</v>
       </c>
       <c r="F12" s="436" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="G12" s="592" t="s">
         <v>1325</v>
@@ -35374,16 +35496,16 @@
         <v>275</v>
       </c>
       <c r="C13" s="580" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="D13" s="523" t="s">
         <v>160</v>
       </c>
       <c r="E13" s="694" t="s">
-        <v>2208</v>
+        <v>2204</v>
       </c>
       <c r="F13" s="436" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="G13" s="592" t="s">
         <v>160</v>
@@ -35420,10 +35542,10 @@
         <v>5</v>
       </c>
       <c r="Y13" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z13" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA13" s="845">
         <v>50</v>
@@ -35433,7 +35555,7 @@
         <v>0</v>
       </c>
       <c r="AD13" s="963" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AE13" s="982">
         <v>3</v>
@@ -35453,10 +35575,10 @@
         <v>161</v>
       </c>
       <c r="E14" s="694" t="s">
-        <v>2210</v>
+        <v>2206</v>
       </c>
       <c r="F14" s="436" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="G14" s="592" t="s">
         <v>161</v>
@@ -35483,7 +35605,7 @@
       <c r="Q14" s="8"/>
       <c r="R14" s="765"/>
       <c r="S14" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T14" s="8"/>
       <c r="U14" s="760"/>
@@ -35510,10 +35632,10 @@
         <v>162</v>
       </c>
       <c r="E15" s="694" t="s">
-        <v>2209</v>
+        <v>2205</v>
       </c>
       <c r="F15" s="436" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="G15" s="592" t="s">
         <v>1324</v>
@@ -35540,7 +35662,7 @@
       <c r="Q15" s="8"/>
       <c r="R15" s="765"/>
       <c r="S15" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T15" s="8"/>
       <c r="U15" s="760"/>
@@ -35552,20 +35674,20 @@
         <v>5</v>
       </c>
       <c r="Y15" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z15" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA15" s="844"/>
       <c r="AB15" s="841" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="AC15" s="851">
         <v>0</v>
       </c>
       <c r="AD15" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE15" s="982">
         <v>2</v>
@@ -35582,13 +35704,13 @@
         <v>15</v>
       </c>
       <c r="D16" s="523" t="s">
-        <v>2203</v>
+        <v>2199</v>
       </c>
       <c r="E16" s="694" t="s">
         <v>368</v>
       </c>
       <c r="F16" s="436" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="G16" s="592" t="s">
         <v>1321</v>
@@ -35615,7 +35737,7 @@
       <c r="Q16" s="8"/>
       <c r="R16" s="765"/>
       <c r="S16" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T16" s="8"/>
       <c r="U16" s="760"/>
@@ -35627,20 +35749,20 @@
         <v>5</v>
       </c>
       <c r="Y16" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z16" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA16" s="844"/>
       <c r="AB16" s="842" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC16" s="851">
         <v>0</v>
       </c>
       <c r="AD16" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE16" s="982">
         <v>2</v>
@@ -35663,7 +35785,7 @@
         <v>374</v>
       </c>
       <c r="F17" s="572" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="G17" s="578"/>
       <c r="H17" s="578"/>
@@ -35712,7 +35834,7 @@
         <v>375</v>
       </c>
       <c r="F18" s="572" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="G18" s="578"/>
       <c r="H18" s="578"/>
@@ -35756,10 +35878,10 @@
         <v>970</v>
       </c>
       <c r="E19" s="697" t="s">
-        <v>2211</v>
+        <v>2207</v>
       </c>
       <c r="F19" s="572" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="G19" s="592" t="s">
         <v>1180</v>
@@ -35779,7 +35901,7 @@
         <v>2</v>
       </c>
       <c r="P19" s="701" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="Q19" s="702"/>
       <c r="R19" s="783"/>
@@ -35812,7 +35934,7 @@
         <v>395</v>
       </c>
       <c r="F20" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G20" s="592" t="s">
         <v>1316</v>
@@ -35867,7 +35989,7 @@
         <v>394</v>
       </c>
       <c r="F21" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G21" s="592" t="s">
         <v>1316</v>
@@ -35922,7 +36044,7 @@
         <v>396</v>
       </c>
       <c r="F22" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G22" s="592" t="s">
         <v>1316</v>
@@ -35977,7 +36099,7 @@
         <v>398</v>
       </c>
       <c r="F23" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G23" s="592" t="s">
         <v>1316</v>
@@ -36032,7 +36154,7 @@
         <v>1014</v>
       </c>
       <c r="F24" s="575" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G24" s="592" t="s">
         <v>1034</v>
@@ -36085,7 +36207,7 @@
         <v>1015</v>
       </c>
       <c r="F25" s="575" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G25" s="592" t="s">
         <v>1034</v>
@@ -36140,7 +36262,7 @@
         <v>388</v>
       </c>
       <c r="F26" s="575" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="G26" s="592" t="s">
         <v>1294</v>
@@ -36182,7 +36304,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="964" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AE26" s="783">
         <v>4</v>
@@ -36205,7 +36327,7 @@
         <v>389</v>
       </c>
       <c r="F27" s="575" t="s">
-        <v>1822</v>
+        <v>1818</v>
       </c>
       <c r="G27" s="592" t="s">
         <v>1294</v>
@@ -36247,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="964" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AE27" s="783">
         <v>4</v>
@@ -36270,7 +36392,7 @@
         <v>390</v>
       </c>
       <c r="F28" s="575" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="G28" s="592" t="s">
         <v>1294</v>
@@ -36312,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="964" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AE28" s="783">
         <v>4</v>
@@ -36335,7 +36457,7 @@
         <v>391</v>
       </c>
       <c r="F29" s="575" t="s">
-        <v>1821</v>
+        <v>1817</v>
       </c>
       <c r="G29" s="592" t="s">
         <v>1294</v>
@@ -36377,7 +36499,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="964" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AE29" s="783">
         <v>4</v>
@@ -36398,7 +36520,7 @@
         <v>392</v>
       </c>
       <c r="F30" s="575" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="G30" s="592" t="s">
         <v>1055</v>
@@ -36453,7 +36575,7 @@
         <v>393</v>
       </c>
       <c r="F31" s="575" t="s">
-        <v>1820</v>
+        <v>1816</v>
       </c>
       <c r="G31" s="592" t="s">
         <v>1055</v>
@@ -36548,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="964" t="s">
-        <v>2158</v>
+        <v>2154</v>
       </c>
       <c r="AE32" s="783">
         <v>4</v>
@@ -36556,7 +36678,7 @@
     </row>
     <row r="33" spans="1:31">
       <c r="A33" s="907" t="s">
-        <v>1848</v>
+        <v>1844</v>
       </c>
       <c r="B33" s="8"/>
       <c r="C33" s="928"/>
@@ -36600,7 +36722,7 @@
         <v>151</v>
       </c>
       <c r="E34" s="571" t="s">
-        <v>1844</v>
+        <v>1840</v>
       </c>
       <c r="F34" s="436" t="s">
         <v>1605</v>
@@ -36644,7 +36766,7 @@
         <v>152</v>
       </c>
       <c r="E35" s="571" t="s">
-        <v>1843</v>
+        <v>1839</v>
       </c>
       <c r="F35" s="436" t="s">
         <v>152</v>
@@ -36684,16 +36806,16 @@
         <v>266</v>
       </c>
       <c r="C36" s="525" t="s">
-        <v>1842</v>
+        <v>1838</v>
       </c>
       <c r="D36" s="437" t="s">
-        <v>1862</v>
+        <v>1858</v>
       </c>
       <c r="E36" s="437" t="s">
         <v>234</v>
       </c>
       <c r="F36" s="436" t="s">
-        <v>1841</v>
+        <v>1837</v>
       </c>
       <c r="G36" s="592" t="s">
         <v>1129</v>
@@ -36730,10 +36852,10 @@
         <v>50</v>
       </c>
       <c r="Y36" s="844" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z36" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA36" s="859"/>
       <c r="AB36" s="856"/>
@@ -36753,16 +36875,16 @@
         <v>267</v>
       </c>
       <c r="C37" s="525" t="s">
-        <v>1840</v>
+        <v>1836</v>
       </c>
       <c r="D37" s="437" t="s">
-        <v>1863</v>
+        <v>1859</v>
       </c>
       <c r="E37" s="437" t="s">
         <v>235</v>
       </c>
       <c r="F37" s="436" t="s">
-        <v>1839</v>
+        <v>1835</v>
       </c>
       <c r="G37" s="592" t="s">
         <v>1129</v>
@@ -36799,10 +36921,10 @@
         <v>50</v>
       </c>
       <c r="Y37" s="844" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z37" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA37" s="859"/>
       <c r="AB37" s="856"/>
@@ -36831,7 +36953,7 @@
         <v>236</v>
       </c>
       <c r="F38" s="436" t="s">
-        <v>1838</v>
+        <v>1834</v>
       </c>
       <c r="G38" s="658" t="s">
         <v>1198</v>
@@ -36868,20 +36990,20 @@
         <v>5</v>
       </c>
       <c r="Y38" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z38" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA38" s="845"/>
       <c r="AB38" s="842" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="AC38" s="851">
         <v>0</v>
       </c>
       <c r="AD38" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE38" s="982">
         <v>4</v>
@@ -36904,7 +37026,7 @@
         <v>237</v>
       </c>
       <c r="F39" s="436" t="s">
-        <v>1837</v>
+        <v>1833</v>
       </c>
       <c r="G39" s="658" t="s">
         <v>1196</v>
@@ -36941,10 +37063,10 @@
         <v>5</v>
       </c>
       <c r="Y39" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z39" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA39" s="845"/>
       <c r="AB39" s="842">
@@ -36954,7 +37076,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE39" s="982">
         <v>4</v>
@@ -36968,7 +37090,7 @@
         <v>270</v>
       </c>
       <c r="C40" s="527" t="s">
-        <v>1836</v>
+        <v>1832</v>
       </c>
       <c r="D40" s="432" t="s">
         <v>155</v>
@@ -37027,7 +37149,7 @@
         <v>369</v>
       </c>
       <c r="F41" s="436" t="s">
-        <v>1835</v>
+        <v>1831</v>
       </c>
       <c r="G41" s="592" t="s">
         <v>1034</v>
@@ -37125,7 +37247,7 @@
         <v>240</v>
       </c>
       <c r="F43" s="436" t="s">
-        <v>1834</v>
+        <v>1830</v>
       </c>
       <c r="G43" s="592" t="s">
         <v>1325</v>
@@ -37170,7 +37292,7 @@
         <v>274</v>
       </c>
       <c r="C44" s="580" t="s">
-        <v>1833</v>
+        <v>1829</v>
       </c>
       <c r="D44" s="523" t="s">
         <v>160</v>
@@ -37179,7 +37301,7 @@
         <v>371</v>
       </c>
       <c r="F44" s="630" t="s">
-        <v>1832</v>
+        <v>1828</v>
       </c>
       <c r="G44" s="592" t="s">
         <v>160</v>
@@ -37216,10 +37338,10 @@
         <v>5</v>
       </c>
       <c r="Y44" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z44" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA44" s="845">
         <v>50</v>
@@ -37229,7 +37351,7 @@
         <v>0</v>
       </c>
       <c r="AD44" s="963" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AE44" s="982">
         <v>3</v>
@@ -37252,7 +37374,7 @@
         <v>241</v>
       </c>
       <c r="F45" s="436" t="s">
-        <v>1831</v>
+        <v>1827</v>
       </c>
       <c r="G45" s="592" t="s">
         <v>161</v>
@@ -37306,7 +37428,7 @@
         <v>242</v>
       </c>
       <c r="F46" s="436" t="s">
-        <v>1830</v>
+        <v>1826</v>
       </c>
       <c r="G46" s="592" t="s">
         <v>1324</v>
@@ -37343,20 +37465,20 @@
         <v>5</v>
       </c>
       <c r="Y46" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z46" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA46" s="844"/>
       <c r="AB46" s="841" t="s">
-        <v>2155</v>
+        <v>2151</v>
       </c>
       <c r="AC46" s="851">
         <v>0</v>
       </c>
       <c r="AD46" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE46" s="982">
         <v>2</v>
@@ -37373,13 +37495,13 @@
         <v>15</v>
       </c>
       <c r="D47" s="523" t="s">
-        <v>1829</v>
+        <v>1825</v>
       </c>
       <c r="E47" s="437" t="s">
         <v>368</v>
       </c>
       <c r="F47" s="436" t="s">
-        <v>1828</v>
+        <v>1824</v>
       </c>
       <c r="G47" s="592" t="s">
         <v>1321</v>
@@ -37416,20 +37538,20 @@
         <v>5</v>
       </c>
       <c r="Y47" s="845" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="Z47" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA47" s="844"/>
       <c r="AB47" s="842" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC47" s="851">
         <v>0</v>
       </c>
       <c r="AD47" s="962" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="AE47" s="982">
         <v>2</v>
@@ -37452,7 +37574,7 @@
         <v>374</v>
       </c>
       <c r="F48" s="572" t="s">
-        <v>1827</v>
+        <v>1823</v>
       </c>
       <c r="G48" s="578"/>
       <c r="H48" s="578"/>
@@ -37501,7 +37623,7 @@
         <v>375</v>
       </c>
       <c r="F49" s="572" t="s">
-        <v>1826</v>
+        <v>1822</v>
       </c>
       <c r="G49" s="578"/>
       <c r="H49" s="578"/>
@@ -37548,7 +37670,7 @@
         <v>376</v>
       </c>
       <c r="F50" s="572" t="s">
-        <v>1825</v>
+        <v>1821</v>
       </c>
       <c r="G50" s="592" t="s">
         <v>1180</v>
@@ -37568,7 +37690,7 @@
         <v>2</v>
       </c>
       <c r="P50" s="701" t="s">
-        <v>1824</v>
+        <v>1820</v>
       </c>
       <c r="Q50" s="702"/>
       <c r="R50" s="783"/>
@@ -37601,7 +37723,7 @@
         <v>395</v>
       </c>
       <c r="F51" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G51" s="592" t="s">
         <v>1316</v>
@@ -37656,7 +37778,7 @@
         <v>394</v>
       </c>
       <c r="F52" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G52" s="592" t="s">
         <v>1316</v>
@@ -37711,7 +37833,7 @@
         <v>396</v>
       </c>
       <c r="F53" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G53" s="592" t="s">
         <v>1316</v>
@@ -37766,7 +37888,7 @@
         <v>398</v>
       </c>
       <c r="F54" s="572" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G54" s="592" t="s">
         <v>1316</v>
@@ -37821,7 +37943,7 @@
         <v>1014</v>
       </c>
       <c r="F55" s="575" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G55" s="592" t="s">
         <v>1034</v>
@@ -37874,7 +37996,7 @@
         <v>1015</v>
       </c>
       <c r="F56" s="575" t="s">
-        <v>1823</v>
+        <v>1819</v>
       </c>
       <c r="G56" s="592" t="s">
         <v>1034</v>
@@ -37914,7 +38036,7 @@
     </row>
     <row r="57" spans="1:31" ht="13.5" thickBot="1">
       <c r="A57" s="907" t="s">
-        <v>1847</v>
+        <v>1843</v>
       </c>
       <c r="B57" s="8"/>
       <c r="C57" s="928"/>
@@ -37953,19 +38075,19 @@
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="447" t="s">
-        <v>1819</v>
+        <v>1815</v>
       </c>
       <c r="E58" s="447" t="s">
-        <v>1818</v>
+        <v>1814</v>
       </c>
       <c r="F58" s="447" t="s">
-        <v>1817</v>
+        <v>1813</v>
       </c>
       <c r="G58" s="592" t="s">
         <v>1180</v>
       </c>
       <c r="H58" s="631" t="s">
-        <v>1984</v>
+        <v>1980</v>
       </c>
       <c r="I58" s="517" t="s">
         <v>18</v>
@@ -38005,19 +38127,19 @@
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="447" t="s">
-        <v>1816</v>
+        <v>1812</v>
       </c>
       <c r="E59" s="447" t="s">
-        <v>1815</v>
+        <v>1811</v>
       </c>
       <c r="F59" s="447" t="s">
-        <v>1814</v>
+        <v>1810</v>
       </c>
       <c r="G59" s="592" t="s">
         <v>1180</v>
       </c>
       <c r="H59" s="631" t="s">
-        <v>1985</v>
+        <v>1981</v>
       </c>
       <c r="I59" s="517" t="s">
         <v>18</v>
@@ -38057,19 +38179,19 @@
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="447" t="s">
-        <v>1813</v>
+        <v>1809</v>
       </c>
       <c r="E60" s="447" t="s">
-        <v>1812</v>
+        <v>1808</v>
       </c>
       <c r="F60" s="447" t="s">
-        <v>1811</v>
+        <v>1807</v>
       </c>
       <c r="G60" s="592" t="s">
         <v>1180</v>
       </c>
       <c r="H60" s="631" t="s">
-        <v>1986</v>
+        <v>1982</v>
       </c>
       <c r="I60" s="517" t="s">
         <v>18</v>
@@ -38109,19 +38231,19 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="447" t="s">
-        <v>1810</v>
+        <v>1806</v>
       </c>
       <c r="E61" s="447" t="s">
-        <v>1809</v>
+        <v>1805</v>
       </c>
       <c r="F61" s="447" t="s">
-        <v>1808</v>
+        <v>1804</v>
       </c>
       <c r="G61" s="592" t="s">
         <v>1180</v>
       </c>
       <c r="H61" s="631" t="s">
-        <v>1987</v>
+        <v>1983</v>
       </c>
       <c r="I61" s="517" t="s">
         <v>18</v>
@@ -38161,19 +38283,19 @@
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="447" t="s">
-        <v>1807</v>
+        <v>1803</v>
       </c>
       <c r="E62" s="447" t="s">
-        <v>1806</v>
+        <v>1802</v>
       </c>
       <c r="F62" s="447" t="s">
-        <v>1805</v>
+        <v>1801</v>
       </c>
       <c r="G62" s="592" t="s">
         <v>1180</v>
       </c>
       <c r="H62" s="631" t="s">
-        <v>1988</v>
+        <v>1984</v>
       </c>
       <c r="I62" s="517" t="s">
         <v>18</v>
@@ -38259,7 +38381,7 @@
         <v>169</v>
       </c>
       <c r="D64" s="434" t="s">
-        <v>1804</v>
+        <v>1800</v>
       </c>
       <c r="E64" s="447" t="s">
         <v>298</v>
@@ -38319,7 +38441,7 @@
         <v>245</v>
       </c>
       <c r="F65" s="447" t="s">
-        <v>1803</v>
+        <v>1799</v>
       </c>
       <c r="G65" s="658" t="s">
         <v>1152</v>
@@ -38373,7 +38495,7 @@
         <v>244</v>
       </c>
       <c r="F66" s="447" t="s">
-        <v>1802</v>
+        <v>1798</v>
       </c>
       <c r="G66" s="658" t="s">
         <v>1202</v>
@@ -38385,7 +38507,7 @@
         <v>974</v>
       </c>
       <c r="J66" s="438" t="s">
-        <v>1801</v>
+        <v>1797</v>
       </c>
       <c r="K66" s="8"/>
       <c r="L66" s="8"/>
@@ -38433,7 +38555,7 @@
         <v>603</v>
       </c>
       <c r="H67" s="552" t="s">
-        <v>1990</v>
+        <v>1986</v>
       </c>
       <c r="I67" s="633" t="s">
         <v>18</v>
@@ -38484,13 +38606,13 @@
         <v>1590</v>
       </c>
       <c r="G68" s="504" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H68" s="552" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I68" s="633" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="J68" s="435" t="s">
         <v>18</v>
@@ -38963,7 +39085,7 @@
         <v>603</v>
       </c>
       <c r="H77" s="552" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="I77" s="633" t="s">
         <v>18</v>
@@ -39014,10 +39136,10 @@
         <v>1556</v>
       </c>
       <c r="G78" s="504" t="s">
-        <v>1994</v>
+        <v>1990</v>
       </c>
       <c r="H78" s="631" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="I78" s="633" t="s">
         <v>18</v>
@@ -39123,22 +39245,22 @@
         <v>262</v>
       </c>
       <c r="C81" s="559" t="s">
-        <v>1800</v>
+        <v>1796</v>
       </c>
       <c r="D81" s="684" t="s">
-        <v>1872</v>
+        <v>1868</v>
       </c>
       <c r="E81" s="447" t="s">
-        <v>2049</v>
+        <v>2045</v>
       </c>
       <c r="F81" s="447" t="s">
-        <v>1799</v>
+        <v>1795</v>
       </c>
       <c r="G81" s="634" t="s">
         <v>1152</v>
       </c>
       <c r="H81" s="634" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="I81" s="445" t="s">
         <v>15</v>
@@ -39178,16 +39300,16 @@
         <v>264</v>
       </c>
       <c r="C82" s="569" t="s">
-        <v>1798</v>
+        <v>1794</v>
       </c>
       <c r="D82" s="684" t="s">
-        <v>1797</v>
+        <v>1793</v>
       </c>
       <c r="E82" s="447" t="s">
-        <v>2048</v>
+        <v>2044</v>
       </c>
       <c r="F82" s="684" t="s">
-        <v>1796</v>
+        <v>1792</v>
       </c>
       <c r="G82" s="634" t="s">
         <v>1152</v>
@@ -39220,20 +39342,20 @@
         <v>5</v>
       </c>
       <c r="Y82" s="445" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z82" s="445" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA82" s="445"/>
       <c r="AB82" s="445" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="AC82" s="812">
         <v>0</v>
       </c>
       <c r="AD82" s="962" t="s">
-        <v>2164</v>
+        <v>2160</v>
       </c>
       <c r="AE82" s="982">
         <v>4</v>
@@ -39253,16 +39375,16 @@
         <v>576</v>
       </c>
       <c r="E83" s="557" t="s">
-        <v>2044</v>
+        <v>2040</v>
       </c>
       <c r="F83" s="447" t="s">
-        <v>1795</v>
+        <v>1791</v>
       </c>
       <c r="G83" s="634" t="s">
         <v>1152</v>
       </c>
       <c r="H83" s="634" t="s">
-        <v>1996</v>
+        <v>1992</v>
       </c>
       <c r="I83" s="445" t="s">
         <v>15</v>
@@ -39293,20 +39415,20 @@
         <v>95</v>
       </c>
       <c r="Y83" s="445" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z83" s="445" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA83" s="445"/>
       <c r="AB83" s="812" t="s">
-        <v>2168</v>
+        <v>2164</v>
       </c>
       <c r="AC83" s="8">
         <v>0</v>
       </c>
       <c r="AD83" s="962" t="s">
-        <v>2169</v>
+        <v>2165</v>
       </c>
       <c r="AE83" s="982">
         <v>4</v>
@@ -39323,13 +39445,13 @@
         <v>108</v>
       </c>
       <c r="D84" s="563" t="s">
-        <v>1794</v>
+        <v>1790</v>
       </c>
       <c r="E84" s="556" t="s">
-        <v>2045</v>
+        <v>2041</v>
       </c>
       <c r="F84" s="556" t="s">
-        <v>1793</v>
+        <v>1789</v>
       </c>
       <c r="G84" s="635" t="s">
         <v>793</v>
@@ -39366,20 +39488,20 @@
         <v>5</v>
       </c>
       <c r="Y84" s="445" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z84" s="445" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA84" s="445"/>
       <c r="AB84" s="812" t="s">
-        <v>2166</v>
+        <v>2162</v>
       </c>
       <c r="AC84" s="8">
         <v>0</v>
       </c>
       <c r="AD84" s="962" t="s">
-        <v>2167</v>
+        <v>2163</v>
       </c>
       <c r="AE84" s="982">
         <v>4</v>
@@ -39396,16 +39518,16 @@
         <v>952</v>
       </c>
       <c r="D85" s="556" t="s">
-        <v>1792</v>
+        <v>1788</v>
       </c>
       <c r="E85" s="556" t="s">
-        <v>2046</v>
+        <v>2042</v>
       </c>
       <c r="F85" s="556" t="s">
-        <v>1864</v>
+        <v>1860</v>
       </c>
       <c r="G85" s="635" t="s">
-        <v>1997</v>
+        <v>1993</v>
       </c>
       <c r="H85" s="634" t="s">
         <v>445</v>
@@ -39446,19 +39568,19 @@
         <v>269</v>
       </c>
       <c r="C86" s="555" t="s">
-        <v>1791</v>
+        <v>1787</v>
       </c>
       <c r="D86" s="556" t="s">
-        <v>1790</v>
+        <v>1786</v>
       </c>
       <c r="E86" s="556" t="s">
-        <v>2047</v>
+        <v>2043</v>
       </c>
       <c r="F86" s="556" t="s">
-        <v>1865</v>
+        <v>1861</v>
       </c>
       <c r="G86" s="635" t="s">
-        <v>1998</v>
+        <v>1994</v>
       </c>
       <c r="H86" s="634" t="s">
         <v>445</v>
@@ -39497,7 +39619,7 @@
       </c>
       <c r="B87" s="686"/>
       <c r="C87" s="511" t="s">
-        <v>1789</v>
+        <v>1785</v>
       </c>
       <c r="D87" s="567"/>
       <c r="E87" s="566"/>
@@ -39536,23 +39658,23 @@
         <v>270</v>
       </c>
       <c r="C88" s="562" t="s">
-        <v>1867</v>
+        <v>1863</v>
       </c>
       <c r="D88" s="684" t="s">
+        <v>1862</v>
+      </c>
+      <c r="E88" s="684" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F88" s="447" t="s">
         <v>1866</v>
-      </c>
-      <c r="E88" s="684" t="s">
-        <v>2142</v>
-      </c>
-      <c r="F88" s="447" t="s">
-        <v>1870</v>
       </c>
       <c r="G88" s="501" t="s">
         <v>1129</v>
       </c>
       <c r="H88" s="634"/>
       <c r="I88" s="636" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="J88" s="637" t="s">
         <v>1188</v>
@@ -39572,7 +39694,7 @@
       <c r="Q88" s="8"/>
       <c r="R88" s="713"/>
       <c r="S88" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T88" s="712"/>
       <c r="U88" s="712"/>
@@ -39594,23 +39716,23 @@
         <v>271</v>
       </c>
       <c r="C89" s="562" t="s">
-        <v>1788</v>
+        <v>1784</v>
       </c>
       <c r="D89" s="557" t="s">
-        <v>1868</v>
+        <v>1864</v>
       </c>
       <c r="E89" s="557" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="F89" s="557" t="s">
-        <v>1869</v>
+        <v>1865</v>
       </c>
       <c r="G89" s="501" t="s">
         <v>1129</v>
       </c>
       <c r="H89" s="634"/>
       <c r="I89" s="636" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="J89" s="634" t="s">
         <v>1164</v>
@@ -39626,7 +39748,7 @@
       <c r="Q89" s="711"/>
       <c r="R89" s="712"/>
       <c r="S89" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T89" s="712"/>
       <c r="U89" s="712"/>
@@ -39638,20 +39760,20 @@
         <v>5</v>
       </c>
       <c r="Y89" s="781" t="s">
-        <v>2159</v>
+        <v>2155</v>
       </c>
       <c r="Z89" s="844" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA89" s="845"/>
       <c r="AB89" s="842" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC89" s="851">
         <v>0</v>
       </c>
       <c r="AD89" s="943" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="AE89" s="982">
         <v>4</v>
@@ -39665,23 +39787,23 @@
         <v>272</v>
       </c>
       <c r="C90" s="559" t="s">
-        <v>1787</v>
+        <v>1783</v>
       </c>
       <c r="D90" s="557" t="s">
-        <v>1871</v>
+        <v>1867</v>
       </c>
       <c r="E90" s="557" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="F90" s="557"/>
       <c r="G90" s="501" t="s">
         <v>1129</v>
       </c>
       <c r="H90" s="634" t="s">
-        <v>1995</v>
+        <v>1991</v>
       </c>
       <c r="I90" s="636" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="J90" s="634"/>
       <c r="K90" s="445"/>
@@ -39716,7 +39838,7 @@
         <v>273</v>
       </c>
       <c r="C91" s="559" t="s">
-        <v>1786</v>
+        <v>1782</v>
       </c>
       <c r="D91" s="565" t="s">
         <v>1428</v>
@@ -39725,19 +39847,19 @@
         <v>570</v>
       </c>
       <c r="F91" s="557" t="s">
-        <v>1785</v>
+        <v>1781</v>
       </c>
       <c r="G91" s="501" t="s">
         <v>1129</v>
       </c>
       <c r="H91" s="634" t="s">
-        <v>1999</v>
+        <v>1995</v>
       </c>
       <c r="I91" s="636" t="s">
-        <v>2001</v>
+        <v>1997</v>
       </c>
       <c r="J91" s="637" t="s">
-        <v>2000</v>
+        <v>1996</v>
       </c>
       <c r="K91" s="445"/>
       <c r="L91" s="445" t="s">
@@ -39756,11 +39878,11 @@
         <v>16.5</v>
       </c>
       <c r="S91" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T91" s="712"/>
       <c r="U91" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V91" s="712"/>
       <c r="W91" s="862"/>
@@ -39786,10 +39908,10 @@
         <v>302</v>
       </c>
       <c r="E92" s="563" t="s">
-        <v>2051</v>
+        <v>2047</v>
       </c>
       <c r="F92" s="557" t="s">
-        <v>1784</v>
+        <v>1780</v>
       </c>
       <c r="G92" s="501" t="s">
         <v>1037</v>
@@ -39816,11 +39938,11 @@
         <v>37</v>
       </c>
       <c r="S92" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T92" s="712"/>
       <c r="U92" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V92" s="712"/>
       <c r="W92" s="862"/>
@@ -39841,17 +39963,17 @@
         <v>1528</v>
       </c>
       <c r="D93" s="557" t="s">
-        <v>1783</v>
+        <v>1779</v>
       </c>
       <c r="E93" s="557" t="s">
-        <v>1782</v>
+        <v>1778</v>
       </c>
       <c r="F93" s="557"/>
       <c r="G93" s="501" t="s">
         <v>1161</v>
       </c>
       <c r="H93" s="501" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="I93" s="597" t="s">
         <v>15</v>
@@ -39868,7 +39990,7 @@
       <c r="Q93" s="8"/>
       <c r="R93" s="713"/>
       <c r="S93" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T93" s="712"/>
       <c r="U93" s="712"/>
@@ -39890,7 +40012,7 @@
         <v>276</v>
       </c>
       <c r="C94" s="559" t="s">
-        <v>1781</v>
+        <v>1777</v>
       </c>
       <c r="D94" s="557" t="s">
         <v>452</v>
@@ -39899,13 +40021,13 @@
         <v>453</v>
       </c>
       <c r="F94" s="557" t="s">
-        <v>1780</v>
+        <v>1776</v>
       </c>
       <c r="G94" s="501" t="s">
         <v>1161</v>
       </c>
       <c r="H94" s="501" t="s">
-        <v>2002</v>
+        <v>1998</v>
       </c>
       <c r="I94" s="597" t="s">
         <v>15</v>
@@ -39926,7 +40048,7 @@
       <c r="Q94" s="8"/>
       <c r="R94" s="713"/>
       <c r="S94" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T94" s="712"/>
       <c r="U94" s="712"/>
@@ -39938,10 +40060,10 @@
         <v>5</v>
       </c>
       <c r="Y94" s="784" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z94" s="611" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA94" s="879" t="s">
         <v>18</v>
@@ -39967,7 +40089,7 @@
         <v>277</v>
       </c>
       <c r="C95" s="559" t="s">
-        <v>1779</v>
+        <v>1775</v>
       </c>
       <c r="D95" s="557" t="s">
         <v>910</v>
@@ -39976,7 +40098,7 @@
         <v>454</v>
       </c>
       <c r="F95" s="557" t="s">
-        <v>1778</v>
+        <v>1774</v>
       </c>
       <c r="G95" s="501" t="s">
         <v>1161</v>
@@ -39986,7 +40108,7 @@
         <v>15</v>
       </c>
       <c r="J95" s="638" t="s">
-        <v>2003</v>
+        <v>1999</v>
       </c>
       <c r="K95" s="445"/>
       <c r="L95" s="451"/>
@@ -40000,12 +40122,12 @@
       </c>
       <c r="Q95" s="8"/>
       <c r="R95" s="611" t="s">
-        <v>1777</v>
+        <v>1773</v>
       </c>
       <c r="S95" s="712"/>
       <c r="T95" s="712"/>
       <c r="U95" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V95" s="712"/>
       <c r="W95" s="862"/>
@@ -40028,13 +40150,13 @@
         <v>167</v>
       </c>
       <c r="D96" s="684" t="s">
-        <v>1776</v>
+        <v>1772</v>
       </c>
       <c r="E96" s="684" t="s">
-        <v>2037</v>
+        <v>2033</v>
       </c>
       <c r="F96" s="447" t="s">
-        <v>1775</v>
+        <v>1771</v>
       </c>
       <c r="G96" s="555" t="s">
         <v>589</v>
@@ -40061,7 +40183,7 @@
       <c r="Q96" s="8"/>
       <c r="R96" s="713"/>
       <c r="S96" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T96" s="712"/>
       <c r="U96" s="712"/>
@@ -40073,10 +40195,10 @@
         <v>95</v>
       </c>
       <c r="Y96" s="784" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z96" s="611" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA96" s="879" t="s">
         <v>18</v>
@@ -40105,20 +40227,20 @@
         <v>167</v>
       </c>
       <c r="D97" s="684" t="s">
-        <v>1774</v>
+        <v>1770</v>
       </c>
       <c r="E97" s="684" t="s">
-        <v>2055</v>
+        <v>2051</v>
       </c>
       <c r="F97" s="557" t="s">
-        <v>1773</v>
+        <v>1769</v>
       </c>
       <c r="G97" s="555" t="s">
         <v>589</v>
       </c>
       <c r="H97" s="501"/>
       <c r="I97" s="597" t="s">
-        <v>1772</v>
+        <v>1768</v>
       </c>
       <c r="J97" s="638"/>
       <c r="K97" s="445"/>
@@ -40132,7 +40254,7 @@
       <c r="Q97" s="8"/>
       <c r="R97" s="713"/>
       <c r="S97" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T97" s="712"/>
       <c r="U97" s="712"/>
@@ -40154,23 +40276,23 @@
         <v>280</v>
       </c>
       <c r="C98" s="562" t="s">
-        <v>1771</v>
+        <v>1767</v>
       </c>
       <c r="D98" s="684" t="s">
-        <v>1770</v>
+        <v>1766</v>
       </c>
       <c r="E98" s="684" t="s">
-        <v>2054</v>
+        <v>2050</v>
       </c>
       <c r="F98" s="557"/>
       <c r="G98" s="555" t="s">
-        <v>2004</v>
+        <v>2000</v>
       </c>
       <c r="H98" s="501" t="s">
         <v>1114</v>
       </c>
       <c r="I98" s="597" t="s">
-        <v>1769</v>
+        <v>1765</v>
       </c>
       <c r="J98" s="638"/>
       <c r="K98" s="445"/>
@@ -40188,7 +40310,7 @@
       <c r="S98" s="712"/>
       <c r="T98" s="712"/>
       <c r="U98" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V98" s="712"/>
       <c r="W98" s="862"/>
@@ -40214,10 +40336,10 @@
         <v>1452</v>
       </c>
       <c r="E99" s="684" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="F99" s="447" t="s">
-        <v>1768</v>
+        <v>1764</v>
       </c>
       <c r="G99" s="501" t="s">
         <v>1129</v>
@@ -40226,7 +40348,7 @@
         <v>1114</v>
       </c>
       <c r="I99" s="597" t="s">
-        <v>1767</v>
+        <v>1763</v>
       </c>
       <c r="J99" s="638" t="s">
         <v>18</v>
@@ -40270,13 +40392,13 @@
         <v>568</v>
       </c>
       <c r="E100" s="684" t="s">
-        <v>1766</v>
+        <v>1762</v>
       </c>
       <c r="F100" s="447" t="s">
-        <v>1765</v>
+        <v>1761</v>
       </c>
       <c r="G100" s="715" t="s">
-        <v>2005</v>
+        <v>2001</v>
       </c>
       <c r="H100" s="501"/>
       <c r="I100" s="597" t="s">
@@ -40294,17 +40416,17 @@
       </c>
       <c r="P100" s="444"/>
       <c r="Q100" s="8" t="s">
-        <v>1908</v>
+        <v>1904</v>
       </c>
       <c r="R100" s="713">
         <v>0.25</v>
       </c>
       <c r="S100" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T100" s="712"/>
       <c r="U100" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V100" s="712"/>
       <c r="W100" s="762"/>
@@ -40330,17 +40452,17 @@
         <v>1454</v>
       </c>
       <c r="E101" s="684" t="s">
-        <v>2052</v>
+        <v>2048</v>
       </c>
       <c r="F101" s="447"/>
       <c r="G101" s="501" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H101" s="501" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I101" s="597" t="s">
-        <v>1764</v>
+        <v>1760</v>
       </c>
       <c r="J101" s="638"/>
       <c r="K101" s="445"/>
@@ -40358,7 +40480,7 @@
       <c r="S101" s="712"/>
       <c r="T101" s="712"/>
       <c r="U101" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V101" s="712"/>
       <c r="W101" s="762"/>
@@ -40461,16 +40583,16 @@
         <v>283</v>
       </c>
       <c r="C104" s="559" t="s">
-        <v>1763</v>
+        <v>1759</v>
       </c>
       <c r="D104" s="684" t="s">
-        <v>1762</v>
+        <v>1758</v>
       </c>
       <c r="E104" s="447" t="s">
-        <v>2056</v>
+        <v>2052</v>
       </c>
       <c r="F104" s="447" t="s">
-        <v>1761</v>
+        <v>1757</v>
       </c>
       <c r="G104" s="501" t="s">
         <v>1296</v>
@@ -40507,20 +40629,20 @@
         <v>5</v>
       </c>
       <c r="Y104" s="438" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z104" s="874" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA104" s="438"/>
       <c r="AB104" s="809" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="AC104" s="843">
         <v>0</v>
       </c>
       <c r="AD104" s="967" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="AE104" s="982">
         <v>3</v>
@@ -40534,20 +40656,20 @@
         <v>283</v>
       </c>
       <c r="C105" s="508" t="s">
-        <v>1760</v>
+        <v>1756</v>
       </c>
       <c r="D105" s="687" t="s">
-        <v>1759</v>
+        <v>1755</v>
       </c>
       <c r="E105" s="687" t="s">
-        <v>2057</v>
+        <v>2053</v>
       </c>
       <c r="F105" s="542"/>
       <c r="G105" s="501" t="s">
         <v>1296</v>
       </c>
       <c r="H105" s="568" t="s">
-        <v>2006</v>
+        <v>2002</v>
       </c>
       <c r="I105" s="597" t="s">
         <v>18</v>
@@ -40582,17 +40704,17 @@
         <v>284</v>
       </c>
       <c r="C106" s="559" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="D106" s="687" t="s">
-        <v>2144</v>
+        <v>2140</v>
       </c>
       <c r="E106" s="687" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="F106" s="542"/>
       <c r="G106" s="501" t="s">
-        <v>2146</v>
+        <v>2142</v>
       </c>
       <c r="H106" s="568"/>
       <c r="I106" s="597" t="s">
@@ -40614,7 +40736,7 @@
       <c r="S106" s="712"/>
       <c r="T106" s="453"/>
       <c r="U106" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="V106" s="712"/>
       <c r="W106" s="863"/>
@@ -40640,7 +40762,7 @@
         <v>559</v>
       </c>
       <c r="E107" s="558" t="s">
-        <v>2058</v>
+        <v>2054</v>
       </c>
       <c r="F107" s="452"/>
       <c r="G107" s="504" t="s">
@@ -40687,10 +40809,10 @@
         <v>1473</v>
       </c>
       <c r="D108" s="557" t="s">
-        <v>1873</v>
+        <v>1869</v>
       </c>
       <c r="E108" s="556" t="s">
-        <v>2059</v>
+        <v>2055</v>
       </c>
       <c r="F108" s="447"/>
       <c r="G108" s="504" t="s">
@@ -40728,20 +40850,20 @@
         <v>5</v>
       </c>
       <c r="Y108" s="438" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z108" s="874" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA108" s="777" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="AB108" s="876"/>
       <c r="AC108" s="906" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AD108" s="968" t="s">
-        <v>1758</v>
+        <v>1754</v>
       </c>
       <c r="AE108" s="982">
         <v>4</v>
@@ -40755,13 +40877,13 @@
         <v>286</v>
       </c>
       <c r="C109" s="555" t="s">
-        <v>1757</v>
+        <v>1753</v>
       </c>
       <c r="D109" s="557" t="s">
-        <v>1874</v>
+        <v>1870</v>
       </c>
       <c r="E109" s="556" t="s">
-        <v>2060</v>
+        <v>2056</v>
       </c>
       <c r="F109" s="447"/>
       <c r="G109" s="504" t="s">
@@ -40805,17 +40927,17 @@
         <v>287</v>
       </c>
       <c r="C110" s="555" t="s">
-        <v>1756</v>
+        <v>1752</v>
       </c>
       <c r="D110" s="557" t="s">
-        <v>1875</v>
+        <v>1871</v>
       </c>
       <c r="E110" s="556" t="s">
-        <v>2061</v>
+        <v>2057</v>
       </c>
       <c r="F110" s="447"/>
       <c r="G110" s="504" t="s">
-        <v>2007</v>
+        <v>2003</v>
       </c>
       <c r="H110" s="568"/>
       <c r="I110" s="640" t="s">
@@ -40856,10 +40978,10 @@
       </c>
       <c r="C111" s="555"/>
       <c r="D111" s="557" t="s">
-        <v>1876</v>
+        <v>1872</v>
       </c>
       <c r="E111" s="556" t="s">
-        <v>2062</v>
+        <v>2058</v>
       </c>
       <c r="F111" s="447"/>
       <c r="G111" s="504" t="s">
@@ -40901,13 +41023,13 @@
         <v>289</v>
       </c>
       <c r="C112" s="527" t="s">
-        <v>1755</v>
+        <v>1751</v>
       </c>
       <c r="D112" s="448" t="s">
-        <v>1877</v>
+        <v>1873</v>
       </c>
       <c r="E112" s="450" t="s">
-        <v>2063</v>
+        <v>2059</v>
       </c>
       <c r="F112" s="447" t="s">
         <v>458</v>
@@ -40949,13 +41071,13 @@
         <v>330</v>
       </c>
       <c r="C113" s="527" t="s">
-        <v>1754</v>
+        <v>1750</v>
       </c>
       <c r="D113" s="448" t="s">
-        <v>1878</v>
+        <v>1874</v>
       </c>
       <c r="E113" s="448" t="s">
-        <v>2064</v>
+        <v>2060</v>
       </c>
       <c r="F113" s="447"/>
       <c r="G113" s="641"/>
@@ -40995,13 +41117,13 @@
         <v>331</v>
       </c>
       <c r="C114" s="527" t="s">
-        <v>1753</v>
+        <v>1749</v>
       </c>
       <c r="D114" s="448" t="s">
-        <v>1879</v>
+        <v>1875</v>
       </c>
       <c r="E114" s="448" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="F114" s="447"/>
       <c r="G114" s="641"/>
@@ -41050,7 +41172,7 @@
         <v>1019</v>
       </c>
       <c r="F115" s="447" t="s">
-        <v>1752</v>
+        <v>1748</v>
       </c>
       <c r="G115" s="568" t="s">
         <v>1176</v>
@@ -41096,16 +41218,16 @@
         <v>457</v>
       </c>
       <c r="D116" s="684" t="s">
-        <v>1880</v>
+        <v>1876</v>
       </c>
       <c r="E116" s="684" t="s">
-        <v>2066</v>
+        <v>2062</v>
       </c>
       <c r="F116" s="447" t="s">
-        <v>1751</v>
+        <v>1747</v>
       </c>
       <c r="G116" s="568" t="s">
-        <v>2008</v>
+        <v>2004</v>
       </c>
       <c r="H116" s="520"/>
       <c r="I116" s="638" t="s">
@@ -41130,10 +41252,10 @@
         <v>257</v>
       </c>
       <c r="X116" s="999" t="s">
-        <v>2224</v>
+        <v>2220</v>
       </c>
       <c r="Y116" s="874" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z116" s="881">
         <v>0.5</v>
@@ -41146,7 +41268,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="944" t="s">
-        <v>2161</v>
+        <v>2157</v>
       </c>
       <c r="AE116" s="982">
         <v>1</v>
@@ -41160,13 +41282,13 @@
         <v>335</v>
       </c>
       <c r="C117" s="550" t="s">
-        <v>1750</v>
+        <v>1746</v>
       </c>
       <c r="D117" s="684" t="s">
-        <v>1749</v>
+        <v>1745</v>
       </c>
       <c r="E117" s="684" t="s">
-        <v>2039</v>
+        <v>2035</v>
       </c>
       <c r="F117" s="447"/>
       <c r="G117" s="568" t="s">
@@ -41210,13 +41332,13 @@
         <v>336</v>
       </c>
       <c r="C118" s="550" t="s">
-        <v>1748</v>
+        <v>1744</v>
       </c>
       <c r="D118" s="684" t="s">
-        <v>1747</v>
+        <v>1743</v>
       </c>
       <c r="E118" s="684" t="s">
-        <v>2040</v>
+        <v>2036</v>
       </c>
       <c r="F118" s="447"/>
       <c r="G118" s="568" t="s">
@@ -41254,7 +41376,7 @@
     </row>
     <row r="119" spans="1:31" s="474" customFormat="1" outlineLevel="1">
       <c r="A119" s="914" t="s">
-        <v>1746</v>
+        <v>1742</v>
       </c>
       <c r="B119" s="686"/>
       <c r="C119" s="507"/>
@@ -41295,16 +41417,16 @@
         <v>335</v>
       </c>
       <c r="C120" s="555" t="s">
-        <v>1745</v>
+        <v>1741</v>
       </c>
       <c r="D120" s="684" t="s">
-        <v>1744</v>
+        <v>1740</v>
       </c>
       <c r="E120" s="447" t="s">
-        <v>2067</v>
+        <v>2063</v>
       </c>
       <c r="F120" s="447" t="s">
-        <v>1743</v>
+        <v>1739</v>
       </c>
       <c r="G120" s="501" t="s">
         <v>603</v>
@@ -41335,7 +41457,7 @@
       </c>
       <c r="X120" s="999"/>
       <c r="Y120" s="611" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z120" s="611">
         <v>1</v>
@@ -41362,16 +41484,16 @@
         <v>337</v>
       </c>
       <c r="C121" s="555" t="s">
-        <v>1742</v>
+        <v>1738</v>
       </c>
       <c r="D121" s="684" t="s">
-        <v>1741</v>
+        <v>1737</v>
       </c>
       <c r="E121" s="447" t="s">
-        <v>2068</v>
+        <v>2064</v>
       </c>
       <c r="F121" s="447" t="s">
-        <v>1740</v>
+        <v>1736</v>
       </c>
       <c r="G121" s="501" t="s">
         <v>603</v>
@@ -41402,7 +41524,7 @@
       </c>
       <c r="X121" s="999"/>
       <c r="Y121" s="611" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z121" s="611">
         <v>1</v>
@@ -41429,16 +41551,16 @@
         <v>339</v>
       </c>
       <c r="C122" s="501" t="s">
-        <v>1739</v>
+        <v>1735</v>
       </c>
       <c r="D122" s="684" t="s">
-        <v>1738</v>
+        <v>1734</v>
       </c>
       <c r="E122" s="447" t="s">
-        <v>2069</v>
+        <v>2065</v>
       </c>
       <c r="F122" s="447" t="s">
-        <v>1737</v>
+        <v>1733</v>
       </c>
       <c r="G122" s="501" t="s">
         <v>646</v>
@@ -41479,17 +41601,17 @@
         <v>340</v>
       </c>
       <c r="C123" s="681" t="s">
-        <v>2070</v>
+        <v>2066</v>
       </c>
       <c r="D123" s="684" t="s">
-        <v>2071</v>
+        <v>2067</v>
       </c>
       <c r="E123" s="447" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="F123" s="447"/>
       <c r="G123" s="501" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="H123" s="444"/>
       <c r="I123" s="445" t="s">
@@ -41566,7 +41688,7 @@
         <v>461</v>
       </c>
       <c r="F125" s="437" t="s">
-        <v>1736</v>
+        <v>1732</v>
       </c>
       <c r="G125" s="437" t="s">
         <v>14</v>
@@ -41614,10 +41736,10 @@
         <v>460</v>
       </c>
       <c r="F126" s="554" t="s">
-        <v>1735</v>
+        <v>1731</v>
       </c>
       <c r="G126" s="434" t="s">
-        <v>2009</v>
+        <v>2005</v>
       </c>
       <c r="H126" s="453"/>
       <c r="I126" s="438" t="s">
@@ -41631,7 +41753,7 @@
       <c r="M126" s="434"/>
       <c r="N126" s="8"/>
       <c r="O126" s="611" t="s">
-        <v>1734</v>
+        <v>1730</v>
       </c>
       <c r="P126" s="591" t="s">
         <v>265</v>
@@ -41647,15 +41769,15 @@
       </c>
       <c r="X126" s="757"/>
       <c r="Y126" s="611" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Z126" s="1016" t="s">
-        <v>2170</v>
-      </c>
-      <c r="AA126" s="1017"/>
-      <c r="AB126" s="1017"/>
-      <c r="AC126" s="1017"/>
-      <c r="AD126" s="1018"/>
+        <v>2153</v>
+      </c>
+      <c r="Z126" s="1017" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AA126" s="1018"/>
+      <c r="AB126" s="1018"/>
+      <c r="AC126" s="1018"/>
+      <c r="AD126" s="1019"/>
       <c r="AE126" s="982">
         <v>3</v>
       </c>
@@ -41675,10 +41797,10 @@
         <v>251</v>
       </c>
       <c r="F127" s="554" t="s">
-        <v>1733</v>
+        <v>1729</v>
       </c>
       <c r="G127" s="437" t="s">
-        <v>2010</v>
+        <v>2006</v>
       </c>
       <c r="H127" s="441"/>
       <c r="I127" s="553" t="s">
@@ -41720,10 +41842,10 @@
         <v>911</v>
       </c>
       <c r="E128" s="437" t="s">
-        <v>1732</v>
+        <v>1728</v>
       </c>
       <c r="F128" s="437" t="s">
-        <v>1731</v>
+        <v>1727</v>
       </c>
       <c r="G128" s="437" t="s">
         <v>911</v>
@@ -41754,15 +41876,15 @@
       </c>
       <c r="X128" s="757"/>
       <c r="Y128" s="608" t="s">
-        <v>2157</v>
-      </c>
-      <c r="Z128" s="1016" t="s">
-        <v>2170</v>
-      </c>
-      <c r="AA128" s="1017"/>
-      <c r="AB128" s="1017"/>
-      <c r="AC128" s="1017"/>
-      <c r="AD128" s="1018"/>
+        <v>2153</v>
+      </c>
+      <c r="Z128" s="1017" t="s">
+        <v>2166</v>
+      </c>
+      <c r="AA128" s="1018"/>
+      <c r="AB128" s="1018"/>
+      <c r="AC128" s="1018"/>
+      <c r="AD128" s="1019"/>
       <c r="AE128" s="982">
         <v>4</v>
       </c>
@@ -41806,14 +41928,14 @@
       <c r="B130" s="8"/>
       <c r="C130" s="616"/>
       <c r="D130" s="617" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="E130" s="616" t="s">
-        <v>1971</v>
+        <v>1967</v>
       </c>
       <c r="F130" s="8"/>
       <c r="G130" s="544" t="s">
-        <v>1968</v>
+        <v>1964</v>
       </c>
       <c r="H130" s="644"/>
       <c r="I130" s="645" t="s">
@@ -41825,7 +41947,7 @@
       <c r="M130" s="8"/>
       <c r="N130" s="8"/>
       <c r="O130" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P130" s="8" t="s">
         <v>263</v>
@@ -41834,7 +41956,7 @@
       <c r="R130" s="765"/>
       <c r="S130" s="712"/>
       <c r="T130" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U130" s="712"/>
       <c r="V130" s="712"/>
@@ -41851,13 +41973,13 @@
       </c>
       <c r="B131" s="8"/>
       <c r="C131" s="616" t="s">
-        <v>1966</v>
+        <v>1962</v>
       </c>
       <c r="D131" s="617" t="s">
         <v>1133</v>
       </c>
       <c r="E131" s="616" t="s">
-        <v>1972</v>
+        <v>1968</v>
       </c>
       <c r="F131" s="8"/>
       <c r="G131" s="544" t="s">
@@ -41875,7 +41997,7 @@
       <c r="M131" s="8"/>
       <c r="N131" s="8"/>
       <c r="O131" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P131" s="8" t="s">
         <v>263</v>
@@ -41884,7 +42006,7 @@
       <c r="R131" s="765"/>
       <c r="S131" s="712"/>
       <c r="T131" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U131" s="712"/>
       <c r="V131" s="712"/>
@@ -41901,13 +42023,13 @@
       </c>
       <c r="B132" s="8"/>
       <c r="C132" s="616" t="s">
-        <v>1967</v>
+        <v>1963</v>
       </c>
       <c r="D132" s="617" t="s">
-        <v>1969</v>
+        <v>1965</v>
       </c>
       <c r="E132" s="616" t="s">
-        <v>1970</v>
+        <v>1966</v>
       </c>
       <c r="F132" s="8"/>
       <c r="G132" s="544" t="s">
@@ -41934,7 +42056,7 @@
       <c r="R132" s="765"/>
       <c r="S132" s="712"/>
       <c r="T132" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U132" s="712"/>
       <c r="V132" s="712"/>
@@ -41960,7 +42082,7 @@
         <v>252</v>
       </c>
       <c r="F133" s="608" t="s">
-        <v>1730</v>
+        <v>1726</v>
       </c>
       <c r="G133" s="592" t="s">
         <v>1180</v>
@@ -41977,7 +42099,7 @@
       <c r="M133" s="434"/>
       <c r="N133" s="8"/>
       <c r="O133" s="762" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P133" s="718" t="s">
         <v>263</v>
@@ -42006,13 +42128,13 @@
         <v>1669</v>
       </c>
       <c r="D134" s="582" t="s">
-        <v>1913</v>
+        <v>1909</v>
       </c>
       <c r="E134" s="582" t="s">
-        <v>1911</v>
+        <v>1907</v>
       </c>
       <c r="F134" s="608" t="s">
-        <v>1729</v>
+        <v>1725</v>
       </c>
       <c r="G134" s="654" t="s">
         <v>1152</v>
@@ -42029,7 +42151,7 @@
       <c r="M134" s="434"/>
       <c r="N134" s="8"/>
       <c r="O134" s="762" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P134" s="718" t="s">
         <v>263</v>
@@ -42047,19 +42169,19 @@
         <v>5</v>
       </c>
       <c r="Y134" s="845" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z134" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA134" s="891"/>
-      <c r="AB134" s="1023" t="s">
-        <v>2160</v>
-      </c>
-      <c r="AC134" s="1021" t="s">
-        <v>2193</v>
-      </c>
-      <c r="AD134" s="1022"/>
+      <c r="AB134" s="1016" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AC134" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD134" s="1023"/>
       <c r="AE134" s="982">
         <v>4</v>
       </c>
@@ -42075,13 +42197,13 @@
         <v>198</v>
       </c>
       <c r="D135" s="582" t="s">
-        <v>1914</v>
+        <v>1910</v>
       </c>
       <c r="E135" s="582" t="s">
-        <v>1915</v>
+        <v>1911</v>
       </c>
       <c r="F135" s="608" t="s">
-        <v>1728</v>
+        <v>1724</v>
       </c>
       <c r="G135" s="653" t="s">
         <v>1292</v>
@@ -42109,7 +42231,7 @@
       <c r="R135" s="765"/>
       <c r="S135" s="712"/>
       <c r="T135" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U135" s="712"/>
       <c r="V135" s="712"/>
@@ -42129,13 +42251,13 @@
       </c>
       <c r="C136" s="549"/>
       <c r="D136" s="582" t="s">
-        <v>1902</v>
+        <v>1898</v>
       </c>
       <c r="E136" s="582" t="s">
-        <v>1904</v>
+        <v>1900</v>
       </c>
       <c r="F136" s="608" t="s">
-        <v>1905</v>
+        <v>1901</v>
       </c>
       <c r="G136" s="592" t="s">
         <v>1180</v>
@@ -42152,7 +42274,7 @@
       <c r="M136" s="434"/>
       <c r="N136" s="8"/>
       <c r="O136" s="762" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P136" s="718" t="s">
         <v>263</v>
@@ -42178,16 +42300,16 @@
         <v>268</v>
       </c>
       <c r="C137" s="549" t="s">
-        <v>1921</v>
+        <v>1917</v>
       </c>
       <c r="D137" s="582" t="s">
-        <v>1916</v>
+        <v>1912</v>
       </c>
       <c r="E137" s="612" t="s">
-        <v>1882</v>
+        <v>1878</v>
       </c>
       <c r="F137" s="608" t="s">
-        <v>1727</v>
+        <v>1723</v>
       </c>
       <c r="G137" s="653" t="s">
         <v>1284</v>
@@ -42232,16 +42354,16 @@
         <v>269</v>
       </c>
       <c r="C138" s="549" t="s">
-        <v>1922</v>
+        <v>1918</v>
       </c>
       <c r="D138" s="582" t="s">
-        <v>1917</v>
+        <v>2222</v>
       </c>
       <c r="E138" s="582" t="s">
-        <v>1883</v>
+        <v>1879</v>
       </c>
       <c r="F138" s="608" t="s">
-        <v>1726</v>
+        <v>2229</v>
       </c>
       <c r="G138" s="653" t="s">
         <v>1284</v>
@@ -42286,16 +42408,16 @@
         <v>270</v>
       </c>
       <c r="C139" s="549" t="s">
-        <v>1923</v>
+        <v>1919</v>
       </c>
       <c r="D139" s="582" t="s">
-        <v>1918</v>
+        <v>2223</v>
       </c>
       <c r="E139" s="582" t="s">
-        <v>1884</v>
+        <v>1880</v>
       </c>
       <c r="F139" s="608" t="s">
-        <v>1725</v>
+        <v>2228</v>
       </c>
       <c r="G139" s="653" t="s">
         <v>1284</v>
@@ -42340,16 +42462,16 @@
         <v>271</v>
       </c>
       <c r="C140" s="549" t="s">
-        <v>1924</v>
+        <v>1920</v>
       </c>
       <c r="D140" s="582" t="s">
-        <v>1919</v>
+        <v>1915</v>
       </c>
       <c r="E140" s="582" t="s">
-        <v>1920</v>
+        <v>1916</v>
       </c>
       <c r="F140" s="608" t="s">
-        <v>1724</v>
+        <v>1722</v>
       </c>
       <c r="G140" s="653" t="s">
         <v>1284</v>
@@ -42394,16 +42516,16 @@
         <v>272</v>
       </c>
       <c r="C141" s="549" t="s">
-        <v>1925</v>
+        <v>1921</v>
       </c>
       <c r="D141" s="582" t="s">
-        <v>1931</v>
+        <v>1927</v>
       </c>
       <c r="E141" s="582" t="s">
-        <v>1932</v>
+        <v>1928</v>
       </c>
       <c r="F141" s="608" t="s">
-        <v>1723</v>
+        <v>1721</v>
       </c>
       <c r="G141" s="653" t="s">
         <v>1284</v>
@@ -42448,16 +42570,16 @@
         <v>273</v>
       </c>
       <c r="C142" s="552" t="s">
-        <v>1926</v>
+        <v>1922</v>
       </c>
       <c r="D142" s="612" t="s">
-        <v>1933</v>
+        <v>1929</v>
       </c>
       <c r="E142" s="612" t="s">
-        <v>1885</v>
+        <v>1881</v>
       </c>
       <c r="F142" s="610" t="s">
-        <v>1722</v>
+        <v>1720</v>
       </c>
       <c r="G142" s="653" t="s">
         <v>1284</v>
@@ -42502,16 +42624,16 @@
         <v>274</v>
       </c>
       <c r="C143" s="549" t="s">
-        <v>1927</v>
+        <v>1923</v>
       </c>
       <c r="D143" s="582" t="s">
-        <v>1934</v>
+        <v>1930</v>
       </c>
       <c r="E143" s="612" t="s">
-        <v>1886</v>
+        <v>1882</v>
       </c>
       <c r="F143" s="610" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="G143" s="653" t="s">
         <v>1284</v>
@@ -42556,16 +42678,16 @@
         <v>275</v>
       </c>
       <c r="C144" s="549" t="s">
-        <v>1928</v>
+        <v>1924</v>
       </c>
       <c r="D144" s="612" t="s">
-        <v>1935</v>
+        <v>2224</v>
       </c>
       <c r="E144" s="582" t="s">
-        <v>1887</v>
+        <v>1883</v>
       </c>
       <c r="F144" s="609" t="s">
-        <v>1720</v>
+        <v>2227</v>
       </c>
       <c r="G144" s="653" t="s">
         <v>1284</v>
@@ -42610,16 +42732,16 @@
         <v>276</v>
       </c>
       <c r="C145" s="549" t="s">
-        <v>1929</v>
+        <v>1925</v>
       </c>
       <c r="D145" s="582" t="s">
-        <v>1936</v>
+        <v>2225</v>
       </c>
       <c r="E145" s="582" t="s">
-        <v>1888</v>
+        <v>1884</v>
       </c>
       <c r="F145" s="611" t="s">
-        <v>1719</v>
+        <v>2226</v>
       </c>
       <c r="G145" s="653" t="s">
         <v>1284</v>
@@ -42664,13 +42786,13 @@
         <v>277</v>
       </c>
       <c r="C146" s="549" t="s">
-        <v>1930</v>
+        <v>1926</v>
       </c>
       <c r="D146" s="582" t="s">
-        <v>1937</v>
+        <v>1933</v>
       </c>
       <c r="E146" s="582" t="s">
-        <v>1881</v>
+        <v>1877</v>
       </c>
       <c r="F146" s="609" t="s">
         <v>1718</v>
@@ -42719,10 +42841,10 @@
       </c>
       <c r="C147" s="549"/>
       <c r="D147" s="582" t="s">
-        <v>1939</v>
+        <v>1935</v>
       </c>
       <c r="E147" s="582" t="s">
-        <v>1889</v>
+        <v>1885</v>
       </c>
       <c r="F147" s="611" t="s">
         <v>1717</v>
@@ -42771,10 +42893,10 @@
         <v>1716</v>
       </c>
       <c r="D148" s="612" t="s">
-        <v>1940</v>
+        <v>1936</v>
       </c>
       <c r="E148" s="612" t="s">
-        <v>1941</v>
+        <v>1937</v>
       </c>
       <c r="F148" s="609" t="s">
         <v>1715</v>
@@ -42822,16 +42944,16 @@
         <v>280</v>
       </c>
       <c r="C149" s="551" t="s">
-        <v>1714</v>
+        <v>2230</v>
       </c>
       <c r="D149" s="582" t="s">
-        <v>1945</v>
+        <v>1941</v>
       </c>
       <c r="E149" s="582" t="s">
-        <v>1910</v>
+        <v>1906</v>
       </c>
       <c r="F149" s="608" t="s">
-        <v>1944</v>
+        <v>1940</v>
       </c>
       <c r="G149" s="653" t="s">
         <v>1279</v>
@@ -42840,7 +42962,7 @@
         <v>1254</v>
       </c>
       <c r="I149" s="653" t="s">
-        <v>165</v>
+        <v>2231</v>
       </c>
       <c r="J149" s="657" t="s">
         <v>18</v>
@@ -42877,7 +42999,7 @@
       </c>
       <c r="C150" s="549"/>
       <c r="D150" s="612" t="s">
-        <v>1946</v>
+        <v>1942</v>
       </c>
       <c r="E150" s="582" t="s">
         <v>309</v>
@@ -42926,25 +43048,29 @@
         <v>282</v>
       </c>
       <c r="C151" s="549" t="s">
-        <v>1955</v>
+        <v>1951</v>
       </c>
       <c r="D151" s="612" t="s">
-        <v>1956</v>
+        <v>1952</v>
       </c>
       <c r="E151" s="582" t="s">
-        <v>1957</v>
-      </c>
-      <c r="F151" s="608"/>
+        <v>1953</v>
+      </c>
+      <c r="F151" s="608" t="s">
+        <v>2232</v>
+      </c>
       <c r="G151" s="544" t="s">
         <v>1034</v>
       </c>
       <c r="H151" s="549" t="s">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="I151" s="648" t="s">
         <v>15</v>
       </c>
-      <c r="J151" s="647"/>
+      <c r="J151" s="651" t="s">
+        <v>172</v>
+      </c>
       <c r="K151" s="441"/>
       <c r="L151" s="441"/>
       <c r="M151" s="523"/>
@@ -42980,7 +43106,7 @@
         <v>1430</v>
       </c>
       <c r="E152" s="612" t="s">
-        <v>1947</v>
+        <v>1943</v>
       </c>
       <c r="F152" s="608" t="s">
         <v>1712</v>
@@ -43079,10 +43205,10 @@
       </c>
       <c r="C154" s="549"/>
       <c r="D154" s="582" t="s">
-        <v>1948</v>
+        <v>1944</v>
       </c>
       <c r="E154" s="582" t="s">
-        <v>1949</v>
+        <v>1945</v>
       </c>
       <c r="F154" s="608" t="s">
         <v>1710</v>
@@ -43133,25 +43259,25 @@
         <v>1709</v>
       </c>
       <c r="D155" s="582" t="s">
-        <v>1950</v>
+        <v>1946</v>
       </c>
       <c r="E155" s="582" t="s">
-        <v>1951</v>
+        <v>1947</v>
       </c>
       <c r="F155" s="608" t="s">
-        <v>1893</v>
+        <v>1889</v>
       </c>
       <c r="G155" s="654" t="s">
         <v>603</v>
       </c>
       <c r="H155" s="654" t="s">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="I155" s="658" t="s">
         <v>18</v>
       </c>
       <c r="J155" s="656" t="s">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="K155" s="441"/>
       <c r="L155" s="441"/>
@@ -43347,7 +43473,7 @@
         <v>295</v>
       </c>
       <c r="D159" s="613" t="s">
-        <v>1952</v>
+        <v>1948</v>
       </c>
       <c r="E159" s="582" t="s">
         <v>315</v>
@@ -43372,7 +43498,7 @@
       <c r="M159" s="523"/>
       <c r="N159" s="8"/>
       <c r="O159" s="762" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P159" s="719" t="s">
         <v>305</v>
@@ -43384,7 +43510,7 @@
       <c r="S159" s="712"/>
       <c r="T159" s="453"/>
       <c r="U159" s="712" t="s">
-        <v>1973</v>
+        <v>1969</v>
       </c>
       <c r="V159" s="712">
         <v>4.3</v>
@@ -43407,10 +43533,10 @@
         <v>915</v>
       </c>
       <c r="D160" s="613" t="s">
-        <v>1953</v>
+        <v>1949</v>
       </c>
       <c r="E160" s="572" t="s">
-        <v>1954</v>
+        <v>1950</v>
       </c>
       <c r="F160" s="609" t="s">
         <v>1703</v>
@@ -43422,7 +43548,7 @@
         <v>1259</v>
       </c>
       <c r="I160" s="646" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J160" s="647" t="s">
         <v>18</v>
@@ -43482,7 +43608,7 @@
       <c r="M161" s="523"/>
       <c r="N161" s="441"/>
       <c r="O161" s="764" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P161" s="8" t="s">
         <v>305</v>
@@ -43494,7 +43620,7 @@
       <c r="S161" s="712"/>
       <c r="T161" s="453"/>
       <c r="U161" s="712" t="s">
-        <v>1975</v>
+        <v>1971</v>
       </c>
       <c r="V161" s="712">
         <v>4.0999999999999996</v>
@@ -43540,7 +43666,7 @@
       <c r="M162" s="523"/>
       <c r="N162" s="8"/>
       <c r="O162" s="764" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P162" s="718" t="s">
         <v>263</v>
@@ -43551,7 +43677,7 @@
       <c r="R162" s="765"/>
       <c r="S162" s="712"/>
       <c r="T162" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U162" s="712"/>
       <c r="V162" s="712"/>
@@ -43582,7 +43708,7 @@
         <v>1467</v>
       </c>
       <c r="G163" s="544" t="s">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="H163" s="549"/>
       <c r="I163" s="648" t="s">
@@ -43596,7 +43722,7 @@
       <c r="M163" s="523"/>
       <c r="N163" s="8"/>
       <c r="O163" s="764" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P163" s="718" t="s">
         <v>263</v>
@@ -43607,7 +43733,7 @@
       <c r="R163" s="765"/>
       <c r="S163" s="712"/>
       <c r="T163" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U163" s="712"/>
       <c r="V163" s="712"/>
@@ -43629,7 +43755,7 @@
         <v>916</v>
       </c>
       <c r="D164" s="615" t="s">
-        <v>1958</v>
+        <v>1954</v>
       </c>
       <c r="E164" s="614" t="s">
         <v>365</v>
@@ -43665,7 +43791,7 @@
       <c r="R164" s="765"/>
       <c r="S164" s="712"/>
       <c r="T164" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U164" s="712"/>
       <c r="V164" s="712"/>
@@ -43719,7 +43845,7 @@
       <c r="R165" s="765"/>
       <c r="S165" s="712"/>
       <c r="T165" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U165" s="712"/>
       <c r="V165" s="712"/>
@@ -43730,21 +43856,21 @@
         <v>95</v>
       </c>
       <c r="Y165" s="845" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z165" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA165" s="840"/>
       <c r="AB165" s="819" t="s">
-        <v>2194</v>
-      </c>
-      <c r="AC165" s="1021" t="s">
-        <v>2193</v>
-      </c>
-      <c r="AD165" s="1022"/>
+        <v>2190</v>
+      </c>
+      <c r="AC165" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD165" s="1023"/>
       <c r="AE165" s="1008" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="166" spans="1:31" ht="14.25" outlineLevel="1">
@@ -43755,7 +43881,7 @@
         <v>339</v>
       </c>
       <c r="C166" s="544" t="s">
-        <v>918</v>
+        <v>2233</v>
       </c>
       <c r="D166" s="613" t="s">
         <v>1437</v>
@@ -43790,7 +43916,7 @@
       <c r="R166" s="765"/>
       <c r="S166" s="712"/>
       <c r="T166" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U166" s="712"/>
       <c r="V166" s="712"/>
@@ -43809,7 +43935,7 @@
         <v>340</v>
       </c>
       <c r="C167" s="544" t="s">
-        <v>919</v>
+        <v>2234</v>
       </c>
       <c r="D167" s="613" t="s">
         <v>1438</v>
@@ -43844,7 +43970,7 @@
       <c r="R167" s="765"/>
       <c r="S167" s="712"/>
       <c r="T167" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U167" s="712"/>
       <c r="V167" s="712"/>
@@ -43898,7 +44024,7 @@
       <c r="R168" s="765"/>
       <c r="S168" s="712"/>
       <c r="T168" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U168" s="712"/>
       <c r="V168" s="712"/>
@@ -43909,21 +44035,21 @@
         <v>5</v>
       </c>
       <c r="Y168" s="845" t="s">
-        <v>2195</v>
+        <v>2191</v>
       </c>
       <c r="Z168" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA168" s="840"/>
       <c r="AB168" s="819" t="s">
-        <v>2196</v>
-      </c>
-      <c r="AC168" s="1021" t="s">
-        <v>2193</v>
-      </c>
-      <c r="AD168" s="1022"/>
+        <v>2192</v>
+      </c>
+      <c r="AC168" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD168" s="1023"/>
       <c r="AE168" s="1008" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="169" spans="1:31" ht="15.75" outlineLevel="1">
@@ -43934,17 +44060,17 @@
         <v>342</v>
       </c>
       <c r="C169" s="544" t="s">
-        <v>1961</v>
+        <v>1957</v>
       </c>
       <c r="D169" s="613" t="s">
-        <v>1959</v>
+        <v>1955</v>
       </c>
       <c r="E169" s="612" t="s">
-        <v>1960</v>
+        <v>1956</v>
       </c>
       <c r="F169" s="609"/>
       <c r="G169" s="649" t="s">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="H169" s="650" t="s">
         <v>1259</v>
@@ -43963,7 +44089,7 @@
       <c r="R169" s="765"/>
       <c r="S169" s="712"/>
       <c r="T169" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U169" s="712"/>
       <c r="V169" s="712"/>
@@ -44017,16 +44143,33 @@
       <c r="R170" s="765"/>
       <c r="S170" s="712"/>
       <c r="T170" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U170" s="712"/>
       <c r="V170" s="712"/>
-      <c r="W170" s="609"/>
-      <c r="X170" s="773"/>
-      <c r="Y170" s="658"/>
-      <c r="Z170" s="658"/>
-      <c r="AA170" s="658"/>
-      <c r="AB170" s="823"/>
+      <c r="W170" s="608" t="s">
+        <v>257</v>
+      </c>
+      <c r="X170" s="757">
+        <v>5</v>
+      </c>
+      <c r="Y170" s="845" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Z170" s="845" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AA170" s="891"/>
+      <c r="AB170" s="1016" t="s">
+        <v>2156</v>
+      </c>
+      <c r="AC170" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD170" s="1023"/>
+      <c r="AE170" s="982">
+        <v>4</v>
+      </c>
     </row>
     <row r="171" spans="1:31" ht="15.75" outlineLevel="1">
       <c r="A171" s="911" t="s">
@@ -44071,16 +44214,33 @@
       <c r="R171" s="765"/>
       <c r="S171" s="712"/>
       <c r="T171" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U171" s="712"/>
       <c r="V171" s="712"/>
-      <c r="W171" s="609"/>
-      <c r="X171" s="773"/>
-      <c r="Y171" s="658"/>
-      <c r="Z171" s="658"/>
-      <c r="AA171" s="658"/>
-      <c r="AB171" s="823"/>
+      <c r="W171" s="608" t="s">
+        <v>257</v>
+      </c>
+      <c r="X171" s="757">
+        <v>95</v>
+      </c>
+      <c r="Y171" s="845" t="s">
+        <v>2158</v>
+      </c>
+      <c r="Z171" s="845" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AA171" s="840"/>
+      <c r="AB171" s="819" t="s">
+        <v>2190</v>
+      </c>
+      <c r="AC171" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD171" s="1023"/>
+      <c r="AE171" s="1008" t="s">
+        <v>2221</v>
+      </c>
     </row>
     <row r="172" spans="1:31" ht="14.25" outlineLevel="1">
       <c r="A172" s="911" t="s">
@@ -44090,10 +44250,10 @@
         <v>345</v>
       </c>
       <c r="C172" s="544" t="s">
-        <v>923</v>
+        <v>2235</v>
       </c>
       <c r="D172" s="613" t="s">
-        <v>2200</v>
+        <v>2196</v>
       </c>
       <c r="E172" s="612" t="s">
         <v>318</v>
@@ -44125,7 +44285,7 @@
       <c r="R172" s="765"/>
       <c r="S172" s="712"/>
       <c r="T172" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U172" s="712"/>
       <c r="V172" s="712"/>
@@ -44144,7 +44304,7 @@
         <v>346</v>
       </c>
       <c r="C173" s="544" t="s">
-        <v>922</v>
+        <v>2236</v>
       </c>
       <c r="D173" s="613" t="s">
         <v>1443</v>
@@ -44179,7 +44339,7 @@
       <c r="R173" s="765"/>
       <c r="S173" s="712"/>
       <c r="T173" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U173" s="712"/>
       <c r="V173" s="712"/>
@@ -44233,16 +44393,33 @@
       <c r="R174" s="765"/>
       <c r="S174" s="712"/>
       <c r="T174" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U174" s="712"/>
       <c r="V174" s="712"/>
-      <c r="W174" s="609"/>
-      <c r="X174" s="773"/>
-      <c r="Y174" s="658"/>
-      <c r="Z174" s="658"/>
-      <c r="AA174" s="658"/>
-      <c r="AB174" s="823"/>
+      <c r="W174" s="608" t="s">
+        <v>257</v>
+      </c>
+      <c r="X174" s="757">
+        <v>5</v>
+      </c>
+      <c r="Y174" s="845" t="s">
+        <v>2191</v>
+      </c>
+      <c r="Z174" s="845" t="s">
+        <v>2210</v>
+      </c>
+      <c r="AA174" s="840"/>
+      <c r="AB174" s="819" t="s">
+        <v>2192</v>
+      </c>
+      <c r="AC174" s="1022" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD174" s="1023"/>
+      <c r="AE174" s="1008" t="s">
+        <v>2221</v>
+      </c>
     </row>
     <row r="175" spans="1:31" ht="13.5" outlineLevel="1">
       <c r="A175" s="911" t="s">
@@ -44264,7 +44441,7 @@
         <v>1687</v>
       </c>
       <c r="G175" s="649" t="s">
-        <v>2016</v>
+        <v>2012</v>
       </c>
       <c r="H175" s="650" t="s">
         <v>1259</v>
@@ -44295,7 +44472,7 @@
         <v>0.35</v>
       </c>
       <c r="V175" s="712" t="s">
-        <v>1976</v>
+        <v>1972</v>
       </c>
       <c r="W175" s="608"/>
       <c r="X175" s="757"/>
@@ -44318,7 +44495,7 @@
         <v>1445</v>
       </c>
       <c r="E176" s="582" t="s">
-        <v>1962</v>
+        <v>1958</v>
       </c>
       <c r="F176" s="609" t="s">
         <v>1685</v>
@@ -44349,7 +44526,7 @@
       <c r="R176" s="765"/>
       <c r="S176" s="712"/>
       <c r="T176" s="453" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="U176" s="712"/>
       <c r="V176" s="712"/>
@@ -44360,21 +44537,21 @@
         <v>5</v>
       </c>
       <c r="Y176" s="845" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z176" s="845" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA176" s="845"/>
       <c r="AB176" s="842" t="s">
-        <v>2192</v>
-      </c>
-      <c r="AC176" s="1019" t="s">
-        <v>2193</v>
-      </c>
-      <c r="AD176" s="1020"/>
+        <v>2188</v>
+      </c>
+      <c r="AC176" s="1020" t="s">
+        <v>2189</v>
+      </c>
+      <c r="AD176" s="1021"/>
       <c r="AE176" s="1008" t="s">
-        <v>2225</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="15.75" outlineLevel="1">
@@ -44413,7 +44590,7 @@
       <c r="M177" s="434"/>
       <c r="N177" s="8"/>
       <c r="O177" s="764" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P177" s="718" t="s">
         <v>263</v>
@@ -44469,7 +44646,7 @@
       <c r="M178" s="434"/>
       <c r="N178" s="8"/>
       <c r="O178" s="764" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P178" s="718" t="s">
         <v>263</v>
@@ -44558,7 +44735,7 @@
         <v>1678</v>
       </c>
       <c r="D180" s="582" t="s">
-        <v>1963</v>
+        <v>1959</v>
       </c>
       <c r="E180" s="582" t="s">
         <v>1677</v>
@@ -44616,7 +44793,7 @@
         <v>1675</v>
       </c>
       <c r="D181" s="582" t="s">
-        <v>1964</v>
+        <v>1960</v>
       </c>
       <c r="E181" s="582" t="s">
         <v>1674</v>
@@ -44847,20 +45024,20 @@
         <v>50</v>
       </c>
       <c r="Y185" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z185" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA185" s="884"/>
       <c r="AB185" s="886" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="AC185" s="851">
         <v>0</v>
       </c>
       <c r="AD185" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE185" s="982">
         <v>4</v>
@@ -44920,20 +45097,20 @@
         <v>50</v>
       </c>
       <c r="Y186" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z186" s="884" t="s">
-        <v>2215</v>
+        <v>2211</v>
       </c>
       <c r="AA186" s="884"/>
       <c r="AB186" s="885" t="s">
-        <v>2176</v>
+        <v>2172</v>
       </c>
       <c r="AC186" s="851">
         <v>0</v>
       </c>
       <c r="AD186" s="943" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="AE186" s="982">
         <v>4</v>
@@ -44993,20 +45170,20 @@
         <v>50</v>
       </c>
       <c r="Y187" s="884" t="s">
-        <v>2179</v>
+        <v>2175</v>
       </c>
       <c r="Z187" s="884" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA187" s="884" t="s">
-        <v>2180</v>
+        <v>2176</v>
       </c>
       <c r="AB187" s="885"/>
       <c r="AC187" s="851">
         <v>0</v>
       </c>
       <c r="AD187" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE187" s="982">
         <v>4</v>
@@ -45066,20 +45243,20 @@
         <v>50</v>
       </c>
       <c r="Y188" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z188" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA188" s="882" t="s">
-        <v>2181</v>
+        <v>2177</v>
       </c>
       <c r="AB188" s="885"/>
       <c r="AC188" s="851">
         <v>0</v>
       </c>
       <c r="AD188" s="943" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="AE188" s="982">
         <v>4</v>
@@ -45245,20 +45422,20 @@
         <v>50</v>
       </c>
       <c r="Y191" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z191" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA191" s="882" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="AB191" s="885"/>
       <c r="AC191" s="851">
         <v>0</v>
       </c>
       <c r="AD191" s="943" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="AE191" s="982">
         <v>4</v>
@@ -45316,20 +45493,20 @@
         <v>50</v>
       </c>
       <c r="Y192" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z192" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA192" s="884"/>
       <c r="AB192" s="884" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="AC192" s="851">
         <v>0</v>
       </c>
       <c r="AD192" s="943" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="AE192" s="982">
         <v>3</v>
@@ -45389,20 +45566,20 @@
         <v>50</v>
       </c>
       <c r="Y193" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z193" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA193" s="884"/>
       <c r="AB193" s="884" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="AC193" s="851">
         <v>0</v>
       </c>
       <c r="AD193" s="943" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="AE193" s="982">
         <v>4</v>
@@ -45462,20 +45639,20 @@
         <v>50</v>
       </c>
       <c r="Y194" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z194" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA194" s="884"/>
       <c r="AB194" s="884" t="s">
-        <v>2185</v>
+        <v>2181</v>
       </c>
       <c r="AC194" s="851">
         <v>0</v>
       </c>
       <c r="AD194" s="943" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="AE194" s="982">
         <v>4</v>
@@ -45535,20 +45712,20 @@
         <v>50</v>
       </c>
       <c r="Y195" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z195" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA195" s="884"/>
       <c r="AB195" s="885" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="AC195" s="851">
         <v>0</v>
       </c>
       <c r="AD195" s="943" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="AE195" s="982">
         <v>4</v>
@@ -45608,20 +45785,20 @@
         <v>50</v>
       </c>
       <c r="Y196" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z196" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA196" s="884"/>
       <c r="AB196" s="885" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC196" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD196" s="943" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="AE196" s="982">
         <v>4</v>
@@ -45681,20 +45858,20 @@
         <v>50</v>
       </c>
       <c r="Y197" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z197" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA197" s="884"/>
       <c r="AB197" s="885" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC197" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD197" s="943" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="AE197" s="982">
         <v>4</v>
@@ -45754,20 +45931,20 @@
         <v>50</v>
       </c>
       <c r="Y198" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z198" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA198" s="884"/>
       <c r="AB198" s="885" t="s">
-        <v>2188</v>
+        <v>2184</v>
       </c>
       <c r="AC198" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD198" s="943" t="s">
-        <v>2177</v>
+        <v>2173</v>
       </c>
       <c r="AE198" s="982">
         <v>4</v>
@@ -45827,20 +46004,20 @@
         <v>50</v>
       </c>
       <c r="Y199" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z199" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA199" s="888"/>
       <c r="AB199" s="889" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="AC199" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD199" s="943" t="s">
-        <v>2189</v>
+        <v>2185</v>
       </c>
       <c r="AE199" s="982">
         <v>4</v>
@@ -45900,20 +46077,20 @@
         <v>5</v>
       </c>
       <c r="Y200" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z200" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA200" s="845"/>
       <c r="AB200" s="885" t="s">
-        <v>2190</v>
+        <v>2186</v>
       </c>
       <c r="AC200" s="851">
         <v>0</v>
       </c>
       <c r="AD200" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE200" s="982">
         <v>3</v>
@@ -45973,20 +46150,20 @@
         <v>50</v>
       </c>
       <c r="Y201" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z201" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA201" s="884"/>
       <c r="AB201" s="885" t="s">
-        <v>2191</v>
+        <v>2187</v>
       </c>
       <c r="AC201" s="851">
         <v>0</v>
       </c>
       <c r="AD201" s="943" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="AE201" s="982">
         <v>3</v>
@@ -46018,7 +46195,7 @@
         <v>1114</v>
       </c>
       <c r="I202" s="595" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J202" s="652" t="s">
         <v>18</v>
@@ -46102,20 +46279,20 @@
         <v>50</v>
       </c>
       <c r="Y203" s="884" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z203" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA203" s="882" t="s">
-        <v>2171</v>
+        <v>2167</v>
       </c>
       <c r="AB203" s="885"/>
       <c r="AC203" s="851">
         <v>0</v>
       </c>
       <c r="AD203" s="943" t="s">
-        <v>2172</v>
+        <v>2168</v>
       </c>
       <c r="AE203" s="982">
         <v>4</v>
@@ -46601,20 +46778,20 @@
         <v>50</v>
       </c>
       <c r="Y212" s="884" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="Z212" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA212" s="884"/>
       <c r="AB212" s="886" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="AC212" s="851">
         <v>0</v>
       </c>
       <c r="AD212" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE212" s="982">
         <v>4</v>
@@ -46674,20 +46851,20 @@
         <v>50</v>
       </c>
       <c r="Y213" s="884" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="Z213" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA213" s="884"/>
       <c r="AB213" s="885" t="s">
-        <v>2182</v>
+        <v>2178</v>
       </c>
       <c r="AC213" s="851">
         <v>1</v>
       </c>
       <c r="AD213" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE213" s="982">
         <v>4</v>
@@ -46747,20 +46924,20 @@
         <v>50</v>
       </c>
       <c r="Y214" s="884" t="s">
-        <v>2173</v>
+        <v>2169</v>
       </c>
       <c r="Z214" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA214" s="884"/>
       <c r="AB214" s="885" t="s">
-        <v>2183</v>
+        <v>2179</v>
       </c>
       <c r="AC214" s="851">
         <v>2</v>
       </c>
       <c r="AD214" s="943" t="s">
-        <v>2174</v>
+        <v>2170</v>
       </c>
       <c r="AE214" s="982">
         <v>4</v>
@@ -46820,20 +46997,20 @@
         <v>50</v>
       </c>
       <c r="Y215" s="884" t="s">
-        <v>2175</v>
+        <v>2171</v>
       </c>
       <c r="Z215" s="884" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA215" s="884"/>
       <c r="AB215" s="884" t="s">
-        <v>2184</v>
+        <v>2180</v>
       </c>
       <c r="AC215" s="851">
         <v>0</v>
       </c>
       <c r="AD215" s="943" t="s">
-        <v>2186</v>
+        <v>2182</v>
       </c>
       <c r="AE215" s="982">
         <v>4</v>
@@ -47817,7 +47994,7 @@
         <v>207</v>
       </c>
       <c r="E234" s="437" t="s">
-        <v>2085</v>
+        <v>2081</v>
       </c>
       <c r="F234" s="512" t="s">
         <v>1617</v>
@@ -47833,7 +48010,7 @@
       <c r="M234" s="8"/>
       <c r="N234" s="8"/>
       <c r="O234" s="712" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="P234" s="8" t="s">
         <v>305</v>
@@ -47863,7 +48040,7 @@
         <v>212</v>
       </c>
       <c r="E235" s="502" t="s">
-        <v>2086</v>
+        <v>2082</v>
       </c>
       <c r="F235" s="512" t="s">
         <v>1616</v>
@@ -47883,7 +48060,7 @@
       <c r="M235" s="8"/>
       <c r="N235" s="8"/>
       <c r="O235" s="712" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="P235" s="8" t="s">
         <v>263</v>
@@ -47913,7 +48090,7 @@
         <v>213</v>
       </c>
       <c r="E236" s="432" t="s">
-        <v>2087</v>
+        <v>2083</v>
       </c>
       <c r="F236" s="512" t="s">
         <v>1463</v>
@@ -47965,7 +48142,7 @@
         <v>214</v>
       </c>
       <c r="E237" s="432" t="s">
-        <v>2088</v>
+        <v>2084</v>
       </c>
       <c r="F237" s="512" t="s">
         <v>1462</v>
@@ -47987,7 +48164,7 @@
       <c r="M237" s="8"/>
       <c r="N237" s="8"/>
       <c r="O237" s="712" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="P237" s="8" t="s">
         <v>263</v>
@@ -48017,7 +48194,7 @@
         <v>215</v>
       </c>
       <c r="E238" s="437" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="F238" s="512" t="s">
         <v>1615</v>
@@ -48069,13 +48246,13 @@
         <v>1614</v>
       </c>
       <c r="E239" s="437" t="s">
-        <v>2118</v>
+        <v>2114</v>
       </c>
       <c r="F239" s="439" t="s">
         <v>1613</v>
       </c>
       <c r="G239" s="504" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="H239" s="552"/>
       <c r="I239" s="592" t="s">
@@ -48121,16 +48298,16 @@
         <v>178</v>
       </c>
       <c r="E240" s="437" t="s">
-        <v>2119</v>
+        <v>2115</v>
       </c>
       <c r="F240" s="512" t="s">
         <v>1612</v>
       </c>
       <c r="G240" s="504" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="H240" s="552" t="s">
-        <v>1857</v>
+        <v>1853</v>
       </c>
       <c r="I240" s="597" t="s">
         <v>1596</v>
@@ -48177,10 +48354,10 @@
       </c>
       <c r="F241" s="439"/>
       <c r="G241" s="504" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="H241" s="552" t="s">
-        <v>1896</v>
+        <v>1892</v>
       </c>
       <c r="I241" s="592" t="s">
         <v>1049</v>
@@ -48223,7 +48400,7 @@
       </c>
       <c r="F242" s="439"/>
       <c r="G242" s="504" t="s">
-        <v>1895</v>
+        <v>1891</v>
       </c>
       <c r="H242" s="552"/>
       <c r="I242" s="592" t="s">
@@ -48235,7 +48412,7 @@
       <c r="M242" s="434"/>
       <c r="N242" s="8"/>
       <c r="O242" s="712" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="P242" s="591"/>
       <c r="Q242" s="8"/>
@@ -48265,7 +48442,7 @@
         <v>179</v>
       </c>
       <c r="E243" s="523" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="F243" s="439"/>
       <c r="G243" s="595" t="s">
@@ -48283,7 +48460,7 @@
       <c r="M243" s="434"/>
       <c r="N243" s="8"/>
       <c r="O243" s="712" t="s">
-        <v>1981</v>
+        <v>1977</v>
       </c>
       <c r="P243" s="591"/>
       <c r="Q243" s="8"/>
@@ -48313,7 +48490,7 @@
         <v>973</v>
       </c>
       <c r="E244" s="447" t="s">
-        <v>2097</v>
+        <v>2093</v>
       </c>
       <c r="F244" s="447" t="s">
         <v>1587</v>
@@ -48325,7 +48502,7 @@
         <v>1194</v>
       </c>
       <c r="I244" s="599" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J244" s="435" t="s">
         <v>18</v>
@@ -48367,7 +48544,7 @@
         <v>939</v>
       </c>
       <c r="E245" s="447" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="F245" s="447" t="s">
         <v>1586</v>
@@ -48379,7 +48556,7 @@
         <v>1114</v>
       </c>
       <c r="I245" s="599" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J245" s="435" t="s">
         <v>18</v>
@@ -48415,16 +48592,16 @@
         <v>276</v>
       </c>
       <c r="C246" s="526" t="s">
-        <v>1979</v>
+        <v>1975</v>
       </c>
       <c r="D246" s="523" t="s">
-        <v>1978</v>
+        <v>1974</v>
       </c>
       <c r="E246" s="447" t="s">
-        <v>2117</v>
+        <v>2113</v>
       </c>
       <c r="F246" s="447" t="s">
-        <v>2100</v>
+        <v>2096</v>
       </c>
       <c r="G246" s="600" t="s">
         <v>219</v>
@@ -48505,7 +48682,7 @@
         <v>225</v>
       </c>
       <c r="E248" s="502" t="s">
-        <v>2098</v>
+        <v>2094</v>
       </c>
       <c r="F248" s="436" t="s">
         <v>1606</v>
@@ -48527,7 +48704,7 @@
       <c r="M248" s="434"/>
       <c r="N248" s="8"/>
       <c r="O248" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P248" s="591"/>
       <c r="Q248" s="8"/>
@@ -48555,7 +48732,7 @@
         <v>151</v>
       </c>
       <c r="E249" s="521" t="s">
-        <v>2103</v>
+        <v>2099</v>
       </c>
       <c r="F249" s="434" t="s">
         <v>1605</v>
@@ -48569,7 +48746,7 @@
       <c r="M249" s="434"/>
       <c r="N249" s="8"/>
       <c r="O249" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P249" s="591"/>
       <c r="Q249" s="8"/>
@@ -48597,7 +48774,7 @@
         <v>226</v>
       </c>
       <c r="E250" s="437" t="s">
-        <v>2104</v>
+        <v>2100</v>
       </c>
       <c r="F250" s="436" t="s">
         <v>1604</v>
@@ -48606,7 +48783,7 @@
         <v>1180</v>
       </c>
       <c r="H250" s="650" t="s">
-        <v>2017</v>
+        <v>2013</v>
       </c>
       <c r="I250" s="651" t="s">
         <v>18</v>
@@ -48619,7 +48796,7 @@
       <c r="M250" s="434"/>
       <c r="N250" s="8"/>
       <c r="O250" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P250" s="591"/>
       <c r="Q250" s="8"/>
@@ -48647,7 +48824,7 @@
         <v>215</v>
       </c>
       <c r="E251" s="437" t="s">
-        <v>2089</v>
+        <v>2085</v>
       </c>
       <c r="F251" s="436" t="s">
         <v>1603</v>
@@ -48656,7 +48833,7 @@
         <v>1180</v>
       </c>
       <c r="H251" s="650" t="s">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="I251" s="651" t="s">
         <v>18</v>
@@ -48671,7 +48848,7 @@
       <c r="M251" s="437"/>
       <c r="N251" s="8"/>
       <c r="O251" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P251" s="591"/>
       <c r="Q251" s="8"/>
@@ -48701,7 +48878,7 @@
         <v>179</v>
       </c>
       <c r="E252" s="437" t="s">
-        <v>2096</v>
+        <v>2092</v>
       </c>
       <c r="F252" s="434" t="s">
         <v>1601</v>
@@ -48801,7 +48978,7 @@
         <v>227</v>
       </c>
       <c r="E254" s="437" t="s">
-        <v>2106</v>
+        <v>2102</v>
       </c>
       <c r="F254" s="436" t="s">
         <v>1599</v>
@@ -48823,7 +49000,7 @@
       <c r="M254" s="434"/>
       <c r="N254" s="8"/>
       <c r="O254" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P254" s="591"/>
       <c r="Q254" s="8"/>
@@ -48851,7 +49028,7 @@
         <v>228</v>
       </c>
       <c r="E255" s="437" t="s">
-        <v>2105</v>
+        <v>2101</v>
       </c>
       <c r="F255" s="436" t="s">
         <v>1598</v>
@@ -48861,7 +49038,7 @@
       </c>
       <c r="H255" s="650"/>
       <c r="I255" s="649" t="s">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="J255" s="651" t="s">
         <v>18</v>
@@ -48921,7 +49098,7 @@
       <c r="M256" s="434"/>
       <c r="N256" s="8"/>
       <c r="O256" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P256" s="591"/>
       <c r="Q256" s="8"/>
@@ -48948,10 +49125,10 @@
         <v>1595</v>
       </c>
       <c r="D257" s="434" t="s">
-        <v>2120</v>
+        <v>2116</v>
       </c>
       <c r="E257" s="447" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="F257" s="447" t="s">
         <v>1592</v>
@@ -49009,13 +49186,13 @@
         <v>1590</v>
       </c>
       <c r="G258" s="595" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H258" s="596" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I258" s="666" t="s">
-        <v>1992</v>
+        <v>1988</v>
       </c>
       <c r="J258" s="652" t="s">
         <v>18</v>
@@ -49055,19 +49232,19 @@
         <v>1589</v>
       </c>
       <c r="E259" s="447" t="s">
-        <v>2129</v>
+        <v>2125</v>
       </c>
       <c r="F259" s="447" t="s">
         <v>1587</v>
       </c>
       <c r="G259" s="595" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="H259" s="596" t="s">
         <v>1194</v>
       </c>
       <c r="I259" s="636" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J259" s="652" t="s">
         <v>18</v>
@@ -49107,19 +49284,19 @@
         <v>939</v>
       </c>
       <c r="E260" s="447" t="s">
-        <v>2053</v>
+        <v>2049</v>
       </c>
       <c r="F260" s="447" t="s">
         <v>1586</v>
       </c>
       <c r="G260" s="595" t="s">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="H260" s="596" t="s">
         <v>1114</v>
       </c>
       <c r="I260" s="636" t="s">
-        <v>1897</v>
+        <v>1893</v>
       </c>
       <c r="J260" s="652" t="s">
         <v>18</v>
@@ -49156,10 +49333,10 @@
         <v>168</v>
       </c>
       <c r="D261" s="434" t="s">
-        <v>2121</v>
+        <v>2117</v>
       </c>
       <c r="E261" s="447" t="s">
-        <v>2130</v>
+        <v>2126</v>
       </c>
       <c r="F261" s="447" t="s">
         <v>1583</v>
@@ -49208,10 +49385,10 @@
         <v>1582</v>
       </c>
       <c r="D262" s="434" t="s">
-        <v>2122</v>
+        <v>2118</v>
       </c>
       <c r="E262" s="447" t="s">
-        <v>2131</v>
+        <v>2127</v>
       </c>
       <c r="F262" s="447" t="s">
         <v>1579</v>
@@ -49260,16 +49437,16 @@
         <v>1578</v>
       </c>
       <c r="D263" s="434" t="s">
-        <v>2123</v>
+        <v>2119</v>
       </c>
       <c r="E263" s="447" t="s">
-        <v>2132</v>
+        <v>2128</v>
       </c>
       <c r="F263" s="447" t="s">
         <v>1575</v>
       </c>
       <c r="G263" s="595" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="H263" s="596"/>
       <c r="I263" s="666" t="s">
@@ -49310,16 +49487,16 @@
         <v>1574</v>
       </c>
       <c r="D264" s="434" t="s">
-        <v>2124</v>
+        <v>2120</v>
       </c>
       <c r="E264" s="444" t="s">
-        <v>2133</v>
+        <v>2129</v>
       </c>
       <c r="F264" s="444" t="s">
         <v>1571</v>
       </c>
       <c r="G264" s="595" t="s">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="H264" s="596"/>
       <c r="I264" s="666" t="s">
@@ -49363,7 +49540,7 @@
         <v>911</v>
       </c>
       <c r="E265" s="447" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="F265" s="447" t="s">
         <v>1567</v>
@@ -49410,16 +49587,16 @@
         <v>1566</v>
       </c>
       <c r="D266" s="434" t="s">
-        <v>2125</v>
+        <v>2121</v>
       </c>
       <c r="E266" s="447" t="s">
-        <v>2135</v>
+        <v>2131</v>
       </c>
       <c r="F266" s="447" t="s">
         <v>1563</v>
       </c>
       <c r="G266" s="595" t="s">
-        <v>2022</v>
+        <v>2018</v>
       </c>
       <c r="H266" s="596"/>
       <c r="I266" s="666" t="s">
@@ -49460,16 +49637,16 @@
         <v>1562</v>
       </c>
       <c r="D267" s="434" t="s">
-        <v>2126</v>
+        <v>2122</v>
       </c>
       <c r="E267" s="447" t="s">
-        <v>2136</v>
+        <v>2132</v>
       </c>
       <c r="F267" s="447" t="s">
         <v>1559</v>
       </c>
       <c r="G267" s="595" t="s">
-        <v>2023</v>
+        <v>2019</v>
       </c>
       <c r="H267" s="596"/>
       <c r="I267" s="666" t="s">
@@ -49510,10 +49687,10 @@
         <v>296</v>
       </c>
       <c r="D268" s="434" t="s">
-        <v>2127</v>
+        <v>2123</v>
       </c>
       <c r="E268" s="444" t="s">
-        <v>2137</v>
+        <v>2133</v>
       </c>
       <c r="F268" s="444" t="s">
         <v>1556</v>
@@ -49522,7 +49699,7 @@
         <v>1176</v>
       </c>
       <c r="H268" s="667" t="s">
-        <v>1993</v>
+        <v>1989</v>
       </c>
       <c r="I268" s="666" t="s">
         <v>18</v>
@@ -49563,19 +49740,19 @@
         <v>1555</v>
       </c>
       <c r="E269" s="437" t="s">
-        <v>2138</v>
+        <v>2134</v>
       </c>
       <c r="F269" s="684" t="s">
         <v>1554</v>
       </c>
       <c r="G269" s="595" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="H269" s="596" t="s">
         <v>1254</v>
       </c>
       <c r="I269" s="636" t="s">
-        <v>2026</v>
+        <v>2022</v>
       </c>
       <c r="J269" s="652" t="s">
         <v>18</v>
@@ -49613,19 +49790,19 @@
         <v>1553</v>
       </c>
       <c r="E270" s="437" t="s">
-        <v>2139</v>
+        <v>2135</v>
       </c>
       <c r="F270" s="684" t="s">
         <v>1552</v>
       </c>
       <c r="G270" s="595" t="s">
-        <v>2024</v>
+        <v>2020</v>
       </c>
       <c r="H270" s="596" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="I270" s="636" t="s">
-        <v>2027</v>
+        <v>2023</v>
       </c>
       <c r="J270" s="652" t="s">
         <v>18</v>
@@ -49665,7 +49842,7 @@
         <v>1551</v>
       </c>
       <c r="E271" s="502" t="s">
-        <v>2140</v>
+        <v>2136</v>
       </c>
       <c r="F271" s="684" t="s">
         <v>1550</v>
@@ -49685,7 +49862,7 @@
       <c r="M271" s="434"/>
       <c r="N271" s="8"/>
       <c r="O271" s="712" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P271" s="591"/>
       <c r="Q271" s="8"/>
@@ -49709,20 +49886,20 @@
         <v>288</v>
       </c>
       <c r="C272" s="581" t="s">
-        <v>1982</v>
+        <v>1978</v>
       </c>
       <c r="D272" s="625" t="s">
         <v>180</v>
       </c>
       <c r="E272" s="502" t="s">
-        <v>2112</v>
+        <v>2108</v>
       </c>
       <c r="F272" s="684"/>
       <c r="G272" s="595" t="s">
         <v>589</v>
       </c>
       <c r="H272" s="596" t="s">
-        <v>2025</v>
+        <v>2021</v>
       </c>
       <c r="I272" s="569" t="s">
         <v>163</v>
@@ -49757,13 +49934,13 @@
         <v>289</v>
       </c>
       <c r="C273" s="581" t="s">
-        <v>1983</v>
+        <v>1979</v>
       </c>
       <c r="D273" s="625" t="s">
-        <v>1980</v>
+        <v>1976</v>
       </c>
       <c r="E273" s="502" t="s">
-        <v>2113</v>
+        <v>2109</v>
       </c>
       <c r="F273" s="684"/>
       <c r="G273" s="595" t="s">
@@ -50037,7 +50214,7 @@
       </c>
       <c r="F279" s="434"/>
       <c r="G279" s="504" t="s">
-        <v>1856</v>
+        <v>1852</v>
       </c>
       <c r="H279" s="644"/>
       <c r="I279" s="595" t="s">
@@ -50273,7 +50450,7 @@
         <v>1528</v>
       </c>
       <c r="D284" s="687" t="s">
-        <v>2082</v>
+        <v>2078</v>
       </c>
       <c r="E284" s="509" t="s">
         <v>1527</v>
@@ -50296,7 +50473,7 @@
       <c r="M284" s="434"/>
       <c r="N284" s="445"/>
       <c r="O284" s="611" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P284" s="508" t="s">
         <v>265</v>
@@ -50304,20 +50481,20 @@
       <c r="Q284" s="711"/>
       <c r="R284" s="760"/>
       <c r="S284" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T284" s="711"/>
       <c r="U284" s="760"/>
       <c r="V284" s="712"/>
       <c r="W284" s="983" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="X284" s="1010"/>
       <c r="Y284" s="984" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z284" s="980" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="AA284" s="1009" t="s">
         <v>18</v>
@@ -50344,7 +50521,7 @@
         <v>999</v>
       </c>
       <c r="D285" s="687" t="s">
-        <v>2083</v>
+        <v>2079</v>
       </c>
       <c r="E285" s="509" t="s">
         <v>1526</v>
@@ -50367,7 +50544,7 @@
       <c r="M285" s="434"/>
       <c r="N285" s="445"/>
       <c r="O285" s="611" t="s">
-        <v>1892</v>
+        <v>1888</v>
       </c>
       <c r="P285" s="508" t="s">
         <v>265</v>
@@ -50375,20 +50552,20 @@
       <c r="Q285" s="711"/>
       <c r="R285" s="760"/>
       <c r="S285" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T285" s="711"/>
       <c r="U285" s="760"/>
       <c r="V285" s="712"/>
       <c r="W285" s="983" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="X285" s="1010"/>
       <c r="Y285" s="984" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z285" s="980" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="AA285" s="1009" t="s">
         <v>18</v>
@@ -50446,20 +50623,20 @@
       <c r="Q286" s="711"/>
       <c r="R286" s="760"/>
       <c r="S286" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T286" s="711"/>
       <c r="U286" s="760"/>
       <c r="V286" s="712"/>
       <c r="W286" s="983" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="X286" s="1010"/>
       <c r="Y286" s="984" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z286" s="980" t="s">
-        <v>2222</v>
+        <v>2218</v>
       </c>
       <c r="AA286" s="1009" t="s">
         <v>18</v>
@@ -50517,7 +50694,7 @@
       <c r="Q287" s="711"/>
       <c r="R287" s="760"/>
       <c r="S287" s="712" t="s">
-        <v>1907</v>
+        <v>1903</v>
       </c>
       <c r="T287" s="711"/>
       <c r="U287" s="760"/>
@@ -50525,7 +50702,7 @@
       <c r="W287" s="977"/>
       <c r="X287" s="990"/>
       <c r="Y287" s="984" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z287" s="978"/>
       <c r="AA287" s="979"/>
@@ -50634,7 +50811,7 @@
         <v>276</v>
       </c>
       <c r="C290" s="504" t="s">
-        <v>2084</v>
+        <v>2080</v>
       </c>
       <c r="D290" s="503" t="s">
         <v>1516</v>
@@ -50644,7 +50821,7 @@
       </c>
       <c r="F290" s="441"/>
       <c r="G290" s="549" t="s">
-        <v>2028</v>
+        <v>2024</v>
       </c>
       <c r="H290" s="549"/>
       <c r="I290" s="595" t="s">
@@ -52435,13 +52612,13 @@
       </c>
       <c r="F324" s="732"/>
       <c r="G324" s="729" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H324" s="729" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I324" s="729" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="J324" s="733"/>
       <c r="K324" s="734"/>
@@ -53224,10 +53401,10 @@
       </c>
       <c r="X333" s="1014"/>
       <c r="Y333" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z333" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA333" s="894">
         <v>0.05</v>
@@ -53317,10 +53494,10 @@
       </c>
       <c r="X334" s="1014"/>
       <c r="Y334" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z334" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA334" s="894"/>
       <c r="AB334" s="895">
@@ -53659,7 +53836,7 @@
       </c>
       <c r="X338" s="1003"/>
       <c r="Y338" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z338" s="894">
         <v>1</v>
@@ -53752,10 +53929,10 @@
       </c>
       <c r="X339" s="1003"/>
       <c r="Y339" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z339" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA339" s="897"/>
       <c r="AB339" s="892">
@@ -53845,10 +54022,10 @@
       </c>
       <c r="X340" s="1003"/>
       <c r="Y340" s="894" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="Z340" s="894" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="AA340" s="897">
         <v>0.1</v>
@@ -54311,7 +54488,7 @@
       </c>
       <c r="X348" s="1003"/>
       <c r="Y348" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z348" s="894">
         <v>1</v>
@@ -54376,10 +54553,10 @@
       </c>
       <c r="X349" s="1003"/>
       <c r="Y349" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z349" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA349" s="897"/>
       <c r="AB349" s="892">
@@ -54441,10 +54618,10 @@
       </c>
       <c r="X350" s="1003"/>
       <c r="Y350" s="894" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="Z350" s="894" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="AA350" s="897">
         <v>0.1</v>
@@ -55146,13 +55323,13 @@
       </c>
       <c r="F361" s="742"/>
       <c r="G361" s="743" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H361" s="729" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I361" s="729" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="J361" s="747"/>
       <c r="K361" s="710"/>
@@ -55292,10 +55469,10 @@
       </c>
       <c r="X363" s="1014"/>
       <c r="Y363" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z363" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA363" s="894"/>
       <c r="AB363" s="895">
@@ -55357,10 +55534,10 @@
       </c>
       <c r="X364" s="1014"/>
       <c r="Y364" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z364" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA364" s="894">
         <v>0.05</v>
@@ -55422,14 +55599,14 @@
       </c>
       <c r="X365" s="1014"/>
       <c r="Y365" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z365" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA365" s="573"/>
       <c r="AB365" s="895" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="AC365" s="1013"/>
       <c r="AD365" s="1012"/>
@@ -55487,14 +55664,14 @@
       </c>
       <c r="X366" s="1014"/>
       <c r="Y366" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z366" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA366" s="573"/>
       <c r="AB366" s="895" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="AC366" s="1013"/>
       <c r="AD366" s="1012"/>
@@ -55550,7 +55727,7 @@
       </c>
       <c r="X367" s="1014"/>
       <c r="Y367" s="894" t="s">
-        <v>2157</v>
+        <v>2153</v>
       </c>
       <c r="Z367" s="904">
         <v>1</v>
@@ -56332,7 +56509,7 @@
       </c>
       <c r="P381" s="724"/>
       <c r="Q381" s="756" t="s">
-        <v>2147</v>
+        <v>2143</v>
       </c>
       <c r="R381" s="784"/>
       <c r="S381" s="773"/>
@@ -56515,10 +56692,10 @@
       </c>
       <c r="X384" s="1014"/>
       <c r="Y384" s="899" t="s">
-        <v>2199</v>
+        <v>2195</v>
       </c>
       <c r="Z384" s="899" t="s">
-        <v>2214</v>
+        <v>2210</v>
       </c>
       <c r="AA384" s="784"/>
       <c r="AB384" s="895">
@@ -56924,10 +57101,10 @@
       </c>
       <c r="X391" s="1014"/>
       <c r="Y391" s="899" t="s">
-        <v>2178</v>
+        <v>2174</v>
       </c>
       <c r="Z391" s="899" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="AA391" s="904">
         <v>1</v>
@@ -57046,14 +57223,14 @@
       </c>
       <c r="X393" s="1014"/>
       <c r="Y393" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z393" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA393" s="573"/>
       <c r="AB393" s="895" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="AC393" s="1013"/>
       <c r="AD393" s="1012"/>
@@ -57111,14 +57288,14 @@
       </c>
       <c r="X394" s="1014"/>
       <c r="Y394" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z394" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA394" s="573"/>
       <c r="AB394" s="895" t="s">
-        <v>2187</v>
+        <v>2183</v>
       </c>
       <c r="AC394" s="1013"/>
       <c r="AD394" s="1012"/>
@@ -57439,7 +57616,7 @@
       </c>
       <c r="X400" s="1003"/>
       <c r="Y400" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z400" s="894">
         <v>1</v>
@@ -57504,10 +57681,10 @@
       </c>
       <c r="X401" s="1003"/>
       <c r="Y401" s="894" t="s">
-        <v>2162</v>
+        <v>2158</v>
       </c>
       <c r="Z401" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA401" s="897"/>
       <c r="AB401" s="892">
@@ -57569,10 +57746,10 @@
       </c>
       <c r="X402" s="1003"/>
       <c r="Y402" s="894" t="s">
-        <v>2198</v>
+        <v>2194</v>
       </c>
       <c r="Z402" s="894" t="s">
-        <v>2218</v>
+        <v>2214</v>
       </c>
       <c r="AA402" s="897">
         <v>0.1</v>
@@ -58505,13 +58682,13 @@
       </c>
       <c r="F416" s="742"/>
       <c r="G416" s="600" t="s">
-        <v>1989</v>
+        <v>1985</v>
       </c>
       <c r="H416" s="600" t="s">
-        <v>1991</v>
+        <v>1987</v>
       </c>
       <c r="I416" s="653" t="s">
-        <v>2029</v>
+        <v>2025</v>
       </c>
       <c r="J416" s="656"/>
       <c r="K416" s="608"/>
@@ -58987,10 +59164,10 @@
       </c>
       <c r="X422" s="1014"/>
       <c r="Y422" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z422" s="894" t="s">
-        <v>2217</v>
+        <v>2213</v>
       </c>
       <c r="AA422" s="894"/>
       <c r="AB422" s="895">
@@ -59052,10 +59229,10 @@
       </c>
       <c r="X423" s="1014"/>
       <c r="Y423" s="894" t="s">
-        <v>2197</v>
+        <v>2193</v>
       </c>
       <c r="Z423" s="894" t="s">
-        <v>2216</v>
+        <v>2212</v>
       </c>
       <c r="AA423" s="894">
         <v>0.05</v>
@@ -59480,13 +59657,13 @@
       </c>
       <c r="F431" s="36"/>
       <c r="G431" s="33" t="s">
-        <v>2030</v>
+        <v>2026</v>
       </c>
       <c r="H431" s="33" t="s">
         <v>1070</v>
       </c>
       <c r="I431" s="33" t="s">
-        <v>2031</v>
+        <v>2027</v>
       </c>
       <c r="J431" s="199"/>
       <c r="K431" s="42"/>
@@ -60043,13 +60220,16 @@
       <c r="AD553" s="795"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="Z128:AD128"/>
     <mergeCell ref="Z126:AD126"/>
     <mergeCell ref="AC176:AD176"/>
     <mergeCell ref="AC134:AD134"/>
     <mergeCell ref="AC165:AD165"/>
     <mergeCell ref="AC168:AD168"/>
+    <mergeCell ref="AC170:AD170"/>
+    <mergeCell ref="AC171:AD171"/>
+    <mergeCell ref="AC174:AD174"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -61056,7 +61236,7 @@
         <v>436</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>1974</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -61172,7 +61352,7 @@
         <v>587</v>
       </c>
       <c r="G7" s="621" t="s">
-        <v>1977</v>
+        <v>1973</v>
       </c>
     </row>
     <row r="8" spans="1:7">

--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -9964,21 +9964,6 @@
     <t>Probability of a piping scenario</t>
   </si>
   <si>
-    <r>
-      <t>b</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <vertAlign val="subscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>T,cross</t>
-    </r>
-  </si>
-  <si>
     <t>Betrouwbaarheidsindex</t>
   </si>
   <si>
@@ -10778,6 +10763,21 @@
         <family val="1"/>
       </rPr>
       <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>eis,dsn</t>
     </r>
   </si>
 </sst>
@@ -15887,7 +15887,7 @@
         <v>970</v>
       </c>
       <c r="F23" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G23" s="50"/>
       <c r="H23" s="88" t="s">
@@ -17333,7 +17333,7 @@
         <v>970</v>
       </c>
       <c r="F58" s="50" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="G58" s="50"/>
       <c r="H58" s="88" t="s">
@@ -23093,7 +23093,7 @@
         <v>207</v>
       </c>
       <c r="F195" s="287" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="G195" s="286"/>
       <c r="H195" s="288"/>
@@ -23123,7 +23123,7 @@
         <v>212</v>
       </c>
       <c r="F196" s="126" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="G196" s="143"/>
       <c r="H196" s="88" t="s">
@@ -23163,7 +23163,7 @@
         <v>213</v>
       </c>
       <c r="F197" s="126" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="G197" s="143"/>
       <c r="H197" s="298" t="s">
@@ -23205,7 +23205,7 @@
         <v>214</v>
       </c>
       <c r="F198" s="126" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="G198" s="143"/>
       <c r="H198" s="298" t="s">
@@ -23249,7 +23249,7 @@
         <v>215</v>
       </c>
       <c r="F199" s="126" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G199" s="143"/>
       <c r="H199" s="88" t="s">
@@ -23289,7 +23289,7 @@
         <v>216</v>
       </c>
       <c r="F200" s="126" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G200" s="143"/>
       <c r="H200" s="298" t="s">
@@ -23337,7 +23337,7 @@
         <v>217</v>
       </c>
       <c r="F201" s="126" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G201" s="143"/>
       <c r="H201" s="298" t="s">
@@ -23383,7 +23383,7 @@
         <v>218</v>
       </c>
       <c r="F202" s="126" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G202" s="143"/>
       <c r="H202" s="298" t="s">
@@ -23428,7 +23428,7 @@
         <v>219</v>
       </c>
       <c r="F203" s="126" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G203" s="143"/>
       <c r="H203" s="298" t="s">
@@ -23459,7 +23459,7 @@
         <v>209</v>
       </c>
       <c r="U203" s="116" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
     </row>
     <row r="204" spans="1:21" s="58" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -23475,7 +23475,7 @@
         <v>220</v>
       </c>
       <c r="F204" s="126" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G204" s="143"/>
       <c r="H204" s="298" t="s">
@@ -23520,7 +23520,7 @@
         <v>221</v>
       </c>
       <c r="F205" s="126" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G205" s="143"/>
       <c r="H205" s="298" t="s">
@@ -23612,7 +23612,7 @@
         <v>179</v>
       </c>
       <c r="F207" s="57" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G207" s="57"/>
       <c r="H207" s="109" t="s">
@@ -23655,7 +23655,7 @@
         <v>973</v>
       </c>
       <c r="F208" s="28" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="G208" s="57"/>
       <c r="H208" s="109" t="s">
@@ -23745,7 +23745,7 @@
         <v>1974</v>
       </c>
       <c r="F210" s="28" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="G210" s="57"/>
       <c r="H210" s="109" t="s">
@@ -23772,7 +23772,7 @@
       <c r="R210" s="147"/>
       <c r="T210" s="146"/>
       <c r="U210" s="116" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="211" spans="1:21" s="15" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -23795,7 +23795,7 @@
         <v>1180</v>
       </c>
       <c r="I211" s="109" t="s">
-        <v>2112</v>
+        <v>2111</v>
       </c>
       <c r="J211" s="129" t="s">
         <v>18</v>
@@ -23854,7 +23854,7 @@
         <v>225</v>
       </c>
       <c r="F213" s="126" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="G213" s="126"/>
       <c r="H213" s="129" t="s">
@@ -23892,7 +23892,7 @@
         <v>151</v>
       </c>
       <c r="F214" s="287" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="G214" s="287"/>
       <c r="H214" s="305"/>
@@ -23924,7 +23924,7 @@
         <v>226</v>
       </c>
       <c r="F215" s="126" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="G215" s="126"/>
       <c r="H215" s="88" t="s">
@@ -23964,7 +23964,7 @@
         <v>215</v>
       </c>
       <c r="F216" s="126" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="G216" s="126"/>
       <c r="H216" s="88" t="s">
@@ -24004,7 +24004,7 @@
         <v>216</v>
       </c>
       <c r="F217" s="126" t="s">
-        <v>2086</v>
+        <v>2085</v>
       </c>
       <c r="G217" s="126"/>
       <c r="H217" s="298" t="s">
@@ -24052,7 +24052,7 @@
         <v>217</v>
       </c>
       <c r="F218" s="126" t="s">
-        <v>2087</v>
+        <v>2086</v>
       </c>
       <c r="G218" s="126"/>
       <c r="H218" s="298" t="s">
@@ -24099,7 +24099,7 @@
         <v>218</v>
       </c>
       <c r="F219" s="126" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="G219" s="126"/>
       <c r="H219" s="298" t="s">
@@ -24144,7 +24144,7 @@
         <v>219</v>
       </c>
       <c r="F220" s="126" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="G220" s="126"/>
       <c r="H220" s="298" t="s">
@@ -24175,7 +24175,7 @@
         <v>222</v>
       </c>
       <c r="U220" s="116" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="221" spans="1:21" s="58" customFormat="1" ht="12.75" hidden="1" outlineLevel="1">
@@ -24191,7 +24191,7 @@
         <v>220</v>
       </c>
       <c r="F221" s="126" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="G221" s="126"/>
       <c r="H221" s="298" t="s">
@@ -24236,7 +24236,7 @@
         <v>221</v>
       </c>
       <c r="F222" s="126" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="G222" s="126"/>
       <c r="H222" s="298" t="s">
@@ -24281,7 +24281,7 @@
         <v>227</v>
       </c>
       <c r="F223" s="126" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="G223" s="126"/>
       <c r="H223" s="88" t="s">
@@ -24320,7 +24320,7 @@
         <v>228</v>
       </c>
       <c r="F224" s="126" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="G224" s="126"/>
       <c r="H224" s="125" t="s">
@@ -24414,7 +24414,7 @@
         <v>179</v>
       </c>
       <c r="F226" s="126" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="G226" s="126"/>
       <c r="H226" s="109" t="s">
@@ -24458,7 +24458,7 @@
         <v>975</v>
       </c>
       <c r="F227" s="307" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="G227" s="307"/>
       <c r="H227" s="308"/>
@@ -24492,7 +24492,7 @@
         <v>185</v>
       </c>
       <c r="F228" s="28" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="G228" s="28"/>
       <c r="H228" s="109" t="s">
@@ -24536,7 +24536,7 @@
         <v>183</v>
       </c>
       <c r="F229" s="94" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="G229" s="94"/>
       <c r="H229" s="79" t="s">
@@ -24580,7 +24580,7 @@
         <v>184</v>
       </c>
       <c r="F230" s="94" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="G230" s="94"/>
       <c r="H230" s="79" t="s">
@@ -24624,7 +24624,7 @@
         <v>973</v>
       </c>
       <c r="F231" s="94" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="G231" s="94"/>
       <c r="H231" s="109" t="s">
@@ -24705,14 +24705,14 @@
         <v>53</v>
       </c>
       <c r="C233" s="224" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="D233" s="224"/>
       <c r="E233" s="97" t="s">
         <v>180</v>
       </c>
       <c r="F233" s="94" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="G233" s="94"/>
       <c r="H233" s="109" t="s">
@@ -24749,14 +24749,14 @@
         <v>54</v>
       </c>
       <c r="C234" s="224" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="D234" s="224"/>
       <c r="E234" s="97" t="s">
         <v>1976</v>
       </c>
       <c r="F234" s="94" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="G234" s="94"/>
       <c r="H234" s="109" t="s">
@@ -24933,13 +24933,13 @@
         <v>24</v>
       </c>
       <c r="C240" s="683" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="E240" s="152" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F240" s="115" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="G240" s="115"/>
       <c r="H240" s="125" t="s">
@@ -24975,13 +24975,13 @@
         <v>26</v>
       </c>
       <c r="C241" s="683" t="s">
-        <v>2071</v>
+        <v>2070</v>
       </c>
       <c r="E241" s="152" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F241" s="115" t="s">
-        <v>2077</v>
+        <v>2076</v>
       </c>
       <c r="G241" s="115"/>
       <c r="H241" s="125" t="s">
@@ -25017,7 +25017,7 @@
         <v>28</v>
       </c>
       <c r="C242" s="688" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="E242" s="152" t="s">
         <v>1425</v>
@@ -25059,7 +25059,7 @@
         <v>29</v>
       </c>
       <c r="C243" s="688" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="E243" s="152" t="s">
         <v>1426</v>
@@ -34690,10 +34690,10 @@
   <dimension ref="A1:BG553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E157" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W181" sqref="W181"/>
+      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -34793,37 +34793,37 @@
         <v>1961</v>
       </c>
       <c r="U1" s="956" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="V1" s="956" t="s">
         <v>1970</v>
       </c>
       <c r="W1" s="957" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="X1" s="948" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="Y1" s="957" t="s">
+        <v>2144</v>
+      </c>
+      <c r="Z1" s="957" t="s">
         <v>2145</v>
       </c>
-      <c r="Z1" s="957" t="s">
+      <c r="AA1" s="957" t="s">
         <v>2146</v>
       </c>
-      <c r="AA1" s="957" t="s">
-        <v>2147</v>
-      </c>
       <c r="AB1" s="961" t="s">
+        <v>2207</v>
+      </c>
+      <c r="AC1" s="948" t="s">
+        <v>2214</v>
+      </c>
+      <c r="AD1" s="961" t="s">
+        <v>2215</v>
+      </c>
+      <c r="AE1" s="948" t="s">
         <v>2208</v>
-      </c>
-      <c r="AC1" s="948" t="s">
-        <v>2215</v>
-      </c>
-      <c r="AD1" s="961" t="s">
-        <v>2216</v>
-      </c>
-      <c r="AE1" s="948" t="s">
-        <v>2209</v>
       </c>
       <c r="AF1" s="958"/>
       <c r="AG1" s="959"/>
@@ -34841,7 +34841,7 @@
         <v>151</v>
       </c>
       <c r="E2" s="693" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F2" s="436" t="s">
         <v>1605</v>
@@ -34886,7 +34886,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="693" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F3" s="436" t="s">
         <v>152</v>
@@ -34975,10 +34975,10 @@
         <v>50</v>
       </c>
       <c r="Y4" s="844" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z4" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA4" s="859"/>
       <c r="AB4" s="856"/>
@@ -35046,10 +35046,10 @@
         <v>50</v>
       </c>
       <c r="Y5" s="844" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z5" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA5" s="859"/>
       <c r="AB5" s="856"/>
@@ -35075,7 +35075,7 @@
         <v>153</v>
       </c>
       <c r="E6" s="694" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="F6" s="436" t="s">
         <v>1834</v>
@@ -35117,20 +35117,20 @@
         <v>5</v>
       </c>
       <c r="Y6" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z6" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA6" s="845"/>
       <c r="AB6" s="842" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="AC6" s="851">
         <v>0</v>
       </c>
       <c r="AD6" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE6" s="982">
         <v>4</v>
@@ -35150,7 +35150,7 @@
         <v>154</v>
       </c>
       <c r="E7" s="694" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F7" s="436" t="s">
         <v>1833</v>
@@ -35192,10 +35192,10 @@
         <v>5</v>
       </c>
       <c r="Y7" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z7" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA7" s="845"/>
       <c r="AB7" s="842">
@@ -35205,7 +35205,7 @@
         <v>0</v>
       </c>
       <c r="AD7" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE7" s="982">
         <v>4</v>
@@ -35225,7 +35225,7 @@
         <v>155</v>
       </c>
       <c r="E8" s="695" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F8" s="436" t="s">
         <v>1478</v>
@@ -35276,7 +35276,7 @@
         <v>156</v>
       </c>
       <c r="E9" s="694" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F9" s="436" t="s">
         <v>1831</v>
@@ -35329,7 +35329,7 @@
         <v>157</v>
       </c>
       <c r="E10" s="696" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F10" s="436" t="s">
         <v>1477</v>
@@ -35369,10 +35369,10 @@
         <v>5</v>
       </c>
       <c r="Y10" s="844" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z10" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA10" s="844">
         <v>0.1</v>
@@ -35400,7 +35400,7 @@
         <v>158</v>
       </c>
       <c r="E11" s="696" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="F11" s="436" t="s">
         <v>158</v>
@@ -35447,7 +35447,7 @@
         <v>159</v>
       </c>
       <c r="E12" s="694" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F12" s="436" t="s">
         <v>1830</v>
@@ -35502,7 +35502,7 @@
         <v>160</v>
       </c>
       <c r="E13" s="694" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F13" s="436" t="s">
         <v>1828</v>
@@ -35542,10 +35542,10 @@
         <v>5</v>
       </c>
       <c r="Y13" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z13" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA13" s="845">
         <v>50</v>
@@ -35575,7 +35575,7 @@
         <v>161</v>
       </c>
       <c r="E14" s="694" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="F14" s="436" t="s">
         <v>1827</v>
@@ -35632,7 +35632,7 @@
         <v>162</v>
       </c>
       <c r="E15" s="694" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F15" s="436" t="s">
         <v>1826</v>
@@ -35674,20 +35674,20 @@
         <v>5</v>
       </c>
       <c r="Y15" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z15" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA15" s="844"/>
       <c r="AB15" s="841" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AC15" s="851">
         <v>0</v>
       </c>
       <c r="AD15" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE15" s="982">
         <v>2</v>
@@ -35704,7 +35704,7 @@
         <v>15</v>
       </c>
       <c r="D16" s="523" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E16" s="694" t="s">
         <v>368</v>
@@ -35749,20 +35749,20 @@
         <v>5</v>
       </c>
       <c r="Y16" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z16" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA16" s="844"/>
       <c r="AB16" s="842" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC16" s="851">
         <v>0</v>
       </c>
       <c r="AD16" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE16" s="982">
         <v>2</v>
@@ -35878,7 +35878,7 @@
         <v>970</v>
       </c>
       <c r="E19" s="697" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="F19" s="572" t="s">
         <v>1821</v>
@@ -36304,7 +36304,7 @@
         <v>0</v>
       </c>
       <c r="AD26" s="964" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AE26" s="783">
         <v>4</v>
@@ -36369,7 +36369,7 @@
         <v>0</v>
       </c>
       <c r="AD27" s="964" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AE27" s="783">
         <v>4</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="AD28" s="964" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AE28" s="783">
         <v>4</v>
@@ -36499,7 +36499,7 @@
         <v>0</v>
       </c>
       <c r="AD29" s="964" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AE29" s="783">
         <v>4</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="AD32" s="964" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="AE32" s="783">
         <v>4</v>
@@ -36852,10 +36852,10 @@
         <v>50</v>
       </c>
       <c r="Y36" s="844" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z36" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA36" s="859"/>
       <c r="AB36" s="856"/>
@@ -36921,10 +36921,10 @@
         <v>50</v>
       </c>
       <c r="Y37" s="844" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z37" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA37" s="859"/>
       <c r="AB37" s="856"/>
@@ -36990,20 +36990,20 @@
         <v>5</v>
       </c>
       <c r="Y38" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z38" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA38" s="845"/>
       <c r="AB38" s="842" t="s">
-        <v>2149</v>
+        <v>2148</v>
       </c>
       <c r="AC38" s="851">
         <v>0</v>
       </c>
       <c r="AD38" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE38" s="982">
         <v>4</v>
@@ -37063,10 +37063,10 @@
         <v>5</v>
       </c>
       <c r="Y39" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z39" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA39" s="845"/>
       <c r="AB39" s="842">
@@ -37076,7 +37076,7 @@
         <v>0</v>
       </c>
       <c r="AD39" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE39" s="982">
         <v>4</v>
@@ -37338,10 +37338,10 @@
         <v>5</v>
       </c>
       <c r="Y44" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z44" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA44" s="845">
         <v>50</v>
@@ -37465,20 +37465,20 @@
         <v>5</v>
       </c>
       <c r="Y46" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z46" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA46" s="844"/>
       <c r="AB46" s="841" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="AC46" s="851">
         <v>0</v>
       </c>
       <c r="AD46" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE46" s="982">
         <v>2</v>
@@ -37538,20 +37538,20 @@
         <v>5</v>
       </c>
       <c r="Y47" s="845" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="Z47" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA47" s="844"/>
       <c r="AB47" s="842" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC47" s="851">
         <v>0</v>
       </c>
       <c r="AD47" s="962" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="AE47" s="982">
         <v>2</v>
@@ -39342,20 +39342,20 @@
         <v>5</v>
       </c>
       <c r="Y82" s="445" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z82" s="445" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA82" s="445"/>
       <c r="AB82" s="445" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="AC82" s="812">
         <v>0</v>
       </c>
       <c r="AD82" s="962" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="AE82" s="982">
         <v>4</v>
@@ -39415,20 +39415,20 @@
         <v>95</v>
       </c>
       <c r="Y83" s="445" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z83" s="445" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA83" s="445"/>
       <c r="AB83" s="812" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="AC83" s="8">
         <v>0</v>
       </c>
       <c r="AD83" s="962" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="AE83" s="982">
         <v>4</v>
@@ -39488,20 +39488,20 @@
         <v>5</v>
       </c>
       <c r="Y84" s="445" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z84" s="445" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA84" s="445"/>
       <c r="AB84" s="812" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="AC84" s="8">
         <v>0</v>
       </c>
       <c r="AD84" s="962" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="AE84" s="982">
         <v>4</v>
@@ -39664,7 +39664,7 @@
         <v>1862</v>
       </c>
       <c r="E88" s="684" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F88" s="447" t="s">
         <v>1866</v>
@@ -39722,7 +39722,7 @@
         <v>1864</v>
       </c>
       <c r="E89" s="557" t="s">
-        <v>2137</v>
+        <v>2136</v>
       </c>
       <c r="F89" s="557" t="s">
         <v>1865</v>
@@ -39760,20 +39760,20 @@
         <v>5</v>
       </c>
       <c r="Y89" s="781" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="Z89" s="844" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA89" s="845"/>
       <c r="AB89" s="842" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC89" s="851">
         <v>0</v>
       </c>
       <c r="AD89" s="943" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AE89" s="982">
         <v>4</v>
@@ -40060,10 +40060,10 @@
         <v>5</v>
       </c>
       <c r="Y94" s="784" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z94" s="611" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA94" s="879" t="s">
         <v>18</v>
@@ -40195,10 +40195,10 @@
         <v>95</v>
       </c>
       <c r="Y96" s="784" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z96" s="611" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA96" s="879" t="s">
         <v>18</v>
@@ -40629,20 +40629,20 @@
         <v>5</v>
       </c>
       <c r="Y104" s="438" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z104" s="874" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA104" s="438"/>
       <c r="AB104" s="809" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="AC104" s="843">
         <v>0</v>
       </c>
       <c r="AD104" s="967" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="AE104" s="982">
         <v>3</v>
@@ -40704,17 +40704,17 @@
         <v>284</v>
       </c>
       <c r="C106" s="559" t="s">
+        <v>2138</v>
+      </c>
+      <c r="D106" s="687" t="s">
         <v>2139</v>
       </c>
-      <c r="D106" s="687" t="s">
+      <c r="E106" s="687" t="s">
         <v>2140</v>
-      </c>
-      <c r="E106" s="687" t="s">
-        <v>2141</v>
       </c>
       <c r="F106" s="542"/>
       <c r="G106" s="501" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="H106" s="568"/>
       <c r="I106" s="597" t="s">
@@ -40850,13 +40850,13 @@
         <v>5</v>
       </c>
       <c r="Y108" s="438" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z108" s="874" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA108" s="777" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AB108" s="876"/>
       <c r="AC108" s="906" t="s">
@@ -41252,10 +41252,10 @@
         <v>257</v>
       </c>
       <c r="X116" s="999" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="Y116" s="874" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z116" s="881">
         <v>0.5</v>
@@ -41268,7 +41268,7 @@
         <v>0</v>
       </c>
       <c r="AD116" s="944" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="AE116" s="982">
         <v>1</v>
@@ -41457,7 +41457,7 @@
       </c>
       <c r="X120" s="999"/>
       <c r="Y120" s="611" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z120" s="611">
         <v>1</v>
@@ -41524,7 +41524,7 @@
       </c>
       <c r="X121" s="999"/>
       <c r="Y121" s="611" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z121" s="611">
         <v>1</v>
@@ -41601,17 +41601,17 @@
         <v>340</v>
       </c>
       <c r="C123" s="681" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D123" s="684" t="s">
         <v>2066</v>
       </c>
-      <c r="D123" s="684" t="s">
+      <c r="E123" s="447" t="s">
         <v>2067</v>
-      </c>
-      <c r="E123" s="447" t="s">
-        <v>2068</v>
       </c>
       <c r="F123" s="447"/>
       <c r="G123" s="501" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="H123" s="444"/>
       <c r="I123" s="445" t="s">
@@ -41769,10 +41769,10 @@
       </c>
       <c r="X126" s="757"/>
       <c r="Y126" s="611" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z126" s="1017" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AA126" s="1018"/>
       <c r="AB126" s="1018"/>
@@ -41876,10 +41876,10 @@
       </c>
       <c r="X128" s="757"/>
       <c r="Y128" s="608" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z128" s="1017" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="AA128" s="1018"/>
       <c r="AB128" s="1018"/>
@@ -42169,17 +42169,17 @@
         <v>5</v>
       </c>
       <c r="Y134" s="845" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z134" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA134" s="891"/>
       <c r="AB134" s="1016" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AC134" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD134" s="1023"/>
       <c r="AE134" s="982">
@@ -42357,13 +42357,13 @@
         <v>1918</v>
       </c>
       <c r="D138" s="582" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="E138" s="582" t="s">
         <v>1879</v>
       </c>
       <c r="F138" s="608" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="G138" s="653" t="s">
         <v>1284</v>
@@ -42411,13 +42411,13 @@
         <v>1919</v>
       </c>
       <c r="D139" s="582" t="s">
-        <v>2223</v>
+        <v>2222</v>
       </c>
       <c r="E139" s="582" t="s">
         <v>1880</v>
       </c>
       <c r="F139" s="608" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="G139" s="653" t="s">
         <v>1284</v>
@@ -42681,13 +42681,13 @@
         <v>1924</v>
       </c>
       <c r="D144" s="612" t="s">
-        <v>2224</v>
+        <v>2223</v>
       </c>
       <c r="E144" s="582" t="s">
         <v>1883</v>
       </c>
       <c r="F144" s="609" t="s">
-        <v>2227</v>
+        <v>2226</v>
       </c>
       <c r="G144" s="653" t="s">
         <v>1284</v>
@@ -42735,13 +42735,13 @@
         <v>1925</v>
       </c>
       <c r="D145" s="582" t="s">
-        <v>2225</v>
+        <v>2224</v>
       </c>
       <c r="E145" s="582" t="s">
         <v>1884</v>
       </c>
       <c r="F145" s="611" t="s">
-        <v>2226</v>
+        <v>2225</v>
       </c>
       <c r="G145" s="653" t="s">
         <v>1284</v>
@@ -42944,7 +42944,7 @@
         <v>280</v>
       </c>
       <c r="C149" s="551" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="D149" s="582" t="s">
         <v>1941</v>
@@ -42962,7 +42962,7 @@
         <v>1254</v>
       </c>
       <c r="I149" s="653" t="s">
-        <v>2231</v>
+        <v>2230</v>
       </c>
       <c r="J149" s="657" t="s">
         <v>18</v>
@@ -43057,7 +43057,7 @@
         <v>1953</v>
       </c>
       <c r="F151" s="608" t="s">
-        <v>2232</v>
+        <v>2231</v>
       </c>
       <c r="G151" s="544" t="s">
         <v>1034</v>
@@ -43856,21 +43856,21 @@
         <v>95</v>
       </c>
       <c r="Y165" s="845" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z165" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA165" s="840"/>
       <c r="AB165" s="819" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="AC165" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD165" s="1023"/>
       <c r="AE165" s="1008" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="166" spans="1:31" ht="14.25" outlineLevel="1">
@@ -43881,7 +43881,7 @@
         <v>339</v>
       </c>
       <c r="C166" s="544" t="s">
-        <v>2233</v>
+        <v>2232</v>
       </c>
       <c r="D166" s="613" t="s">
         <v>1437</v>
@@ -43935,7 +43935,7 @@
         <v>340</v>
       </c>
       <c r="C167" s="544" t="s">
-        <v>2234</v>
+        <v>2233</v>
       </c>
       <c r="D167" s="613" t="s">
         <v>1438</v>
@@ -44035,21 +44035,21 @@
         <v>5</v>
       </c>
       <c r="Y168" s="845" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="Z168" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA168" s="840"/>
       <c r="AB168" s="819" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="AC168" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD168" s="1023"/>
       <c r="AE168" s="1008" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="169" spans="1:31" ht="15.75" outlineLevel="1">
@@ -44154,17 +44154,17 @@
         <v>5</v>
       </c>
       <c r="Y170" s="845" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z170" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA170" s="891"/>
       <c r="AB170" s="1016" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AC170" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD170" s="1023"/>
       <c r="AE170" s="982">
@@ -44225,21 +44225,21 @@
         <v>95</v>
       </c>
       <c r="Y171" s="845" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z171" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA171" s="840"/>
       <c r="AB171" s="819" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="AC171" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD171" s="1023"/>
       <c r="AE171" s="1008" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="172" spans="1:31" ht="14.25" outlineLevel="1">
@@ -44250,10 +44250,10 @@
         <v>345</v>
       </c>
       <c r="C172" s="544" t="s">
-        <v>2235</v>
+        <v>2234</v>
       </c>
       <c r="D172" s="613" t="s">
-        <v>2196</v>
+        <v>2195</v>
       </c>
       <c r="E172" s="612" t="s">
         <v>318</v>
@@ -44304,7 +44304,7 @@
         <v>346</v>
       </c>
       <c r="C173" s="544" t="s">
-        <v>2236</v>
+        <v>2235</v>
       </c>
       <c r="D173" s="613" t="s">
         <v>1443</v>
@@ -44404,21 +44404,21 @@
         <v>5</v>
       </c>
       <c r="Y174" s="845" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="Z174" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA174" s="840"/>
       <c r="AB174" s="819" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="AC174" s="1022" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="AD174" s="1023"/>
       <c r="AE174" s="1008" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="175" spans="1:31" ht="13.5" outlineLevel="1">
@@ -44537,21 +44537,21 @@
         <v>5</v>
       </c>
       <c r="Y176" s="845" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z176" s="845" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA176" s="845"/>
       <c r="AB176" s="842" t="s">
+        <v>2187</v>
+      </c>
+      <c r="AC176" s="1020" t="s">
         <v>2188</v>
-      </c>
-      <c r="AC176" s="1020" t="s">
-        <v>2189</v>
       </c>
       <c r="AD176" s="1021"/>
       <c r="AE176" s="1008" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="177" spans="1:31" ht="15.75" outlineLevel="1">
@@ -45024,20 +45024,20 @@
         <v>50</v>
       </c>
       <c r="Y185" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z185" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA185" s="884"/>
       <c r="AB185" s="886" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AC185" s="851">
         <v>0</v>
       </c>
       <c r="AD185" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE185" s="982">
         <v>4</v>
@@ -45097,20 +45097,20 @@
         <v>50</v>
       </c>
       <c r="Y186" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z186" s="884" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="AA186" s="884"/>
       <c r="AB186" s="885" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="AC186" s="851">
         <v>0</v>
       </c>
       <c r="AD186" s="943" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AE186" s="982">
         <v>4</v>
@@ -45170,20 +45170,20 @@
         <v>50</v>
       </c>
       <c r="Y187" s="884" t="s">
+        <v>2174</v>
+      </c>
+      <c r="Z187" s="884" t="s">
+        <v>2211</v>
+      </c>
+      <c r="AA187" s="884" t="s">
         <v>2175</v>
-      </c>
-      <c r="Z187" s="884" t="s">
-        <v>2212</v>
-      </c>
-      <c r="AA187" s="884" t="s">
-        <v>2176</v>
       </c>
       <c r="AB187" s="885"/>
       <c r="AC187" s="851">
         <v>0</v>
       </c>
       <c r="AD187" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE187" s="982">
         <v>4</v>
@@ -45243,20 +45243,20 @@
         <v>50</v>
       </c>
       <c r="Y188" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z188" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA188" s="882" t="s">
-        <v>2177</v>
+        <v>2176</v>
       </c>
       <c r="AB188" s="885"/>
       <c r="AC188" s="851">
         <v>0</v>
       </c>
       <c r="AD188" s="943" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AE188" s="982">
         <v>4</v>
@@ -45422,20 +45422,20 @@
         <v>50</v>
       </c>
       <c r="Y191" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z191" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA191" s="882" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AB191" s="885"/>
       <c r="AC191" s="851">
         <v>0</v>
       </c>
       <c r="AD191" s="943" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AE191" s="982">
         <v>4</v>
@@ -45493,20 +45493,20 @@
         <v>50</v>
       </c>
       <c r="Y192" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z192" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA192" s="884"/>
       <c r="AB192" s="884" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AC192" s="851">
         <v>0</v>
       </c>
       <c r="AD192" s="943" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="AE192" s="982">
         <v>3</v>
@@ -45566,20 +45566,20 @@
         <v>50</v>
       </c>
       <c r="Y193" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z193" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA193" s="884"/>
       <c r="AB193" s="884" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="AC193" s="851">
         <v>0</v>
       </c>
       <c r="AD193" s="943" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AE193" s="982">
         <v>4</v>
@@ -45639,20 +45639,20 @@
         <v>50</v>
       </c>
       <c r="Y194" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z194" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA194" s="884"/>
       <c r="AB194" s="884" t="s">
-        <v>2181</v>
+        <v>2180</v>
       </c>
       <c r="AC194" s="851">
         <v>0</v>
       </c>
       <c r="AD194" s="943" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AE194" s="982">
         <v>4</v>
@@ -45712,20 +45712,20 @@
         <v>50</v>
       </c>
       <c r="Y195" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z195" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA195" s="884"/>
       <c r="AB195" s="885" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AC195" s="851">
         <v>0</v>
       </c>
       <c r="AD195" s="943" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AE195" s="982">
         <v>4</v>
@@ -45785,20 +45785,20 @@
         <v>50</v>
       </c>
       <c r="Y196" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z196" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA196" s="884"/>
       <c r="AB196" s="885" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC196" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD196" s="943" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="AE196" s="982">
         <v>4</v>
@@ -45858,20 +45858,20 @@
         <v>50</v>
       </c>
       <c r="Y197" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z197" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA197" s="884"/>
       <c r="AB197" s="885" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC197" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD197" s="943" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="AE197" s="982">
         <v>4</v>
@@ -45931,20 +45931,20 @@
         <v>50</v>
       </c>
       <c r="Y198" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z198" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA198" s="884"/>
       <c r="AB198" s="885" t="s">
-        <v>2184</v>
+        <v>2183</v>
       </c>
       <c r="AC198" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD198" s="943" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="AE198" s="982">
         <v>4</v>
@@ -46004,20 +46004,20 @@
         <v>50</v>
       </c>
       <c r="Y199" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z199" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA199" s="888"/>
       <c r="AB199" s="889" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="AC199" s="851" t="s">
         <v>18</v>
       </c>
       <c r="AD199" s="943" t="s">
-        <v>2185</v>
+        <v>2184</v>
       </c>
       <c r="AE199" s="982">
         <v>4</v>
@@ -46077,20 +46077,20 @@
         <v>5</v>
       </c>
       <c r="Y200" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z200" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA200" s="845"/>
       <c r="AB200" s="885" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="AC200" s="851">
         <v>0</v>
       </c>
       <c r="AD200" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE200" s="982">
         <v>3</v>
@@ -46150,20 +46150,20 @@
         <v>50</v>
       </c>
       <c r="Y201" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z201" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA201" s="884"/>
       <c r="AB201" s="885" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="AC201" s="851">
         <v>0</v>
       </c>
       <c r="AD201" s="943" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="AE201" s="982">
         <v>3</v>
@@ -46279,20 +46279,20 @@
         <v>50</v>
       </c>
       <c r="Y203" s="884" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z203" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA203" s="882" t="s">
-        <v>2167</v>
+        <v>2166</v>
       </c>
       <c r="AB203" s="885"/>
       <c r="AC203" s="851">
         <v>0</v>
       </c>
       <c r="AD203" s="943" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="AE203" s="982">
         <v>4</v>
@@ -46778,20 +46778,20 @@
         <v>50</v>
       </c>
       <c r="Y212" s="884" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="Z212" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA212" s="884"/>
       <c r="AB212" s="886" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="AC212" s="851">
         <v>0</v>
       </c>
       <c r="AD212" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE212" s="982">
         <v>4</v>
@@ -46851,20 +46851,20 @@
         <v>50</v>
       </c>
       <c r="Y213" s="884" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="Z213" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA213" s="884"/>
       <c r="AB213" s="885" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="AC213" s="851">
         <v>1</v>
       </c>
       <c r="AD213" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE213" s="982">
         <v>4</v>
@@ -46924,20 +46924,20 @@
         <v>50</v>
       </c>
       <c r="Y214" s="884" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="Z214" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA214" s="884"/>
       <c r="AB214" s="885" t="s">
-        <v>2179</v>
+        <v>2178</v>
       </c>
       <c r="AC214" s="851">
         <v>2</v>
       </c>
       <c r="AD214" s="943" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="AE214" s="982">
         <v>4</v>
@@ -46997,20 +46997,20 @@
         <v>50</v>
       </c>
       <c r="Y215" s="884" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="Z215" s="884" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA215" s="884"/>
       <c r="AB215" s="884" t="s">
-        <v>2180</v>
+        <v>2179</v>
       </c>
       <c r="AC215" s="851">
         <v>0</v>
       </c>
       <c r="AD215" s="943" t="s">
-        <v>2182</v>
+        <v>2181</v>
       </c>
       <c r="AE215" s="982">
         <v>4</v>
@@ -47994,7 +47994,7 @@
         <v>207</v>
       </c>
       <c r="E234" s="437" t="s">
-        <v>2081</v>
+        <v>2080</v>
       </c>
       <c r="F234" s="512" t="s">
         <v>1617</v>
@@ -48040,7 +48040,7 @@
         <v>212</v>
       </c>
       <c r="E235" s="502" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F235" s="512" t="s">
         <v>1616</v>
@@ -48090,7 +48090,7 @@
         <v>213</v>
       </c>
       <c r="E236" s="432" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F236" s="512" t="s">
         <v>1463</v>
@@ -48142,7 +48142,7 @@
         <v>214</v>
       </c>
       <c r="E237" s="432" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F237" s="512" t="s">
         <v>1462</v>
@@ -48194,7 +48194,7 @@
         <v>215</v>
       </c>
       <c r="E238" s="437" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F238" s="512" t="s">
         <v>1615</v>
@@ -48246,7 +48246,7 @@
         <v>1614</v>
       </c>
       <c r="E239" s="437" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="F239" s="439" t="s">
         <v>1613</v>
@@ -48298,7 +48298,7 @@
         <v>178</v>
       </c>
       <c r="E240" s="437" t="s">
-        <v>2115</v>
+        <v>2114</v>
       </c>
       <c r="F240" s="512" t="s">
         <v>1612</v>
@@ -48442,7 +48442,7 @@
         <v>179</v>
       </c>
       <c r="E243" s="523" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F243" s="439"/>
       <c r="G243" s="595" t="s">
@@ -48490,7 +48490,7 @@
         <v>973</v>
       </c>
       <c r="E244" s="447" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F244" s="447" t="s">
         <v>1587</v>
@@ -48598,10 +48598,10 @@
         <v>1974</v>
       </c>
       <c r="E246" s="447" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F246" s="447" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="G246" s="600" t="s">
         <v>219</v>
@@ -48682,7 +48682,7 @@
         <v>225</v>
       </c>
       <c r="E248" s="502" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F248" s="436" t="s">
         <v>1606</v>
@@ -48732,7 +48732,7 @@
         <v>151</v>
       </c>
       <c r="E249" s="521" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F249" s="434" t="s">
         <v>1605</v>
@@ -48774,7 +48774,7 @@
         <v>226</v>
       </c>
       <c r="E250" s="437" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F250" s="436" t="s">
         <v>1604</v>
@@ -48824,7 +48824,7 @@
         <v>215</v>
       </c>
       <c r="E251" s="437" t="s">
-        <v>2085</v>
+        <v>2084</v>
       </c>
       <c r="F251" s="436" t="s">
         <v>1603</v>
@@ -48878,7 +48878,7 @@
         <v>179</v>
       </c>
       <c r="E252" s="437" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F252" s="434" t="s">
         <v>1601</v>
@@ -48978,7 +48978,7 @@
         <v>227</v>
       </c>
       <c r="E254" s="437" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F254" s="436" t="s">
         <v>1599</v>
@@ -49028,7 +49028,7 @@
         <v>228</v>
       </c>
       <c r="E255" s="437" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F255" s="436" t="s">
         <v>1598</v>
@@ -49125,10 +49125,10 @@
         <v>1595</v>
       </c>
       <c r="D257" s="434" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="E257" s="447" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="F257" s="447" t="s">
         <v>1592</v>
@@ -49232,7 +49232,7 @@
         <v>1589</v>
       </c>
       <c r="E259" s="447" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="F259" s="447" t="s">
         <v>1587</v>
@@ -49333,10 +49333,10 @@
         <v>168</v>
       </c>
       <c r="D261" s="434" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="E261" s="447" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="F261" s="447" t="s">
         <v>1583</v>
@@ -49385,10 +49385,10 @@
         <v>1582</v>
       </c>
       <c r="D262" s="434" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E262" s="447" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="F262" s="447" t="s">
         <v>1579</v>
@@ -49437,10 +49437,10 @@
         <v>1578</v>
       </c>
       <c r="D263" s="434" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="E263" s="447" t="s">
-        <v>2128</v>
+        <v>2127</v>
       </c>
       <c r="F263" s="447" t="s">
         <v>1575</v>
@@ -49487,10 +49487,10 @@
         <v>1574</v>
       </c>
       <c r="D264" s="434" t="s">
-        <v>2120</v>
+        <v>2119</v>
       </c>
       <c r="E264" s="444" t="s">
-        <v>2129</v>
+        <v>2128</v>
       </c>
       <c r="F264" s="444" t="s">
         <v>1571</v>
@@ -49540,7 +49540,7 @@
         <v>911</v>
       </c>
       <c r="E265" s="447" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="F265" s="447" t="s">
         <v>1567</v>
@@ -49587,10 +49587,10 @@
         <v>1566</v>
       </c>
       <c r="D266" s="434" t="s">
-        <v>2121</v>
+        <v>2120</v>
       </c>
       <c r="E266" s="447" t="s">
-        <v>2131</v>
+        <v>2130</v>
       </c>
       <c r="F266" s="447" t="s">
         <v>1563</v>
@@ -49637,10 +49637,10 @@
         <v>1562</v>
       </c>
       <c r="D267" s="434" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="E267" s="447" t="s">
-        <v>2132</v>
+        <v>2131</v>
       </c>
       <c r="F267" s="447" t="s">
         <v>1559</v>
@@ -49687,10 +49687,10 @@
         <v>296</v>
       </c>
       <c r="D268" s="434" t="s">
-        <v>2123</v>
+        <v>2122</v>
       </c>
       <c r="E268" s="444" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="F268" s="444" t="s">
         <v>1556</v>
@@ -49740,7 +49740,7 @@
         <v>1555</v>
       </c>
       <c r="E269" s="437" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F269" s="684" t="s">
         <v>1554</v>
@@ -49790,7 +49790,7 @@
         <v>1553</v>
       </c>
       <c r="E270" s="437" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="F270" s="684" t="s">
         <v>1552</v>
@@ -49842,7 +49842,7 @@
         <v>1551</v>
       </c>
       <c r="E271" s="502" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F271" s="684" t="s">
         <v>1550</v>
@@ -49892,7 +49892,7 @@
         <v>180</v>
       </c>
       <c r="E272" s="502" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F272" s="684"/>
       <c r="G272" s="595" t="s">
@@ -49940,7 +49940,7 @@
         <v>1976</v>
       </c>
       <c r="E273" s="502" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F273" s="684"/>
       <c r="G273" s="595" t="s">
@@ -50450,7 +50450,7 @@
         <v>1528</v>
       </c>
       <c r="D284" s="687" t="s">
-        <v>2078</v>
+        <v>2077</v>
       </c>
       <c r="E284" s="509" t="s">
         <v>1527</v>
@@ -50491,10 +50491,10 @@
       </c>
       <c r="X284" s="1010"/>
       <c r="Y284" s="984" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z284" s="980" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AA284" s="1009" t="s">
         <v>18</v>
@@ -50521,7 +50521,7 @@
         <v>999</v>
       </c>
       <c r="D285" s="687" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="E285" s="509" t="s">
         <v>1526</v>
@@ -50562,10 +50562,10 @@
       </c>
       <c r="X285" s="1010"/>
       <c r="Y285" s="984" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z285" s="980" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AA285" s="1009" t="s">
         <v>18</v>
@@ -50633,10 +50633,10 @@
       </c>
       <c r="X286" s="1010"/>
       <c r="Y286" s="984" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z286" s="980" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="AA286" s="1009" t="s">
         <v>18</v>
@@ -50702,7 +50702,7 @@
       <c r="W287" s="977"/>
       <c r="X287" s="990"/>
       <c r="Y287" s="984" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z287" s="978"/>
       <c r="AA287" s="979"/>
@@ -50811,7 +50811,7 @@
         <v>276</v>
       </c>
       <c r="C290" s="504" t="s">
-        <v>2080</v>
+        <v>2079</v>
       </c>
       <c r="D290" s="503" t="s">
         <v>1516</v>
@@ -53401,10 +53401,10 @@
       </c>
       <c r="X333" s="1014"/>
       <c r="Y333" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z333" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA333" s="894">
         <v>0.05</v>
@@ -53494,10 +53494,10 @@
       </c>
       <c r="X334" s="1014"/>
       <c r="Y334" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z334" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA334" s="894"/>
       <c r="AB334" s="895">
@@ -53836,7 +53836,7 @@
       </c>
       <c r="X338" s="1003"/>
       <c r="Y338" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z338" s="894">
         <v>1</v>
@@ -53929,10 +53929,10 @@
       </c>
       <c r="X339" s="1003"/>
       <c r="Y339" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z339" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA339" s="897"/>
       <c r="AB339" s="892">
@@ -54022,10 +54022,10 @@
       </c>
       <c r="X340" s="1003"/>
       <c r="Y340" s="894" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="Z340" s="894" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AA340" s="897">
         <v>0.1</v>
@@ -54488,7 +54488,7 @@
       </c>
       <c r="X348" s="1003"/>
       <c r="Y348" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z348" s="894">
         <v>1</v>
@@ -54553,10 +54553,10 @@
       </c>
       <c r="X349" s="1003"/>
       <c r="Y349" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z349" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA349" s="897"/>
       <c r="AB349" s="892">
@@ -54618,10 +54618,10 @@
       </c>
       <c r="X350" s="1003"/>
       <c r="Y350" s="894" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="Z350" s="894" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AA350" s="897">
         <v>0.1</v>
@@ -55469,10 +55469,10 @@
       </c>
       <c r="X363" s="1014"/>
       <c r="Y363" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z363" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA363" s="894"/>
       <c r="AB363" s="895">
@@ -55534,10 +55534,10 @@
       </c>
       <c r="X364" s="1014"/>
       <c r="Y364" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z364" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA364" s="894">
         <v>0.05</v>
@@ -55599,14 +55599,14 @@
       </c>
       <c r="X365" s="1014"/>
       <c r="Y365" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z365" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA365" s="573"/>
       <c r="AB365" s="895" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AC365" s="1013"/>
       <c r="AD365" s="1012"/>
@@ -55664,14 +55664,14 @@
       </c>
       <c r="X366" s="1014"/>
       <c r="Y366" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z366" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA366" s="573"/>
       <c r="AB366" s="895" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AC366" s="1013"/>
       <c r="AD366" s="1012"/>
@@ -55727,7 +55727,7 @@
       </c>
       <c r="X367" s="1014"/>
       <c r="Y367" s="894" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="Z367" s="904">
         <v>1</v>
@@ -56509,7 +56509,7 @@
       </c>
       <c r="P381" s="724"/>
       <c r="Q381" s="756" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="R381" s="784"/>
       <c r="S381" s="773"/>
@@ -56692,10 +56692,10 @@
       </c>
       <c r="X384" s="1014"/>
       <c r="Y384" s="899" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="Z384" s="899" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="AA384" s="784"/>
       <c r="AB384" s="895">
@@ -57101,10 +57101,10 @@
       </c>
       <c r="X391" s="1014"/>
       <c r="Y391" s="899" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="Z391" s="899" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AA391" s="904">
         <v>1</v>
@@ -57223,14 +57223,14 @@
       </c>
       <c r="X393" s="1014"/>
       <c r="Y393" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z393" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA393" s="573"/>
       <c r="AB393" s="895" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AC393" s="1013"/>
       <c r="AD393" s="1012"/>
@@ -57288,14 +57288,14 @@
       </c>
       <c r="X394" s="1014"/>
       <c r="Y394" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z394" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA394" s="573"/>
       <c r="AB394" s="895" t="s">
-        <v>2183</v>
+        <v>2182</v>
       </c>
       <c r="AC394" s="1013"/>
       <c r="AD394" s="1012"/>
@@ -57616,7 +57616,7 @@
       </c>
       <c r="X400" s="1003"/>
       <c r="Y400" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z400" s="894">
         <v>1</v>
@@ -57681,10 +57681,10 @@
       </c>
       <c r="X401" s="1003"/>
       <c r="Y401" s="894" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="Z401" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA401" s="897"/>
       <c r="AB401" s="892">
@@ -57746,10 +57746,10 @@
       </c>
       <c r="X402" s="1003"/>
       <c r="Y402" s="894" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="Z402" s="894" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="AA402" s="897">
         <v>0.1</v>
@@ -59164,10 +59164,10 @@
       </c>
       <c r="X422" s="1014"/>
       <c r="Y422" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z422" s="894" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="AA422" s="894"/>
       <c r="AB422" s="895">
@@ -59229,10 +59229,10 @@
       </c>
       <c r="X423" s="1014"/>
       <c r="Y423" s="894" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="Z423" s="894" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="AA423" s="894">
         <v>0.05</v>

--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9115" uniqueCount="2237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9116" uniqueCount="2239">
   <si>
     <t>ID</t>
   </si>
@@ -10779,6 +10779,12 @@
       </rPr>
       <t>eis,dsn</t>
     </r>
+  </si>
+  <si>
+    <t>Betrouwbaarheidsindex (dwarsdoorsnede niveau)</t>
+  </si>
+  <si>
+    <t>~0.12</t>
   </si>
 </sst>
 </file>
@@ -34690,10 +34696,10 @@
   <dimension ref="A1:BG553"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W80" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C123" sqref="C123"/>
+      <selection pane="bottomRight" activeCell="AB94" sqref="AB94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -40068,8 +40074,8 @@
       <c r="AA94" s="879" t="s">
         <v>18</v>
       </c>
-      <c r="AB94" s="879" t="s">
-        <v>18</v>
+      <c r="AB94" s="1009" t="s">
+        <v>2238</v>
       </c>
       <c r="AC94" s="879" t="s">
         <v>18</v>
@@ -41609,7 +41615,9 @@
       <c r="E123" s="447" t="s">
         <v>2067</v>
       </c>
-      <c r="F123" s="447"/>
+      <c r="F123" s="684" t="s">
+        <v>2237</v>
+      </c>
       <c r="G123" s="501" t="s">
         <v>2068</v>
       </c>

--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9103" uniqueCount="2223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9149" uniqueCount="2226">
   <si>
     <t>ID</t>
   </si>
@@ -10560,9 +10560,6 @@
     <t>Quantile van de karakteristieke waarde (%)</t>
   </si>
   <si>
-    <t>0.3?</t>
-  </si>
-  <si>
     <t>3/4</t>
   </si>
   <si>
@@ -10738,6 +10735,75 @@
   <si>
     <t>Layer boundary model of the subsoil</t>
   </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>c,h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>=0.3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>=1</t>
+    </r>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
 </sst>
 </file>
 
@@ -10746,12 +10812,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="81">
+  <fonts count="83">
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11278,6 +11351,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
     </font>
@@ -11812,32 +11891,32 @@
   </borders>
   <cellStyleXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1039">
+  <cellXfs count="1037">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -11852,1174 +11931,1174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13029,366 +13108,366 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="62" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="48" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13397,38 +13476,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13437,7 +13516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13446,272 +13525,1013 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13719,929 +14539,182 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="42" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="21">
@@ -34703,10 +34776,10 @@
   <dimension ref="A1:BG554"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W395" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AD52" sqref="AD52"/>
+      <selection pane="bottomRight" activeCell="AC423" sqref="AC423:AD424"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -34734,7 +34807,7 @@
     <col min="21" max="21" width="17.5" style="766" customWidth="1"/>
     <col min="22" max="22" width="23.875" style="607" customWidth="1"/>
     <col min="23" max="23" width="12.875" customWidth="1"/>
-    <col min="24" max="24" width="15.125" style="996" customWidth="1"/>
+    <col min="24" max="24" width="15.125" style="995" customWidth="1"/>
     <col min="25" max="25" width="10" customWidth="1"/>
     <col min="26" max="26" width="11.875" customWidth="1"/>
     <col min="27" max="27" width="7.75" customWidth="1"/>
@@ -34899,7 +34972,7 @@
         <v>152</v>
       </c>
       <c r="E3" s="693" t="s">
-        <v>2222</v>
+        <v>2221</v>
       </c>
       <c r="F3" s="436" t="s">
         <v>152</v>
@@ -34981,16 +35054,16 @@
       <c r="T4" s="8"/>
       <c r="U4" s="758"/>
       <c r="V4" s="712"/>
-      <c r="W4" s="1022"/>
-      <c r="X4" s="1030"/>
-      <c r="Y4" s="1026"/>
-      <c r="Z4" s="1026"/>
-      <c r="AA4" s="1028"/>
-      <c r="AB4" s="1027"/>
-      <c r="AC4" s="1034"/>
-      <c r="AD4" s="1035"/>
-      <c r="AE4" s="1036"/>
-      <c r="AF4" s="1037"/>
+      <c r="W4" s="1012"/>
+      <c r="X4" s="1020"/>
+      <c r="Y4" s="1016"/>
+      <c r="Z4" s="1016"/>
+      <c r="AA4" s="1018"/>
+      <c r="AB4" s="1017"/>
+      <c r="AC4" s="1024"/>
+      <c r="AD4" s="1025"/>
+      <c r="AE4" s="1026"/>
+      <c r="AF4" s="1027"/>
     </row>
     <row r="5" spans="1:34" ht="15.75" outlineLevel="1">
       <c r="A5" s="454" t="s">
@@ -35041,16 +35114,16 @@
       <c r="T5" s="8"/>
       <c r="U5" s="758"/>
       <c r="V5" s="712"/>
-      <c r="W5" s="1022"/>
-      <c r="X5" s="1030"/>
-      <c r="Y5" s="1026"/>
-      <c r="Z5" s="1026"/>
-      <c r="AA5" s="1028"/>
-      <c r="AB5" s="1027"/>
-      <c r="AC5" s="1034"/>
-      <c r="AD5" s="1035"/>
-      <c r="AE5" s="1036"/>
-      <c r="AF5" s="1037"/>
+      <c r="W5" s="1012"/>
+      <c r="X5" s="1020"/>
+      <c r="Y5" s="1016"/>
+      <c r="Z5" s="1016"/>
+      <c r="AA5" s="1018"/>
+      <c r="AB5" s="1017"/>
+      <c r="AC5" s="1024"/>
+      <c r="AD5" s="1025"/>
+      <c r="AE5" s="1026"/>
+      <c r="AF5" s="1027"/>
     </row>
     <row r="6" spans="1:34" ht="13.5" outlineLevel="1">
       <c r="A6" s="454" t="s">
@@ -35353,15 +35426,15 @@
       <c r="T10" s="8"/>
       <c r="U10" s="758"/>
       <c r="V10" s="712"/>
-      <c r="W10" s="1022"/>
-      <c r="X10" s="1030"/>
-      <c r="Y10" s="1026"/>
-      <c r="Z10" s="1026"/>
-      <c r="AA10" s="1026"/>
-      <c r="AB10" s="1025"/>
-      <c r="AC10" s="1034"/>
-      <c r="AD10" s="1035"/>
-      <c r="AE10" s="1036"/>
+      <c r="W10" s="1012"/>
+      <c r="X10" s="1020"/>
+      <c r="Y10" s="1016"/>
+      <c r="Z10" s="1016"/>
+      <c r="AA10" s="1016"/>
+      <c r="AB10" s="1015"/>
+      <c r="AC10" s="1024"/>
+      <c r="AD10" s="1025"/>
+      <c r="AE10" s="1026"/>
     </row>
     <row r="11" spans="1:34" outlineLevel="1">
       <c r="A11" s="454" t="s">
@@ -35524,12 +35597,12 @@
       </c>
       <c r="AA13" s="843"/>
       <c r="AB13" s="840" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="AC13" s="849">
         <v>0</v>
       </c>
-      <c r="AD13" s="1029" t="s">
+      <c r="AD13" s="1019" t="s">
         <v>2129</v>
       </c>
       <c r="AE13" s="973">
@@ -36150,7 +36223,7 @@
       <c r="O24" s="776">
         <v>2</v>
       </c>
-      <c r="P24" s="1020" t="s">
+      <c r="P24" s="1010" t="s">
         <v>263</v>
       </c>
       <c r="Q24" s="702"/>
@@ -36205,7 +36278,7 @@
       <c r="O25" s="776">
         <v>2</v>
       </c>
-      <c r="P25" s="1020" t="s">
+      <c r="P25" s="1010" t="s">
         <v>263</v>
       </c>
       <c r="Q25" s="702"/>
@@ -36271,15 +36344,15 @@
       <c r="T26" s="702"/>
       <c r="U26" s="781"/>
       <c r="V26" s="781"/>
-      <c r="W26" s="1022"/>
-      <c r="X26" s="1030"/>
-      <c r="Y26" s="1026"/>
-      <c r="Z26" s="1026"/>
-      <c r="AA26" s="1026"/>
-      <c r="AB26" s="1027"/>
-      <c r="AC26" s="1026"/>
-      <c r="AD26" s="1033"/>
-      <c r="AE26" s="1026"/>
+      <c r="W26" s="1012"/>
+      <c r="X26" s="1020"/>
+      <c r="Y26" s="1016"/>
+      <c r="Z26" s="1016"/>
+      <c r="AA26" s="1016"/>
+      <c r="AB26" s="1017"/>
+      <c r="AC26" s="1016"/>
+      <c r="AD26" s="1023"/>
+      <c r="AE26" s="1016"/>
     </row>
     <row r="27" spans="1:31" s="570" customFormat="1" outlineLevel="1">
       <c r="A27" s="454" t="s">
@@ -36328,15 +36401,15 @@
       <c r="T27" s="702"/>
       <c r="U27" s="781"/>
       <c r="V27" s="781"/>
-      <c r="W27" s="1022"/>
-      <c r="X27" s="1031"/>
-      <c r="Y27" s="1021"/>
-      <c r="Z27" s="1021"/>
-      <c r="AA27" s="1021"/>
-      <c r="AB27" s="1024"/>
-      <c r="AC27" s="1038"/>
-      <c r="AD27" s="1033"/>
-      <c r="AE27" s="1026"/>
+      <c r="W27" s="1012"/>
+      <c r="X27" s="1021"/>
+      <c r="Y27" s="1011"/>
+      <c r="Z27" s="1011"/>
+      <c r="AA27" s="1011"/>
+      <c r="AB27" s="1014"/>
+      <c r="AC27" s="1028"/>
+      <c r="AD27" s="1023"/>
+      <c r="AE27" s="1016"/>
     </row>
     <row r="28" spans="1:31" s="570" customFormat="1" outlineLevel="1">
       <c r="A28" s="454" t="s">
@@ -36385,15 +36458,15 @@
       <c r="T28" s="702"/>
       <c r="U28" s="781"/>
       <c r="V28" s="781"/>
-      <c r="W28" s="1022"/>
-      <c r="X28" s="1031"/>
-      <c r="Y28" s="1021"/>
-      <c r="Z28" s="1021"/>
-      <c r="AA28" s="1021"/>
-      <c r="AB28" s="1024"/>
-      <c r="AC28" s="1038"/>
-      <c r="AD28" s="1033"/>
-      <c r="AE28" s="1026"/>
+      <c r="W28" s="1012"/>
+      <c r="X28" s="1021"/>
+      <c r="Y28" s="1011"/>
+      <c r="Z28" s="1011"/>
+      <c r="AA28" s="1011"/>
+      <c r="AB28" s="1014"/>
+      <c r="AC28" s="1028"/>
+      <c r="AD28" s="1023"/>
+      <c r="AE28" s="1016"/>
     </row>
     <row r="29" spans="1:31" s="570" customFormat="1" outlineLevel="1">
       <c r="A29" s="454" t="s">
@@ -36442,15 +36515,15 @@
       <c r="T29" s="702"/>
       <c r="U29" s="781"/>
       <c r="V29" s="781"/>
-      <c r="W29" s="1022"/>
-      <c r="X29" s="1031"/>
-      <c r="Y29" s="1021"/>
-      <c r="Z29" s="1021"/>
-      <c r="AA29" s="1021"/>
-      <c r="AB29" s="1024"/>
-      <c r="AC29" s="1038"/>
-      <c r="AD29" s="1033"/>
-      <c r="AE29" s="1026"/>
+      <c r="W29" s="1012"/>
+      <c r="X29" s="1021"/>
+      <c r="Y29" s="1011"/>
+      <c r="Z29" s="1011"/>
+      <c r="AA29" s="1011"/>
+      <c r="AB29" s="1014"/>
+      <c r="AC29" s="1028"/>
+      <c r="AD29" s="1023"/>
+      <c r="AE29" s="1016"/>
     </row>
     <row r="30" spans="1:31" s="570" customFormat="1" outlineLevel="1">
       <c r="A30" s="454" t="s">
@@ -36552,15 +36625,15 @@
       <c r="T31" s="702"/>
       <c r="U31" s="781"/>
       <c r="V31" s="781"/>
-      <c r="W31" s="1022"/>
-      <c r="X31" s="1030"/>
-      <c r="Y31" s="1021"/>
-      <c r="Z31" s="1021"/>
-      <c r="AA31" s="1021"/>
-      <c r="AB31" s="1024"/>
-      <c r="AC31" s="1038"/>
-      <c r="AD31" s="1025"/>
-      <c r="AE31" s="1026"/>
+      <c r="W31" s="1012"/>
+      <c r="X31" s="1020"/>
+      <c r="Y31" s="1011"/>
+      <c r="Z31" s="1011"/>
+      <c r="AA31" s="1011"/>
+      <c r="AB31" s="1014"/>
+      <c r="AC31" s="1028"/>
+      <c r="AD31" s="1015"/>
+      <c r="AE31" s="1016"/>
     </row>
     <row r="32" spans="1:31" s="570" customFormat="1" outlineLevel="1">
       <c r="A32" s="454" t="s">
@@ -36605,15 +36678,15 @@
       <c r="T32" s="702"/>
       <c r="U32" s="781"/>
       <c r="V32" s="781"/>
-      <c r="W32" s="1023"/>
-      <c r="X32" s="1031"/>
-      <c r="Y32" s="1021"/>
-      <c r="Z32" s="1021"/>
-      <c r="AA32" s="1021"/>
-      <c r="AB32" s="1024"/>
-      <c r="AC32" s="1032"/>
-      <c r="AD32" s="1033"/>
-      <c r="AE32" s="1026"/>
+      <c r="W32" s="1013"/>
+      <c r="X32" s="1021"/>
+      <c r="Y32" s="1011"/>
+      <c r="Z32" s="1011"/>
+      <c r="AA32" s="1011"/>
+      <c r="AB32" s="1014"/>
+      <c r="AC32" s="1022"/>
+      <c r="AD32" s="1023"/>
+      <c r="AE32" s="1016"/>
     </row>
     <row r="33" spans="1:31" s="570" customFormat="1" ht="13.5" outlineLevel="1" thickBot="1">
       <c r="A33" s="454" t="s">
@@ -36624,24 +36697,24 @@
       </c>
       <c r="C33" s="573"/>
       <c r="D33" s="582" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E33" s="697" t="s">
         <v>1798</v>
       </c>
-      <c r="F33" s="1016" t="s">
+      <c r="F33" s="1006" t="s">
         <v>1797</v>
       </c>
-      <c r="G33" s="1018" t="s">
+      <c r="G33" s="1008" t="s">
         <v>1180</v>
       </c>
-      <c r="H33" s="1015" t="s">
+      <c r="H33" s="1005" t="s">
         <v>1960</v>
       </c>
-      <c r="I33" s="1017" t="s">
-        <v>18</v>
-      </c>
-      <c r="J33" s="1018" t="s">
+      <c r="I33" s="1007" t="s">
+        <v>18</v>
+      </c>
+      <c r="J33" s="1008" t="s">
         <v>16</v>
       </c>
       <c r="K33" s="571"/>
@@ -36660,14 +36733,14 @@
       <c r="T33" s="702"/>
       <c r="U33" s="781"/>
       <c r="V33" s="781"/>
-      <c r="W33" s="1023"/>
-      <c r="X33" s="1031"/>
-      <c r="Y33" s="1021"/>
-      <c r="Z33" s="1021"/>
-      <c r="AA33" s="1021"/>
-      <c r="AB33" s="1024"/>
-      <c r="AC33" s="1032"/>
-      <c r="AD33" s="1033"/>
+      <c r="W33" s="1013"/>
+      <c r="X33" s="1021"/>
+      <c r="Y33" s="1011"/>
+      <c r="Z33" s="1011"/>
+      <c r="AA33" s="1011"/>
+      <c r="AB33" s="1014"/>
+      <c r="AC33" s="1022"/>
+      <c r="AD33" s="1023"/>
       <c r="AE33" s="781"/>
     </row>
     <row r="34" spans="1:31">
@@ -36759,8 +36832,8 @@
       <c r="D36" s="437" t="s">
         <v>152</v>
       </c>
-      <c r="E36" s="1019" t="s">
-        <v>2222</v>
+      <c r="E36" s="1009" t="s">
+        <v>2221</v>
       </c>
       <c r="F36" s="436" t="s">
         <v>152</v>
@@ -36839,15 +36912,15 @@
       <c r="T37" s="453"/>
       <c r="U37" s="712"/>
       <c r="V37" s="712"/>
-      <c r="W37" s="1022"/>
-      <c r="X37" s="1030"/>
-      <c r="Y37" s="1026"/>
-      <c r="Z37" s="1026"/>
-      <c r="AA37" s="1028"/>
-      <c r="AB37" s="1027"/>
-      <c r="AC37" s="1034"/>
-      <c r="AD37" s="1035"/>
-      <c r="AE37" s="1036"/>
+      <c r="W37" s="1012"/>
+      <c r="X37" s="1020"/>
+      <c r="Y37" s="1016"/>
+      <c r="Z37" s="1016"/>
+      <c r="AA37" s="1018"/>
+      <c r="AB37" s="1017"/>
+      <c r="AC37" s="1024"/>
+      <c r="AD37" s="1025"/>
+      <c r="AE37" s="1026"/>
     </row>
     <row r="38" spans="1:31" ht="15.75" outlineLevel="1">
       <c r="A38" s="900" t="s">
@@ -36896,15 +36969,15 @@
       <c r="T38" s="453"/>
       <c r="U38" s="712"/>
       <c r="V38" s="712"/>
-      <c r="W38" s="1022"/>
-      <c r="X38" s="1030"/>
-      <c r="Y38" s="1026"/>
-      <c r="Z38" s="1026"/>
-      <c r="AA38" s="1028"/>
-      <c r="AB38" s="1027"/>
-      <c r="AC38" s="1034"/>
-      <c r="AD38" s="1035"/>
-      <c r="AE38" s="1036"/>
+      <c r="W38" s="1012"/>
+      <c r="X38" s="1020"/>
+      <c r="Y38" s="1016"/>
+      <c r="Z38" s="1016"/>
+      <c r="AA38" s="1018"/>
+      <c r="AB38" s="1017"/>
+      <c r="AC38" s="1024"/>
+      <c r="AD38" s="1025"/>
+      <c r="AE38" s="1026"/>
     </row>
     <row r="39" spans="1:31" ht="13.5" outlineLevel="1">
       <c r="A39" s="900" t="s">
@@ -37315,12 +37388,12 @@
       </c>
       <c r="AA45" s="843"/>
       <c r="AB45" s="840" t="s">
-        <v>2221</v>
+        <v>2220</v>
       </c>
       <c r="AC45" s="849">
         <v>0</v>
       </c>
-      <c r="AD45" s="1029" t="s">
+      <c r="AD45" s="1019" t="s">
         <v>2129</v>
       </c>
       <c r="AE45" s="973">
@@ -38045,7 +38118,7 @@
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="447" t="s">
-        <v>2217</v>
+        <v>2216</v>
       </c>
       <c r="E59" s="447" t="s">
         <v>1798</v>
@@ -38097,7 +38170,7 @@
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="447" t="s">
-        <v>2218</v>
+        <v>2217</v>
       </c>
       <c r="E60" s="447" t="s">
         <v>1796</v>
@@ -38149,7 +38222,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="447" t="s">
-        <v>2219</v>
+        <v>2218</v>
       </c>
       <c r="E61" s="447" t="s">
         <v>1794</v>
@@ -38201,7 +38274,7 @@
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="447" t="s">
-        <v>2220</v>
+        <v>2219</v>
       </c>
       <c r="E62" s="447" t="s">
         <v>1792</v>
@@ -40038,8 +40111,8 @@
       <c r="AA95" s="872" t="s">
         <v>18</v>
       </c>
-      <c r="AB95" s="999" t="s">
-        <v>2216</v>
+      <c r="AB95" s="998" t="s">
+        <v>2215</v>
       </c>
       <c r="AC95" s="872" t="s">
         <v>18</v>
@@ -41221,8 +41294,8 @@
       <c r="W117" s="605" t="s">
         <v>257</v>
       </c>
-      <c r="X117" s="990" t="s">
-        <v>2197</v>
+      <c r="X117" s="983" t="s">
+        <v>2222</v>
       </c>
       <c r="Y117" s="867" t="s">
         <v>2136</v>
@@ -41425,7 +41498,9 @@
       <c r="W121" s="760" t="s">
         <v>257</v>
       </c>
-      <c r="X121" s="990"/>
+      <c r="X121" s="983" t="s">
+        <v>2223</v>
+      </c>
       <c r="Y121" s="611" t="s">
         <v>2136</v>
       </c>
@@ -41436,10 +41511,10 @@
         <v>0.1</v>
       </c>
       <c r="AB121" s="810"/>
-      <c r="AC121" s="1005" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD121" s="1005" t="s">
+      <c r="AC121" s="1002" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD121" s="1002" t="s">
         <v>18</v>
       </c>
       <c r="AE121" s="713">
@@ -41492,7 +41567,9 @@
       <c r="W122" s="760" t="s">
         <v>257</v>
       </c>
-      <c r="X122" s="990"/>
+      <c r="X122" s="983" t="s">
+        <v>2224</v>
+      </c>
       <c r="Y122" s="611" t="s">
         <v>2136</v>
       </c>
@@ -41503,10 +41580,10 @@
         <v>0.12</v>
       </c>
       <c r="AB122" s="810"/>
-      <c r="AC122" s="1005" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD122" s="1005" t="s">
+      <c r="AC122" s="1002" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD122" s="1002" t="s">
         <v>18</v>
       </c>
       <c r="AE122" s="713">
@@ -41571,7 +41648,7 @@
         <v>340</v>
       </c>
       <c r="C124" s="681" t="s">
-        <v>2214</v>
+        <v>2213</v>
       </c>
       <c r="D124" s="684" t="s">
         <v>2046</v>
@@ -41580,7 +41657,7 @@
         <v>2047</v>
       </c>
       <c r="F124" s="684" t="s">
-        <v>2215</v>
+        <v>2214</v>
       </c>
       <c r="G124" s="501" t="s">
         <v>2048</v>
@@ -41743,13 +41820,13 @@
       <c r="Y127" s="611" t="s">
         <v>2132</v>
       </c>
-      <c r="Z127" s="1008" t="s">
+      <c r="Z127" s="1029" t="s">
         <v>2144</v>
       </c>
-      <c r="AA127" s="1009"/>
-      <c r="AB127" s="1009"/>
-      <c r="AC127" s="1009"/>
-      <c r="AD127" s="1010"/>
+      <c r="AA127" s="1030"/>
+      <c r="AB127" s="1030"/>
+      <c r="AC127" s="1030"/>
+      <c r="AD127" s="1031"/>
       <c r="AE127" s="973">
         <v>3</v>
       </c>
@@ -41850,13 +41927,13 @@
       <c r="Y129" s="608" t="s">
         <v>2132</v>
       </c>
-      <c r="Z129" s="1008" t="s">
+      <c r="Z129" s="1029" t="s">
         <v>2144</v>
       </c>
-      <c r="AA129" s="1009"/>
-      <c r="AB129" s="1009"/>
-      <c r="AC129" s="1009"/>
-      <c r="AD129" s="1010"/>
+      <c r="AA129" s="1030"/>
+      <c r="AB129" s="1030"/>
+      <c r="AC129" s="1030"/>
+      <c r="AD129" s="1031"/>
       <c r="AE129" s="973">
         <v>4</v>
       </c>
@@ -42147,13 +42224,13 @@
         <v>2187</v>
       </c>
       <c r="AA135" s="884"/>
-      <c r="AB135" s="1006" t="s">
+      <c r="AB135" s="1003" t="s">
         <v>2134</v>
       </c>
-      <c r="AC135" s="1013" t="s">
+      <c r="AC135" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD135" s="1014"/>
+      <c r="AD135" s="1035"/>
       <c r="AE135" s="973">
         <v>4</v>
       </c>
@@ -42329,13 +42406,13 @@
         <v>1898</v>
       </c>
       <c r="D139" s="582" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="E139" s="582" t="s">
         <v>1859</v>
       </c>
       <c r="F139" s="608" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="G139" s="653" t="s">
         <v>1284</v>
@@ -42383,13 +42460,13 @@
         <v>1899</v>
       </c>
       <c r="D140" s="582" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="E140" s="582" t="s">
         <v>1860</v>
       </c>
       <c r="F140" s="608" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="G140" s="653" t="s">
         <v>1284</v>
@@ -42653,13 +42730,13 @@
         <v>1904</v>
       </c>
       <c r="D145" s="612" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="E145" s="582" t="s">
         <v>1863</v>
       </c>
       <c r="F145" s="609" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="G145" s="653" t="s">
         <v>1284</v>
@@ -42707,13 +42784,13 @@
         <v>1905</v>
       </c>
       <c r="D146" s="582" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="E146" s="582" t="s">
         <v>1864</v>
       </c>
       <c r="F146" s="611" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="G146" s="653" t="s">
         <v>1284</v>
@@ -42916,7 +42993,7 @@
         <v>280</v>
       </c>
       <c r="C150" s="551" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="D150" s="582" t="s">
         <v>1921</v>
@@ -42934,7 +43011,7 @@
         <v>1254</v>
       </c>
       <c r="I150" s="653" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="J150" s="657" t="s">
         <v>18</v>
@@ -42946,7 +43023,7 @@
       <c r="O150" s="761">
         <v>2</v>
       </c>
-      <c r="P150" s="1007" t="s">
+      <c r="P150" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q150" s="687"/>
@@ -42996,7 +43073,7 @@
       <c r="O151" s="760">
         <v>2</v>
       </c>
-      <c r="P151" s="1007" t="s">
+      <c r="P151" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q151" s="687"/>
@@ -43029,7 +43106,7 @@
         <v>1933</v>
       </c>
       <c r="F152" s="608" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="G152" s="544" t="s">
         <v>1034</v>
@@ -43050,7 +43127,7 @@
       <c r="O152" s="760">
         <v>1</v>
       </c>
-      <c r="P152" s="1007"/>
+      <c r="P152" s="1004"/>
       <c r="Q152" s="687"/>
       <c r="R152" s="763"/>
       <c r="S152" s="712"/>
@@ -43100,7 +43177,7 @@
       <c r="O153" s="761">
         <v>1</v>
       </c>
-      <c r="P153" s="1007" t="s">
+      <c r="P153" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q153" s="442"/>
@@ -43152,7 +43229,7 @@
       <c r="O154" s="760">
         <v>1</v>
       </c>
-      <c r="P154" s="1007" t="s">
+      <c r="P154" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q154" s="687"/>
@@ -43204,7 +43281,7 @@
       <c r="O155" s="760">
         <v>1</v>
       </c>
-      <c r="P155" s="1007" t="s">
+      <c r="P155" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q155" s="687"/>
@@ -43258,7 +43335,7 @@
       <c r="O156" s="760">
         <v>1</v>
       </c>
-      <c r="P156" s="1007" t="s">
+      <c r="P156" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q156" s="687"/>
@@ -43310,7 +43387,7 @@
       <c r="O157" s="760">
         <v>1</v>
       </c>
-      <c r="P157" s="1007" t="s">
+      <c r="P157" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q157" s="687"/>
@@ -43364,7 +43441,7 @@
       <c r="O158" s="760">
         <v>1</v>
       </c>
-      <c r="P158" s="1007" t="s">
+      <c r="P158" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q158" s="687"/>
@@ -43418,7 +43495,7 @@
       <c r="O159" s="760">
         <v>1</v>
       </c>
-      <c r="P159" s="1007" t="s">
+      <c r="P159" s="1004" t="s">
         <v>263</v>
       </c>
       <c r="Q159" s="687"/>
@@ -43472,7 +43549,7 @@
       <c r="O160" s="760" t="s">
         <v>1868</v>
       </c>
-      <c r="P160" s="1007" t="s">
+      <c r="P160" s="1004" t="s">
         <v>305</v>
       </c>
       <c r="Q160" s="763" t="s">
@@ -43837,12 +43914,12 @@
       <c r="AB166" s="817" t="s">
         <v>2168</v>
       </c>
-      <c r="AC166" s="1013" t="s">
+      <c r="AC166" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD166" s="1014"/>
-      <c r="AE166" s="998" t="s">
-        <v>2198</v>
+      <c r="AD166" s="1035"/>
+      <c r="AE166" s="997" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="167" spans="1:31" ht="14.25" outlineLevel="1">
@@ -43853,7 +43930,7 @@
         <v>339</v>
       </c>
       <c r="C167" s="544" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="D167" s="613" t="s">
         <v>1437</v>
@@ -43907,7 +43984,7 @@
         <v>340</v>
       </c>
       <c r="C168" s="544" t="s">
-        <v>2211</v>
+        <v>2210</v>
       </c>
       <c r="D168" s="613" t="s">
         <v>1438</v>
@@ -44016,12 +44093,12 @@
       <c r="AB169" s="817" t="s">
         <v>2170</v>
       </c>
-      <c r="AC169" s="1013" t="s">
+      <c r="AC169" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD169" s="1014"/>
-      <c r="AE169" s="998" t="s">
-        <v>2198</v>
+      <c r="AD169" s="1035"/>
+      <c r="AE169" s="997" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="170" spans="1:31" ht="15.75" outlineLevel="1">
@@ -44132,13 +44209,13 @@
         <v>2187</v>
       </c>
       <c r="AA171" s="884"/>
-      <c r="AB171" s="1006" t="s">
+      <c r="AB171" s="1003" t="s">
         <v>2134</v>
       </c>
-      <c r="AC171" s="1013" t="s">
+      <c r="AC171" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD171" s="1014"/>
+      <c r="AD171" s="1035"/>
       <c r="AE171" s="973">
         <v>4</v>
       </c>
@@ -44206,12 +44283,12 @@
       <c r="AB172" s="817" t="s">
         <v>2168</v>
       </c>
-      <c r="AC172" s="1013" t="s">
+      <c r="AC172" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD172" s="1014"/>
-      <c r="AE172" s="998" t="s">
-        <v>2198</v>
+      <c r="AD172" s="1035"/>
+      <c r="AE172" s="997" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="173" spans="1:31" ht="14.25" outlineLevel="1">
@@ -44222,7 +44299,7 @@
         <v>345</v>
       </c>
       <c r="C173" s="544" t="s">
-        <v>2212</v>
+        <v>2211</v>
       </c>
       <c r="D173" s="613" t="s">
         <v>2174</v>
@@ -44276,7 +44353,7 @@
         <v>346</v>
       </c>
       <c r="C174" s="544" t="s">
-        <v>2213</v>
+        <v>2212</v>
       </c>
       <c r="D174" s="613" t="s">
         <v>1443</v>
@@ -44385,12 +44462,12 @@
       <c r="AB175" s="817" t="s">
         <v>2170</v>
       </c>
-      <c r="AC175" s="1013" t="s">
+      <c r="AC175" s="1034" t="s">
         <v>2167</v>
       </c>
-      <c r="AD175" s="1014"/>
-      <c r="AE175" s="998" t="s">
-        <v>2198</v>
+      <c r="AD175" s="1035"/>
+      <c r="AE175" s="997" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="176" spans="1:31" ht="13.5" outlineLevel="1">
@@ -44518,12 +44595,12 @@
       <c r="AB177" s="840" t="s">
         <v>2166</v>
       </c>
-      <c r="AC177" s="1011" t="s">
+      <c r="AC177" s="1032" t="s">
         <v>2167</v>
       </c>
-      <c r="AD177" s="1012"/>
-      <c r="AE177" s="998" t="s">
-        <v>2198</v>
+      <c r="AD177" s="1033"/>
+      <c r="AE177" s="997" t="s">
+        <v>2197</v>
       </c>
     </row>
     <row r="178" spans="1:31" ht="15.75" outlineLevel="1">
@@ -50461,23 +50538,23 @@
       <c r="W285" s="974" t="s">
         <v>1883</v>
       </c>
-      <c r="X285" s="1000"/>
+      <c r="X285" s="999"/>
       <c r="Y285" s="975" t="s">
         <v>2136</v>
       </c>
       <c r="Z285" s="971" t="s">
         <v>2195</v>
       </c>
-      <c r="AA285" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB285" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC285" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD285" s="999" t="s">
+      <c r="AA285" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB285" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC285" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD285" s="998" t="s">
         <v>18</v>
       </c>
       <c r="AE285" s="978"/>
@@ -50532,23 +50609,23 @@
       <c r="W286" s="974" t="s">
         <v>1883</v>
       </c>
-      <c r="X286" s="1000"/>
+      <c r="X286" s="999"/>
       <c r="Y286" s="975" t="s">
         <v>2136</v>
       </c>
       <c r="Z286" s="971" t="s">
         <v>2195</v>
       </c>
-      <c r="AA286" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB286" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC286" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD286" s="999" t="s">
+      <c r="AA286" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB286" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC286" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD286" s="998" t="s">
         <v>18</v>
       </c>
       <c r="AE286" s="978"/>
@@ -50603,23 +50680,23 @@
       <c r="W287" s="974" t="s">
         <v>1883</v>
       </c>
-      <c r="X287" s="1000"/>
+      <c r="X287" s="999"/>
       <c r="Y287" s="975" t="s">
         <v>2136</v>
       </c>
       <c r="Z287" s="971" t="s">
         <v>2195</v>
       </c>
-      <c r="AA287" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB287" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC287" s="999" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD287" s="999" t="s">
+      <c r="AA287" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB287" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC287" s="998" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD287" s="998" t="s">
         <v>18</v>
       </c>
       <c r="AE287" s="978"/>
@@ -50998,7 +51075,7 @@
       <c r="U295" s="763"/>
       <c r="V295" s="713"/>
       <c r="W295" s="719"/>
-      <c r="X295" s="991"/>
+      <c r="X295" s="990"/>
       <c r="Y295" s="592"/>
       <c r="Z295" s="592"/>
       <c r="AA295" s="592"/>
@@ -51051,7 +51128,7 @@
       <c r="U296" s="763"/>
       <c r="V296" s="713"/>
       <c r="W296" s="719"/>
-      <c r="X296" s="991"/>
+      <c r="X296" s="990"/>
       <c r="Y296" s="592"/>
       <c r="Z296" s="592"/>
       <c r="AA296" s="592"/>
@@ -53289,9 +53366,9 @@
       <c r="Z333" s="887"/>
       <c r="AA333" s="887"/>
       <c r="AB333" s="885"/>
-      <c r="AC333" s="728"/>
-      <c r="AD333" s="962"/>
-      <c r="AE333" s="771"/>
+      <c r="AC333" s="893"/>
+      <c r="AD333" s="1036"/>
+      <c r="AE333" s="1020"/>
       <c r="AF333" s="429"/>
       <c r="AG333" s="429"/>
       <c r="AH333" s="429"/>
@@ -53371,7 +53448,7 @@
       <c r="W334" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X334" s="1004"/>
+      <c r="X334" s="1001"/>
       <c r="Y334" s="887" t="s">
         <v>2171</v>
       </c>
@@ -53382,9 +53459,13 @@
         <v>0.05</v>
       </c>
       <c r="AB334" s="885"/>
-      <c r="AC334" s="1001"/>
-      <c r="AD334" s="1002"/>
-      <c r="AE334" s="994"/>
+      <c r="AC334" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD334" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE334" s="1000"/>
       <c r="AF334" s="429"/>
       <c r="AG334" s="429"/>
       <c r="AH334" s="429"/>
@@ -53464,7 +53545,7 @@
       <c r="W335" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X335" s="1004"/>
+      <c r="X335" s="1001"/>
       <c r="Y335" s="887" t="s">
         <v>2171</v>
       </c>
@@ -53475,9 +53556,13 @@
       <c r="AB335" s="888">
         <v>0.15</v>
       </c>
-      <c r="AC335" s="1001"/>
-      <c r="AD335" s="1002"/>
-      <c r="AE335" s="994"/>
+      <c r="AC335" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD335" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE335" s="1000"/>
       <c r="AF335" s="429"/>
       <c r="AG335" s="429"/>
       <c r="AH335" s="429"/>
@@ -53555,14 +53640,14 @@
       <c r="U336" s="765"/>
       <c r="V336" s="771"/>
       <c r="W336" s="886"/>
-      <c r="X336" s="992"/>
+      <c r="X336" s="991"/>
       <c r="Y336" s="887"/>
       <c r="Z336" s="887"/>
       <c r="AA336" s="887"/>
       <c r="AB336" s="885"/>
-      <c r="AC336" s="728"/>
-      <c r="AD336" s="962"/>
-      <c r="AE336" s="771"/>
+      <c r="AC336" s="893"/>
+      <c r="AD336" s="1036"/>
+      <c r="AE336" s="1020"/>
       <c r="AF336" s="429"/>
       <c r="AG336" s="429"/>
       <c r="AH336" s="429"/>
@@ -53645,9 +53730,9 @@
       <c r="Z337" s="887"/>
       <c r="AA337" s="887"/>
       <c r="AB337" s="885"/>
-      <c r="AC337" s="728"/>
-      <c r="AD337" s="962"/>
-      <c r="AE337" s="771"/>
+      <c r="AC337" s="893"/>
+      <c r="AD337" s="1036"/>
+      <c r="AE337" s="1020"/>
       <c r="AF337" s="429"/>
       <c r="AG337" s="429"/>
       <c r="AH337" s="429"/>
@@ -53726,9 +53811,9 @@
       <c r="Z338" s="887"/>
       <c r="AA338" s="887"/>
       <c r="AB338" s="885"/>
-      <c r="AC338" s="728"/>
-      <c r="AD338" s="962"/>
-      <c r="AE338" s="771"/>
+      <c r="AC338" s="893"/>
+      <c r="AD338" s="1036"/>
+      <c r="AE338" s="1020"/>
       <c r="AF338" s="429"/>
       <c r="AG338" s="429"/>
       <c r="AH338" s="429"/>
@@ -53806,7 +53891,7 @@
       <c r="W339" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X339" s="994"/>
+      <c r="X339" s="993"/>
       <c r="Y339" s="887" t="s">
         <v>2136</v>
       </c>
@@ -53817,9 +53902,13 @@
         <v>0.2</v>
       </c>
       <c r="AB339" s="885"/>
-      <c r="AC339" s="1001"/>
-      <c r="AD339" s="1002"/>
-      <c r="AE339" s="994"/>
+      <c r="AC339" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD339" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE339" s="1000"/>
       <c r="AF339" s="429"/>
       <c r="AG339" s="429"/>
       <c r="AH339" s="429"/>
@@ -53899,7 +53988,7 @@
       <c r="W340" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X340" s="994"/>
+      <c r="X340" s="993"/>
       <c r="Y340" s="887" t="s">
         <v>2136</v>
       </c>
@@ -53910,9 +53999,13 @@
       <c r="AB340" s="885">
         <v>0.1</v>
       </c>
-      <c r="AC340" s="1001"/>
-      <c r="AD340" s="1002"/>
-      <c r="AE340" s="994"/>
+      <c r="AC340" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD340" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE340" s="1000"/>
       <c r="AF340" s="429"/>
       <c r="AG340" s="429"/>
       <c r="AH340" s="429"/>
@@ -53992,7 +54085,7 @@
       <c r="W341" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X341" s="994"/>
+      <c r="X341" s="993"/>
       <c r="Y341" s="887" t="s">
         <v>2172</v>
       </c>
@@ -54003,9 +54096,13 @@
         <v>0.1</v>
       </c>
       <c r="AB341" s="885"/>
-      <c r="AC341" s="1001"/>
-      <c r="AD341" s="1002"/>
-      <c r="AE341" s="994"/>
+      <c r="AC341" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD341" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE341" s="1000"/>
       <c r="AF341" s="429"/>
       <c r="AG341" s="429"/>
       <c r="AH341" s="429"/>
@@ -54081,7 +54178,7 @@
       <c r="U342" s="765"/>
       <c r="V342" s="771"/>
       <c r="W342" s="886"/>
-      <c r="X342" s="992"/>
+      <c r="X342" s="991"/>
       <c r="Y342" s="892"/>
       <c r="Z342" s="887"/>
       <c r="AA342" s="890"/>
@@ -54136,7 +54233,7 @@
       <c r="U343" s="765"/>
       <c r="V343" s="771"/>
       <c r="W343" s="886"/>
-      <c r="X343" s="992"/>
+      <c r="X343" s="991"/>
       <c r="Y343" s="892"/>
       <c r="Z343" s="887"/>
       <c r="AA343" s="890"/>
@@ -54228,7 +54325,7 @@
       <c r="U345" s="765"/>
       <c r="V345" s="771"/>
       <c r="W345" s="740"/>
-      <c r="X345" s="993"/>
+      <c r="X345" s="992"/>
       <c r="Y345" s="726"/>
       <c r="Z345" s="653"/>
       <c r="AA345" s="592"/>
@@ -54283,7 +54380,7 @@
       <c r="U346" s="765"/>
       <c r="V346" s="771"/>
       <c r="W346" s="740"/>
-      <c r="X346" s="993"/>
+      <c r="X346" s="992"/>
       <c r="Y346" s="741"/>
       <c r="Z346" s="727"/>
       <c r="AA346" s="737"/>
@@ -54342,7 +54439,7 @@
       <c r="U347" s="765"/>
       <c r="V347" s="771"/>
       <c r="W347" s="719"/>
-      <c r="X347" s="991"/>
+      <c r="X347" s="990"/>
       <c r="Y347" s="741"/>
       <c r="Z347" s="727"/>
       <c r="AA347" s="738"/>
@@ -54399,7 +54496,7 @@
       <c r="U348" s="765"/>
       <c r="V348" s="771"/>
       <c r="W348" s="719"/>
-      <c r="X348" s="991"/>
+      <c r="X348" s="990"/>
       <c r="Y348" s="741"/>
       <c r="Z348" s="727"/>
       <c r="AA348" s="738"/>
@@ -54458,7 +54555,7 @@
       <c r="W349" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X349" s="994"/>
+      <c r="X349" s="993"/>
       <c r="Y349" s="887" t="s">
         <v>2136</v>
       </c>
@@ -54469,9 +54566,13 @@
         <v>0.2</v>
       </c>
       <c r="AB349" s="818"/>
-      <c r="AC349" s="1003"/>
-      <c r="AD349" s="1002"/>
-      <c r="AE349" s="994"/>
+      <c r="AC349" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD349" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE349" s="993"/>
     </row>
     <row r="350" spans="1:59" s="429" customFormat="1" ht="13.5" outlineLevel="1">
       <c r="A350" s="458" t="s">
@@ -54523,7 +54624,7 @@
       <c r="W350" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X350" s="994"/>
+      <c r="X350" s="993"/>
       <c r="Y350" s="887" t="s">
         <v>2136</v>
       </c>
@@ -54534,9 +54635,13 @@
       <c r="AB350" s="885">
         <v>0.1</v>
       </c>
-      <c r="AC350" s="1003"/>
-      <c r="AD350" s="1002"/>
-      <c r="AE350" s="994"/>
+      <c r="AC350" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD350" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE350" s="993"/>
     </row>
     <row r="351" spans="1:59" s="429" customFormat="1" outlineLevel="1">
       <c r="A351" s="458" t="s">
@@ -54588,7 +54693,7 @@
       <c r="W351" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X351" s="994"/>
+      <c r="X351" s="993"/>
       <c r="Y351" s="887" t="s">
         <v>2172</v>
       </c>
@@ -54599,9 +54704,13 @@
         <v>0.1</v>
       </c>
       <c r="AB351" s="885"/>
-      <c r="AC351" s="1003"/>
-      <c r="AD351" s="1002"/>
-      <c r="AE351" s="994"/>
+      <c r="AC351" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD351" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE351" s="993"/>
     </row>
     <row r="352" spans="1:59" s="429" customFormat="1" outlineLevel="1">
       <c r="A352" s="458" t="s">
@@ -54651,7 +54760,7 @@
       <c r="U352" s="765"/>
       <c r="V352" s="771"/>
       <c r="W352" s="752"/>
-      <c r="X352" s="992"/>
+      <c r="X352" s="991"/>
       <c r="Y352" s="741"/>
       <c r="Z352" s="727"/>
       <c r="AA352" s="738"/>
@@ -54708,7 +54817,7 @@
       <c r="U353" s="765"/>
       <c r="V353" s="771"/>
       <c r="W353" s="752"/>
-      <c r="X353" s="992"/>
+      <c r="X353" s="991"/>
       <c r="Y353" s="741"/>
       <c r="Z353" s="727"/>
       <c r="AA353" s="738"/>
@@ -54765,7 +54874,7 @@
       <c r="U354" s="765"/>
       <c r="V354" s="771"/>
       <c r="W354" s="752"/>
-      <c r="X354" s="992"/>
+      <c r="X354" s="991"/>
       <c r="Y354" s="741"/>
       <c r="Z354" s="727"/>
       <c r="AA354" s="738"/>
@@ -54822,7 +54931,7 @@
       <c r="U355" s="765"/>
       <c r="V355" s="771"/>
       <c r="W355" s="752"/>
-      <c r="X355" s="992"/>
+      <c r="X355" s="991"/>
       <c r="Y355" s="741"/>
       <c r="Z355" s="739"/>
       <c r="AA355" s="738"/>
@@ -54877,7 +54986,7 @@
       <c r="U356" s="765"/>
       <c r="V356" s="771"/>
       <c r="W356" s="752"/>
-      <c r="X356" s="992"/>
+      <c r="X356" s="991"/>
       <c r="Y356" s="739"/>
       <c r="Z356" s="727"/>
       <c r="AA356" s="738"/>
@@ -55323,7 +55432,7 @@
       <c r="U362" s="765"/>
       <c r="V362" s="771"/>
       <c r="W362" s="752"/>
-      <c r="X362" s="992"/>
+      <c r="X362" s="991"/>
       <c r="Y362" s="741"/>
       <c r="Z362" s="727"/>
       <c r="AA362" s="727"/>
@@ -55380,7 +55489,7 @@
       <c r="U363" s="765"/>
       <c r="V363" s="771"/>
       <c r="W363" s="752"/>
-      <c r="X363" s="992"/>
+      <c r="X363" s="991"/>
       <c r="Y363" s="741"/>
       <c r="Z363" s="727"/>
       <c r="AA363" s="738"/>
@@ -55439,7 +55548,7 @@
       <c r="W364" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X364" s="1004"/>
+      <c r="X364" s="1001"/>
       <c r="Y364" s="887" t="s">
         <v>2171</v>
       </c>
@@ -55450,9 +55559,13 @@
       <c r="AB364" s="888">
         <v>0.15</v>
       </c>
-      <c r="AC364" s="1001"/>
-      <c r="AD364" s="1002"/>
-      <c r="AE364" s="994"/>
+      <c r="AC364" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD364" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE364" s="993"/>
     </row>
     <row r="365" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A365" s="458" t="s">
@@ -55504,7 +55617,7 @@
       <c r="W365" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X365" s="1004"/>
+      <c r="X365" s="1001"/>
       <c r="Y365" s="887" t="s">
         <v>2171</v>
       </c>
@@ -55515,9 +55628,13 @@
         <v>0.05</v>
       </c>
       <c r="AB365" s="885"/>
-      <c r="AC365" s="1001"/>
-      <c r="AD365" s="1002"/>
-      <c r="AE365" s="994"/>
+      <c r="AC365" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD365" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE365" s="993"/>
     </row>
     <row r="366" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A366" s="458" t="s">
@@ -55569,7 +55686,7 @@
       <c r="W366" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X366" s="1004"/>
+      <c r="X366" s="1001"/>
       <c r="Y366" s="887" t="s">
         <v>2136</v>
       </c>
@@ -55580,9 +55697,13 @@
       <c r="AB366" s="888" t="s">
         <v>2161</v>
       </c>
-      <c r="AC366" s="1003"/>
-      <c r="AD366" s="1002"/>
-      <c r="AE366" s="994"/>
+      <c r="AC366" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD366" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE366" s="993"/>
     </row>
     <row r="367" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A367" s="458" t="s">
@@ -55634,7 +55755,7 @@
       <c r="W367" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X367" s="1004"/>
+      <c r="X367" s="1001"/>
       <c r="Y367" s="887" t="s">
         <v>2136</v>
       </c>
@@ -55645,9 +55766,13 @@
       <c r="AB367" s="888" t="s">
         <v>2161</v>
       </c>
-      <c r="AC367" s="1003"/>
-      <c r="AD367" s="1002"/>
-      <c r="AE367" s="994"/>
+      <c r="AC367" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD367" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE367" s="993"/>
     </row>
     <row r="368" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A368" s="458" t="s">
@@ -55697,7 +55822,7 @@
       <c r="W368" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X368" s="1004"/>
+      <c r="X368" s="1001"/>
       <c r="Y368" s="887" t="s">
         <v>2132</v>
       </c>
@@ -55708,9 +55833,13 @@
         <v>0.05</v>
       </c>
       <c r="AB368" s="885"/>
-      <c r="AC368" s="1003"/>
-      <c r="AD368" s="1002"/>
-      <c r="AE368" s="994"/>
+      <c r="AC368" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD368" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE368" s="993"/>
     </row>
     <row r="369" spans="1:31" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A369" s="458" t="s">
@@ -55760,7 +55889,7 @@
       <c r="U369" s="765"/>
       <c r="V369" s="771"/>
       <c r="W369" s="886"/>
-      <c r="X369" s="992"/>
+      <c r="X369" s="991"/>
       <c r="Y369" s="890"/>
       <c r="Z369" s="887"/>
       <c r="AA369" s="890"/>
@@ -55817,7 +55946,7 @@
       <c r="U370" s="765"/>
       <c r="V370" s="771"/>
       <c r="W370" s="886"/>
-      <c r="X370" s="992"/>
+      <c r="X370" s="991"/>
       <c r="Y370" s="887"/>
       <c r="Z370" s="887"/>
       <c r="AA370" s="887"/>
@@ -55874,7 +56003,7 @@
       <c r="U371" s="765"/>
       <c r="V371" s="771"/>
       <c r="W371" s="886"/>
-      <c r="X371" s="992"/>
+      <c r="X371" s="991"/>
       <c r="Y371" s="887"/>
       <c r="Z371" s="887"/>
       <c r="AA371" s="887"/>
@@ -55931,7 +56060,7 @@
       <c r="U372" s="765"/>
       <c r="V372" s="771"/>
       <c r="W372" s="886"/>
-      <c r="X372" s="992"/>
+      <c r="X372" s="991"/>
       <c r="Y372" s="891"/>
       <c r="Z372" s="887"/>
       <c r="AA372" s="890"/>
@@ -55988,7 +56117,7 @@
       <c r="U373" s="765"/>
       <c r="V373" s="771"/>
       <c r="W373" s="886"/>
-      <c r="X373" s="992"/>
+      <c r="X373" s="991"/>
       <c r="Y373" s="890"/>
       <c r="Z373" s="887"/>
       <c r="AA373" s="890"/>
@@ -56045,7 +56174,7 @@
       <c r="U374" s="765"/>
       <c r="V374" s="771"/>
       <c r="W374" s="886"/>
-      <c r="X374" s="992"/>
+      <c r="X374" s="991"/>
       <c r="Y374" s="887"/>
       <c r="Z374" s="887"/>
       <c r="AA374" s="890"/>
@@ -56100,7 +56229,7 @@
       <c r="U375" s="765"/>
       <c r="V375" s="771"/>
       <c r="W375" s="886"/>
-      <c r="X375" s="992"/>
+      <c r="X375" s="991"/>
       <c r="Y375" s="887"/>
       <c r="Z375" s="887"/>
       <c r="AA375" s="890"/>
@@ -56155,7 +56284,7 @@
       <c r="U376" s="765"/>
       <c r="V376" s="771"/>
       <c r="W376" s="886"/>
-      <c r="X376" s="992"/>
+      <c r="X376" s="991"/>
       <c r="Y376" s="890"/>
       <c r="Z376" s="887"/>
       <c r="AA376" s="890"/>
@@ -56212,7 +56341,7 @@
       <c r="U377" s="765"/>
       <c r="V377" s="771"/>
       <c r="W377" s="886"/>
-      <c r="X377" s="992"/>
+      <c r="X377" s="991"/>
       <c r="Y377" s="887"/>
       <c r="Z377" s="887"/>
       <c r="AA377" s="890"/>
@@ -56267,7 +56396,7 @@
       <c r="U378" s="765"/>
       <c r="V378" s="771"/>
       <c r="W378" s="886"/>
-      <c r="X378" s="992"/>
+      <c r="X378" s="991"/>
       <c r="Y378" s="892"/>
       <c r="Z378" s="893"/>
       <c r="AA378" s="890"/>
@@ -56379,7 +56508,7 @@
       <c r="U380" s="765"/>
       <c r="V380" s="771"/>
       <c r="W380" s="886"/>
-      <c r="X380" s="992"/>
+      <c r="X380" s="991"/>
       <c r="Y380" s="890"/>
       <c r="Z380" s="890"/>
       <c r="AA380" s="890"/>
@@ -56434,7 +56563,7 @@
       <c r="U381" s="765"/>
       <c r="V381" s="771"/>
       <c r="W381" s="886"/>
-      <c r="X381" s="992"/>
+      <c r="X381" s="991"/>
       <c r="Y381" s="890"/>
       <c r="Z381" s="890"/>
       <c r="AA381" s="890"/>
@@ -56489,7 +56618,7 @@
       <c r="U382" s="765"/>
       <c r="V382" s="771"/>
       <c r="W382" s="886"/>
-      <c r="X382" s="992"/>
+      <c r="X382" s="991"/>
       <c r="Y382" s="890"/>
       <c r="Z382" s="890"/>
       <c r="AA382" s="890"/>
@@ -56546,7 +56675,7 @@
       <c r="U383" s="765"/>
       <c r="V383" s="771"/>
       <c r="W383" s="752"/>
-      <c r="X383" s="992"/>
+      <c r="X383" s="991"/>
       <c r="Y383" s="739"/>
       <c r="Z383" s="739"/>
       <c r="AA383" s="738"/>
@@ -56603,7 +56732,7 @@
       <c r="U384" s="765"/>
       <c r="V384" s="771"/>
       <c r="W384" s="752"/>
-      <c r="X384" s="992"/>
+      <c r="X384" s="991"/>
       <c r="Y384" s="741"/>
       <c r="Z384" s="741"/>
       <c r="AA384" s="738"/>
@@ -56662,7 +56791,7 @@
       <c r="W385" s="895" t="s">
         <v>257</v>
       </c>
-      <c r="X385" s="1004"/>
+      <c r="X385" s="1001"/>
       <c r="Y385" s="892" t="s">
         <v>2173</v>
       </c>
@@ -56673,9 +56802,13 @@
       <c r="AB385" s="888">
         <v>0.3</v>
       </c>
-      <c r="AC385" s="994"/>
-      <c r="AD385" s="1002"/>
-      <c r="AE385" s="994"/>
+      <c r="AC385" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD385" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE385" s="993"/>
     </row>
     <row r="386" spans="1:31" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A386" s="458" t="s">
@@ -56725,7 +56858,7 @@
       <c r="U386" s="765"/>
       <c r="V386" s="771"/>
       <c r="W386" s="895"/>
-      <c r="X386" s="992"/>
+      <c r="X386" s="991"/>
       <c r="Y386" s="892"/>
       <c r="Z386" s="892"/>
       <c r="AA386" s="782"/>
@@ -56782,7 +56915,7 @@
       <c r="U387" s="765"/>
       <c r="V387" s="771"/>
       <c r="W387" s="895"/>
-      <c r="X387" s="992"/>
+      <c r="X387" s="991"/>
       <c r="Y387" s="892"/>
       <c r="Z387" s="892"/>
       <c r="AA387" s="890"/>
@@ -56898,7 +57031,7 @@
       <c r="U389" s="765"/>
       <c r="V389" s="771"/>
       <c r="W389" s="895"/>
-      <c r="X389" s="992"/>
+      <c r="X389" s="991"/>
       <c r="Y389" s="892"/>
       <c r="Z389" s="892"/>
       <c r="AA389" s="890"/>
@@ -56955,7 +57088,7 @@
       <c r="U390" s="765"/>
       <c r="V390" s="771"/>
       <c r="W390" s="895"/>
-      <c r="X390" s="992"/>
+      <c r="X390" s="991"/>
       <c r="Y390" s="892"/>
       <c r="Z390" s="892"/>
       <c r="AA390" s="890"/>
@@ -57012,7 +57145,7 @@
       <c r="U391" s="765"/>
       <c r="V391" s="771"/>
       <c r="W391" s="895"/>
-      <c r="X391" s="992"/>
+      <c r="X391" s="991"/>
       <c r="Y391" s="892"/>
       <c r="Z391" s="892"/>
       <c r="AA391" s="890"/>
@@ -57071,7 +57204,7 @@
       <c r="W392" s="895" t="s">
         <v>257</v>
       </c>
-      <c r="X392" s="1004"/>
+      <c r="X392" s="1001"/>
       <c r="Y392" s="892" t="s">
         <v>2152</v>
       </c>
@@ -57082,9 +57215,13 @@
         <v>1</v>
       </c>
       <c r="AB392" s="888"/>
-      <c r="AC392" s="994"/>
-      <c r="AD392" s="1002"/>
-      <c r="AE392" s="994"/>
+      <c r="AC392" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD392" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE392" s="993"/>
     </row>
     <row r="393" spans="1:31" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A393" s="458" t="s">
@@ -57134,7 +57271,7 @@
       <c r="U393" s="765"/>
       <c r="V393" s="771"/>
       <c r="W393" s="740"/>
-      <c r="X393" s="993"/>
+      <c r="X393" s="992"/>
       <c r="Y393" s="600"/>
       <c r="Z393" s="600"/>
       <c r="AA393" s="658"/>
@@ -57193,7 +57330,7 @@
       <c r="W394" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X394" s="1004"/>
+      <c r="X394" s="1001"/>
       <c r="Y394" s="887" t="s">
         <v>2136</v>
       </c>
@@ -57204,9 +57341,13 @@
       <c r="AB394" s="888" t="s">
         <v>2161</v>
       </c>
-      <c r="AC394" s="1003"/>
-      <c r="AD394" s="1002"/>
-      <c r="AE394" s="994"/>
+      <c r="AC394" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD394" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE394" s="993"/>
     </row>
     <row r="395" spans="1:31" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A395" s="458" t="s">
@@ -57258,7 +57399,7 @@
       <c r="W395" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X395" s="1004"/>
+      <c r="X395" s="1001"/>
       <c r="Y395" s="887" t="s">
         <v>2136</v>
       </c>
@@ -57269,9 +57410,13 @@
       <c r="AB395" s="888" t="s">
         <v>2161</v>
       </c>
-      <c r="AC395" s="1003"/>
-      <c r="AD395" s="1002"/>
-      <c r="AE395" s="994"/>
+      <c r="AC395" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD395" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE395" s="993"/>
     </row>
     <row r="396" spans="1:31" s="474" customFormat="1" ht="12" customHeight="1" outlineLevel="1">
       <c r="A396" s="476" t="s">
@@ -57356,7 +57501,7 @@
       <c r="U397" s="765"/>
       <c r="V397" s="771"/>
       <c r="W397" s="740"/>
-      <c r="X397" s="993"/>
+      <c r="X397" s="992"/>
       <c r="Y397" s="726"/>
       <c r="Z397" s="653"/>
       <c r="AA397" s="592"/>
@@ -57411,7 +57556,7 @@
       <c r="U398" s="765"/>
       <c r="V398" s="771"/>
       <c r="W398" s="740"/>
-      <c r="X398" s="993"/>
+      <c r="X398" s="992"/>
       <c r="Y398" s="600"/>
       <c r="Z398" s="653"/>
       <c r="AA398" s="592"/>
@@ -57470,7 +57615,7 @@
       <c r="U399" s="765"/>
       <c r="V399" s="771"/>
       <c r="W399" s="719"/>
-      <c r="X399" s="991"/>
+      <c r="X399" s="990"/>
       <c r="Y399" s="600"/>
       <c r="Z399" s="653"/>
       <c r="AA399" s="658"/>
@@ -57527,7 +57672,7 @@
       <c r="U400" s="765"/>
       <c r="V400" s="771"/>
       <c r="W400" s="719"/>
-      <c r="X400" s="991"/>
+      <c r="X400" s="990"/>
       <c r="Y400" s="600"/>
       <c r="Z400" s="653"/>
       <c r="AA400" s="658"/>
@@ -57586,7 +57731,7 @@
       <c r="W401" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X401" s="994"/>
+      <c r="X401" s="993"/>
       <c r="Y401" s="887" t="s">
         <v>2136</v>
       </c>
@@ -57597,9 +57742,13 @@
         <v>0.2</v>
       </c>
       <c r="AB401" s="818"/>
-      <c r="AC401" s="1003"/>
-      <c r="AD401" s="1002"/>
-      <c r="AE401" s="994"/>
+      <c r="AC401" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD401" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE401" s="993"/>
     </row>
     <row r="402" spans="1:59" s="429" customFormat="1" ht="13.5" outlineLevel="1">
       <c r="A402" s="458" t="s">
@@ -57651,7 +57800,7 @@
       <c r="W402" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X402" s="994"/>
+      <c r="X402" s="993"/>
       <c r="Y402" s="887" t="s">
         <v>2136</v>
       </c>
@@ -57662,9 +57811,13 @@
       <c r="AB402" s="885">
         <v>0.1</v>
       </c>
-      <c r="AC402" s="1003"/>
-      <c r="AD402" s="1002"/>
-      <c r="AE402" s="994"/>
+      <c r="AC402" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD402" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE402" s="993"/>
     </row>
     <row r="403" spans="1:59" s="429" customFormat="1" outlineLevel="1">
       <c r="A403" s="458" t="s">
@@ -57716,7 +57869,7 @@
       <c r="W403" s="889" t="s">
         <v>257</v>
       </c>
-      <c r="X403" s="994"/>
+      <c r="X403" s="993"/>
       <c r="Y403" s="887" t="s">
         <v>2172</v>
       </c>
@@ -57727,9 +57880,13 @@
         <v>0.1</v>
       </c>
       <c r="AB403" s="885"/>
-      <c r="AC403" s="1003"/>
-      <c r="AD403" s="1002"/>
-      <c r="AE403" s="994"/>
+      <c r="AC403" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD403" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE403" s="993"/>
     </row>
     <row r="404" spans="1:59" s="429" customFormat="1" outlineLevel="1">
       <c r="A404" s="458" t="s">
@@ -57779,7 +57936,7 @@
       <c r="U404" s="765"/>
       <c r="V404" s="771"/>
       <c r="W404" s="752"/>
-      <c r="X404" s="992"/>
+      <c r="X404" s="991"/>
       <c r="Y404" s="741"/>
       <c r="Z404" s="727"/>
       <c r="AA404" s="738"/>
@@ -57836,7 +57993,7 @@
       <c r="U405" s="765"/>
       <c r="V405" s="771"/>
       <c r="W405" s="752"/>
-      <c r="X405" s="992"/>
+      <c r="X405" s="991"/>
       <c r="Y405" s="741"/>
       <c r="Z405" s="727"/>
       <c r="AA405" s="738"/>
@@ -57893,7 +58050,7 @@
       <c r="U406" s="765"/>
       <c r="V406" s="771"/>
       <c r="W406" s="752"/>
-      <c r="X406" s="992"/>
+      <c r="X406" s="991"/>
       <c r="Y406" s="741"/>
       <c r="Z406" s="727"/>
       <c r="AA406" s="738"/>
@@ -57950,7 +58107,7 @@
       <c r="U407" s="765"/>
       <c r="V407" s="771"/>
       <c r="W407" s="752"/>
-      <c r="X407" s="992"/>
+      <c r="X407" s="991"/>
       <c r="Y407" s="741"/>
       <c r="Z407" s="727"/>
       <c r="AA407" s="738"/>
@@ -58007,7 +58164,7 @@
       <c r="U408" s="765"/>
       <c r="V408" s="771"/>
       <c r="W408" s="752"/>
-      <c r="X408" s="992"/>
+      <c r="X408" s="991"/>
       <c r="Y408" s="739"/>
       <c r="Z408" s="727"/>
       <c r="AA408" s="738"/>
@@ -58234,7 +58391,7 @@
       <c r="U411" s="765"/>
       <c r="V411" s="771"/>
       <c r="W411" s="752"/>
-      <c r="X411" s="992"/>
+      <c r="X411" s="991"/>
       <c r="Y411" s="727"/>
       <c r="Z411" s="741"/>
       <c r="AA411" s="738"/>
@@ -58682,7 +58839,7 @@
       <c r="U417" s="765"/>
       <c r="V417" s="771"/>
       <c r="W417" s="752"/>
-      <c r="X417" s="992"/>
+      <c r="X417" s="991"/>
       <c r="Y417" s="741"/>
       <c r="Z417" s="741"/>
       <c r="AA417" s="727"/>
@@ -59075,7 +59232,7 @@
       <c r="U422" s="765"/>
       <c r="V422" s="771"/>
       <c r="W422" s="752"/>
-      <c r="X422" s="992"/>
+      <c r="X422" s="991"/>
       <c r="Y422" s="741"/>
       <c r="Z422" s="727"/>
       <c r="AA422" s="738"/>
@@ -59134,7 +59291,7 @@
       <c r="W423" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X423" s="1004"/>
+      <c r="X423" s="1001"/>
       <c r="Y423" s="887" t="s">
         <v>2171</v>
       </c>
@@ -59145,9 +59302,13 @@
       <c r="AB423" s="888">
         <v>0.15</v>
       </c>
-      <c r="AC423" s="1001"/>
-      <c r="AD423" s="1002"/>
-      <c r="AE423" s="994"/>
+      <c r="AC423" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD423" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE423" s="993"/>
     </row>
     <row r="424" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A424" s="458" t="s">
@@ -59199,7 +59360,7 @@
       <c r="W424" s="886" t="s">
         <v>257</v>
       </c>
-      <c r="X424" s="1004"/>
+      <c r="X424" s="1001"/>
       <c r="Y424" s="887" t="s">
         <v>2171</v>
       </c>
@@ -59210,9 +59371,13 @@
         <v>0.05</v>
       </c>
       <c r="AB424" s="885"/>
-      <c r="AC424" s="1001"/>
-      <c r="AD424" s="1002"/>
-      <c r="AE424" s="994"/>
+      <c r="AC424" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AD424" s="893" t="s">
+        <v>2225</v>
+      </c>
+      <c r="AE424" s="993"/>
     </row>
     <row r="425" spans="1:59" s="429" customFormat="1" ht="15.75" outlineLevel="1">
       <c r="A425" s="458" t="s">
@@ -59262,7 +59427,7 @@
       <c r="U425" s="765"/>
       <c r="V425" s="771"/>
       <c r="W425" s="752"/>
-      <c r="X425" s="992"/>
+      <c r="X425" s="991"/>
       <c r="Y425" s="741"/>
       <c r="Z425" s="741"/>
       <c r="AA425" s="738"/>
@@ -59317,7 +59482,7 @@
       <c r="U426" s="765"/>
       <c r="V426" s="771"/>
       <c r="W426" s="752"/>
-      <c r="X426" s="992"/>
+      <c r="X426" s="991"/>
       <c r="Y426" s="741"/>
       <c r="Z426" s="741"/>
       <c r="AA426" s="738"/>
@@ -59374,7 +59539,7 @@
       <c r="U427" s="765"/>
       <c r="V427" s="771"/>
       <c r="W427" s="740"/>
-      <c r="X427" s="993"/>
+      <c r="X427" s="992"/>
       <c r="Y427" s="600"/>
       <c r="Z427" s="600"/>
       <c r="AA427" s="658"/>
@@ -59431,7 +59596,7 @@
       <c r="U428" s="765"/>
       <c r="V428" s="771"/>
       <c r="W428" s="740"/>
-      <c r="X428" s="993"/>
+      <c r="X428" s="992"/>
       <c r="Y428" s="600"/>
       <c r="Z428" s="600"/>
       <c r="AA428" s="658"/>
@@ -59488,7 +59653,7 @@
       <c r="U429" s="765"/>
       <c r="V429" s="771"/>
       <c r="W429" s="752"/>
-      <c r="X429" s="992"/>
+      <c r="X429" s="991"/>
       <c r="Y429" s="741"/>
       <c r="Z429" s="741"/>
       <c r="AA429" s="738"/>
@@ -59545,7 +59710,7 @@
       <c r="U430" s="765"/>
       <c r="V430" s="771"/>
       <c r="W430" s="790"/>
-      <c r="X430" s="995"/>
+      <c r="X430" s="994"/>
       <c r="Y430" s="741"/>
       <c r="Z430" s="741"/>
       <c r="AA430" s="738"/>
@@ -59602,7 +59767,7 @@
       <c r="U431" s="765"/>
       <c r="V431" s="771"/>
       <c r="W431" s="790"/>
-      <c r="X431" s="995"/>
+      <c r="X431" s="994"/>
       <c r="Y431" s="741"/>
       <c r="Z431" s="741"/>
       <c r="AA431" s="738"/>
@@ -59723,7 +59888,7 @@
       <c r="S438" s="793"/>
       <c r="U438" s="784"/>
       <c r="V438" s="793"/>
-      <c r="X438" s="997"/>
+      <c r="X438" s="996"/>
       <c r="AD438" s="793"/>
       <c r="AE438" s="973"/>
     </row>

--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -10933,12 +10933,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="83">
+  <fonts count="84">
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -12012,14 +12019,22 @@
   </borders>
   <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -12032,20 +12047,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1091">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -12060,1174 +12067,1174 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="51" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="5" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="5" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="5" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -13237,366 +13244,366 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="38" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="20" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="19" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="63" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="64" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="49" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13605,38 +13612,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -13645,7 +13652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13654,269 +13661,1010 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="75" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="66" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -13924,1078 +14672,337 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="82" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="44" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="13" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="12" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="12" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="77" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="80" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="43" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="29">
@@ -35065,10 +35072,10 @@
   <dimension ref="A1:BG559"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W105" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="W96" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z122" sqref="Z122"/>
+      <selection pane="bottomRight" activeCell="X106" sqref="X106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -39576,7 +39583,7 @@
       <c r="B82" s="925" t="s">
         <v>262</v>
       </c>
-      <c r="C82" s="1042" t="s">
+      <c r="C82" s="1035" t="s">
         <v>2212</v>
       </c>
       <c r="D82" s="683" t="s">
@@ -39631,7 +39638,7 @@
       <c r="B83" s="925" t="s">
         <v>264</v>
       </c>
-      <c r="C83" s="1043" t="s">
+      <c r="C83" s="1036" t="s">
         <v>2213</v>
       </c>
       <c r="D83" s="683" t="s">
@@ -39989,7 +39996,7 @@
       <c r="B89" s="925" t="s">
         <v>270</v>
       </c>
-      <c r="C89" s="1045" t="s">
+      <c r="C89" s="1038" t="s">
         <v>2214</v>
       </c>
       <c r="D89" s="683" t="s">
@@ -40039,7 +40046,7 @@
       <c r="AB89" s="853"/>
       <c r="AC89" s="848"/>
       <c r="AD89" s="934"/>
-      <c r="AE89" s="1039">
+      <c r="AE89" s="1032">
         <v>4</v>
       </c>
     </row>
@@ -40050,7 +40057,7 @@
       <c r="B90" s="925" t="s">
         <v>271</v>
       </c>
-      <c r="C90" s="1045" t="s">
+      <c r="C90" s="1038" t="s">
         <v>2215</v>
       </c>
       <c r="D90" s="557" t="s">
@@ -40110,7 +40117,7 @@
       <c r="AD90" s="934" t="s">
         <v>2122</v>
       </c>
-      <c r="AE90" s="1039">
+      <c r="AE90" s="1032">
         <v>4</v>
       </c>
     </row>
@@ -40121,7 +40128,7 @@
       <c r="B91" s="925" t="s">
         <v>272</v>
       </c>
-      <c r="C91" s="1044" t="s">
+      <c r="C91" s="1037" t="s">
         <v>2216</v>
       </c>
       <c r="D91" s="557" t="s">
@@ -40163,7 +40170,7 @@
       <c r="AB91" s="849"/>
       <c r="AC91" s="848"/>
       <c r="AD91" s="934"/>
-      <c r="AE91" s="1039">
+      <c r="AE91" s="1032">
         <v>4</v>
       </c>
     </row>
@@ -40174,7 +40181,7 @@
       <c r="B92" s="925" t="s">
         <v>273</v>
       </c>
-      <c r="C92" s="1044" t="s">
+      <c r="C92" s="1037" t="s">
         <v>2217</v>
       </c>
       <c r="D92" s="565" t="s">
@@ -40230,7 +40237,7 @@
       <c r="AB92" s="853"/>
       <c r="AC92" s="848"/>
       <c r="AD92" s="934"/>
-      <c r="AE92" s="1039">
+      <c r="AE92" s="1032">
         <v>1</v>
       </c>
     </row>
@@ -40293,7 +40300,7 @@
       <c r="AB93" s="853"/>
       <c r="AC93" s="848"/>
       <c r="AD93" s="934"/>
-      <c r="AE93" s="1039">
+      <c r="AE93" s="1032">
         <v>1</v>
       </c>
     </row>
@@ -40346,7 +40353,7 @@
       <c r="AB94" s="853"/>
       <c r="AC94" s="848"/>
       <c r="AD94" s="934"/>
-      <c r="AE94" s="1039">
+      <c r="AE94" s="1032">
         <v>4</v>
       </c>
     </row>
@@ -40414,7 +40421,7 @@
       <c r="AA95" s="871" t="s">
         <v>18</v>
       </c>
-      <c r="AB95" s="1038">
+      <c r="AB95" s="1031">
         <v>0.12</v>
       </c>
       <c r="AC95" s="871" t="s">
@@ -40423,7 +40430,7 @@
       <c r="AD95" s="956" t="s">
         <v>18</v>
       </c>
-      <c r="AE95" s="1039">
+      <c r="AE95" s="1032">
         <v>2</v>
       </c>
     </row>
@@ -40484,7 +40491,7 @@
       <c r="AB96" s="853"/>
       <c r="AC96" s="848"/>
       <c r="AD96" s="934"/>
-      <c r="AE96" s="1039">
+      <c r="AE96" s="1032">
         <v>1</v>
       </c>
     </row>
@@ -40552,7 +40559,7 @@
       <c r="AA97" s="1030" t="s">
         <v>18</v>
       </c>
-      <c r="AB97" s="1038">
+      <c r="AB97" s="1031">
         <v>0.5</v>
       </c>
       <c r="AC97" s="871" t="s">
@@ -40561,7 +40568,7 @@
       <c r="AD97" s="956" t="s">
         <v>18</v>
       </c>
-      <c r="AE97" s="1039">
+      <c r="AE97" s="1032">
         <v>2</v>
       </c>
     </row>
@@ -40616,7 +40623,7 @@
       <c r="AB98" s="853"/>
       <c r="AC98" s="848"/>
       <c r="AD98" s="934"/>
-      <c r="AE98" s="1041" t="s">
+      <c r="AE98" s="1034" t="s">
         <v>18</v>
       </c>
     </row>
@@ -40673,7 +40680,7 @@
       <c r="AB99" s="853"/>
       <c r="AC99" s="848"/>
       <c r="AD99" s="934"/>
-      <c r="AE99" s="1041" t="s">
+      <c r="AE99" s="1034" t="s">
         <v>18</v>
       </c>
     </row>
@@ -40732,7 +40739,7 @@
       <c r="AB100" s="853"/>
       <c r="AC100" s="848"/>
       <c r="AD100" s="934"/>
-      <c r="AE100" s="1039">
+      <c r="AE100" s="1032">
         <v>2</v>
       </c>
     </row>
@@ -40795,7 +40802,7 @@
       <c r="AB101" s="853"/>
       <c r="AC101" s="848"/>
       <c r="AD101" s="934"/>
-      <c r="AE101" s="1039">
+      <c r="AE101" s="1032">
         <v>1</v>
       </c>
     </row>
@@ -40852,7 +40859,7 @@
       <c r="AB102" s="853"/>
       <c r="AC102" s="848"/>
       <c r="AD102" s="934"/>
-      <c r="AE102" s="1041" t="s">
+      <c r="AE102" s="1034" t="s">
         <v>18</v>
       </c>
     </row>
@@ -40949,7 +40956,7 @@
       <c r="B105" s="925" t="s">
         <v>285</v>
       </c>
-      <c r="C105" s="1046" t="s">
+      <c r="C105" s="1039" t="s">
         <v>2218</v>
       </c>
       <c r="D105" s="683" t="s">
@@ -40993,7 +41000,7 @@
         <v>257</v>
       </c>
       <c r="X105" s="981">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="Y105" s="438" t="s">
         <v>2123</v>
@@ -41002,7 +41009,7 @@
         <v>2174</v>
       </c>
       <c r="AA105" s="438"/>
-      <c r="AB105" s="1088">
+      <c r="AB105" s="1081">
         <v>0.1</v>
       </c>
       <c r="AC105" s="840">
@@ -41011,7 +41018,7 @@
       <c r="AD105" s="957" t="s">
         <v>2126</v>
       </c>
-      <c r="AE105" s="1084">
+      <c r="AE105" s="1077">
         <v>3</v>
       </c>
     </row>
@@ -41022,7 +41029,7 @@
       <c r="B106" s="925" t="s">
         <v>286</v>
       </c>
-      <c r="C106" s="1046" t="s">
+      <c r="C106" s="1039" t="s">
         <v>2219</v>
       </c>
       <c r="D106" s="686" t="s">
@@ -41064,13 +41071,13 @@
       <c r="AB106" s="867"/>
       <c r="AC106" s="840"/>
       <c r="AD106" s="935"/>
-      <c r="AE106" s="1083">
+      <c r="AE106" s="1076">
         <v>4</v>
       </c>
     </row>
     <row r="107" spans="1:31" ht="15.75" outlineLevel="1">
       <c r="A107" s="902"/>
-      <c r="B107" s="1068" t="s">
+      <c r="B107" s="1061" t="s">
         <v>287</v>
       </c>
       <c r="C107" s="559" t="s">
@@ -41117,7 +41124,7 @@
       <c r="AB107" s="867"/>
       <c r="AC107" s="840"/>
       <c r="AD107" s="935"/>
-      <c r="AE107" s="1083">
+      <c r="AE107" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41125,7 +41132,7 @@
       <c r="A108" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B108" s="1068" t="s">
+      <c r="B108" s="1061" t="s">
         <v>288</v>
       </c>
       <c r="C108" s="555" t="s">
@@ -41170,7 +41177,7 @@
       <c r="AB108" s="812"/>
       <c r="AC108" s="840"/>
       <c r="AD108" s="935"/>
-      <c r="AE108" s="1084">
+      <c r="AE108" s="1077">
         <v>2</v>
       </c>
     </row>
@@ -41178,10 +41185,10 @@
       <c r="A109" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B109" s="1068" t="s">
+      <c r="B109" s="1061" t="s">
         <v>289</v>
       </c>
-      <c r="C109" s="1047" t="s">
+      <c r="C109" s="1040" t="s">
         <v>2220</v>
       </c>
       <c r="D109" s="557" t="s">
@@ -41241,7 +41248,7 @@
       <c r="AD109" s="958" t="s">
         <v>1739</v>
       </c>
-      <c r="AE109" s="1083">
+      <c r="AE109" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41249,7 +41256,7 @@
       <c r="A110" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B110" s="1068" t="s">
+      <c r="B110" s="1061" t="s">
         <v>330</v>
       </c>
       <c r="C110" s="555" t="s">
@@ -41294,7 +41301,7 @@
       <c r="AB110" s="806"/>
       <c r="AC110" s="840"/>
       <c r="AD110" s="935"/>
-      <c r="AE110" s="1085" t="s">
+      <c r="AE110" s="1078" t="s">
         <v>18</v>
       </c>
     </row>
@@ -41302,7 +41309,7 @@
       <c r="A111" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B111" s="1068" t="s">
+      <c r="B111" s="1061" t="s">
         <v>331</v>
       </c>
       <c r="C111" s="555" t="s">
@@ -41347,7 +41354,7 @@
       <c r="AB111" s="869"/>
       <c r="AC111" s="840"/>
       <c r="AD111" s="935"/>
-      <c r="AE111" s="1085" t="s">
+      <c r="AE111" s="1078" t="s">
         <v>18</v>
       </c>
     </row>
@@ -41355,10 +41362,10 @@
       <c r="A112" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B112" s="1068" t="s">
+      <c r="B112" s="1061" t="s">
         <v>332</v>
       </c>
-      <c r="C112" s="1050" t="s">
+      <c r="C112" s="1043" t="s">
         <v>2221</v>
       </c>
       <c r="D112" s="557" t="s">
@@ -41398,7 +41405,7 @@
       <c r="AB112" s="869"/>
       <c r="AC112" s="840"/>
       <c r="AD112" s="935"/>
-      <c r="AE112" s="1085" t="s">
+      <c r="AE112" s="1078" t="s">
         <v>18</v>
       </c>
     </row>
@@ -41406,10 +41413,10 @@
       <c r="A113" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B113" s="1068" t="s">
+      <c r="B113" s="1061" t="s">
         <v>334</v>
       </c>
-      <c r="C113" s="1060" t="s">
+      <c r="C113" s="1053" t="s">
         <v>2222</v>
       </c>
       <c r="D113" s="448" t="s">
@@ -41449,7 +41456,7 @@
       <c r="AB113" s="862"/>
       <c r="AC113" s="453"/>
       <c r="AD113" s="959"/>
-      <c r="AE113" s="1083">
+      <c r="AE113" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41457,10 +41464,10 @@
       <c r="A114" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B114" s="1068" t="s">
+      <c r="B114" s="1061" t="s">
         <v>335</v>
       </c>
-      <c r="C114" s="1060" t="s">
+      <c r="C114" s="1053" t="s">
         <v>2223</v>
       </c>
       <c r="D114" s="448" t="s">
@@ -41498,7 +41505,7 @@
       <c r="AB114" s="864"/>
       <c r="AC114" s="453"/>
       <c r="AD114" s="959"/>
-      <c r="AE114" s="1083">
+      <c r="AE114" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41506,10 +41513,10 @@
       <c r="A115" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B115" s="1068" t="s">
+      <c r="B115" s="1061" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="1060" t="s">
+      <c r="C115" s="1053" t="s">
         <v>2224</v>
       </c>
       <c r="D115" s="448" t="s">
@@ -41547,7 +41554,7 @@
       <c r="AB115" s="864"/>
       <c r="AC115" s="453"/>
       <c r="AD115" s="959"/>
-      <c r="AE115" s="1083">
+      <c r="AE115" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41555,10 +41562,10 @@
       <c r="A116" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B116" s="1068" t="s">
+      <c r="B116" s="1061" t="s">
         <v>337</v>
       </c>
-      <c r="C116" s="1048" t="s">
+      <c r="C116" s="1041" t="s">
         <v>296</v>
       </c>
       <c r="D116" s="683" t="s">
@@ -41602,7 +41609,7 @@
       <c r="AB116" s="864"/>
       <c r="AC116" s="453"/>
       <c r="AD116" s="959"/>
-      <c r="AE116" s="1083">
+      <c r="AE116" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41610,10 +41617,10 @@
       <c r="A117" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B117" s="1068" t="s">
+      <c r="B117" s="1061" t="s">
         <v>339</v>
       </c>
-      <c r="C117" s="1048" t="s">
+      <c r="C117" s="1041" t="s">
         <v>457</v>
       </c>
       <c r="D117" s="683" t="s">
@@ -41669,7 +41676,7 @@
       <c r="AD117" s="935" t="s">
         <v>2122</v>
       </c>
-      <c r="AE117" s="1083">
+      <c r="AE117" s="1076">
         <v>1</v>
       </c>
     </row>
@@ -41677,10 +41684,10 @@
       <c r="A118" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B118" s="1068" t="s">
+      <c r="B118" s="1061" t="s">
         <v>340</v>
       </c>
-      <c r="C118" s="1049" t="s">
+      <c r="C118" s="1042" t="s">
         <v>1734</v>
       </c>
       <c r="D118" s="683" t="s">
@@ -41722,7 +41729,7 @@
       <c r="AB118" s="861"/>
       <c r="AC118" s="453"/>
       <c r="AD118" s="959"/>
-      <c r="AE118" s="1083">
+      <c r="AE118" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41730,10 +41737,10 @@
       <c r="A119" s="902" t="s">
         <v>192</v>
       </c>
-      <c r="B119" s="1068" t="s">
+      <c r="B119" s="1061" t="s">
         <v>341</v>
       </c>
-      <c r="C119" s="1049" t="s">
+      <c r="C119" s="1042" t="s">
         <v>1732</v>
       </c>
       <c r="D119" s="683" t="s">
@@ -41775,7 +41782,7 @@
       <c r="AB119" s="861"/>
       <c r="AC119" s="453"/>
       <c r="AD119" s="959"/>
-      <c r="AE119" s="1083">
+      <c r="AE119" s="1076">
         <v>4</v>
       </c>
     </row>
@@ -41812,7 +41819,7 @@
       <c r="AB120" s="698"/>
       <c r="AC120" s="707"/>
       <c r="AD120" s="955"/>
-      <c r="AE120" s="1040"/>
+      <c r="AE120" s="1033"/>
     </row>
     <row r="121" spans="1:31" ht="25.5" outlineLevel="1">
       <c r="A121" s="902" t="s">
@@ -41821,7 +41828,7 @@
       <c r="B121" s="925" t="s">
         <v>342</v>
       </c>
-      <c r="C121" s="1061" t="s">
+      <c r="C121" s="1054" t="s">
         <v>1729</v>
       </c>
       <c r="D121" s="683" t="s">
@@ -41879,7 +41886,7 @@
       <c r="AD121" s="1001" t="s">
         <v>18</v>
       </c>
-      <c r="AE121" s="1087">
+      <c r="AE121" s="1080">
         <v>1</v>
       </c>
     </row>
@@ -41890,7 +41897,7 @@
       <c r="B122" s="925" t="s">
         <v>343</v>
       </c>
-      <c r="C122" s="1061" t="s">
+      <c r="C122" s="1054" t="s">
         <v>1726</v>
       </c>
       <c r="D122" s="683" t="s">
@@ -41948,319 +41955,319 @@
       <c r="AD122" s="1001" t="s">
         <v>18</v>
       </c>
-      <c r="AE122" s="1087">
+      <c r="AE122" s="1080">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:31" s="1051" customFormat="1" ht="25.5" outlineLevel="1">
-      <c r="A123" s="1067" t="s">
+    <row r="123" spans="1:31" s="1044" customFormat="1" ht="25.5" outlineLevel="1">
+      <c r="A123" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B123" s="1068" t="s">
+      <c r="B123" s="1061" t="s">
         <v>344</v>
       </c>
-      <c r="C123" s="1071" t="s">
+      <c r="C123" s="1064" t="s">
         <v>1723</v>
       </c>
-      <c r="D123" s="1078" t="s">
+      <c r="D123" s="1071" t="s">
         <v>1722</v>
       </c>
-      <c r="E123" s="1077" t="s">
+      <c r="E123" s="1070" t="s">
         <v>2033</v>
       </c>
-      <c r="F123" s="1080" t="s">
+      <c r="F123" s="1073" t="s">
         <v>1721</v>
       </c>
-      <c r="G123" s="1059" t="s">
+      <c r="G123" s="1052" t="s">
         <v>646</v>
       </c>
-      <c r="H123" s="1053"/>
-      <c r="I123" s="1079" t="s">
-        <v>18</v>
-      </c>
-      <c r="J123" s="1055"/>
-      <c r="K123" s="1054"/>
-      <c r="L123" s="1054"/>
-      <c r="M123" s="1057"/>
-      <c r="N123" s="1054"/>
-      <c r="O123" s="1062">
-        <v>2</v>
-      </c>
-      <c r="P123" s="1053"/>
-      <c r="Q123" s="1052"/>
-      <c r="R123" s="1065"/>
-      <c r="S123" s="1064"/>
-      <c r="T123" s="1058"/>
-      <c r="U123" s="1064"/>
-      <c r="V123" s="1064"/>
-      <c r="W123" s="1056"/>
-      <c r="X123" s="1070"/>
-      <c r="Y123" s="1059"/>
-      <c r="Z123" s="1053"/>
-      <c r="AA123" s="1054"/>
-      <c r="AB123" s="1066"/>
-      <c r="AC123" s="1052"/>
-      <c r="AD123" s="1069"/>
-      <c r="AE123" s="1090" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="124" spans="1:31" s="1051" customFormat="1" ht="15.75" outlineLevel="1">
-      <c r="A124" s="1067" t="s">
+      <c r="H123" s="1046"/>
+      <c r="I123" s="1072" t="s">
+        <v>18</v>
+      </c>
+      <c r="J123" s="1048"/>
+      <c r="K123" s="1047"/>
+      <c r="L123" s="1047"/>
+      <c r="M123" s="1050"/>
+      <c r="N123" s="1047"/>
+      <c r="O123" s="1055">
+        <v>2</v>
+      </c>
+      <c r="P123" s="1046"/>
+      <c r="Q123" s="1045"/>
+      <c r="R123" s="1058"/>
+      <c r="S123" s="1057"/>
+      <c r="T123" s="1051"/>
+      <c r="U123" s="1057"/>
+      <c r="V123" s="1057"/>
+      <c r="W123" s="1049"/>
+      <c r="X123" s="1063"/>
+      <c r="Y123" s="1052"/>
+      <c r="Z123" s="1046"/>
+      <c r="AA123" s="1047"/>
+      <c r="AB123" s="1059"/>
+      <c r="AC123" s="1045"/>
+      <c r="AD123" s="1062"/>
+      <c r="AE123" s="1083" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="124" spans="1:31" s="1044" customFormat="1" ht="15.75" outlineLevel="1">
+      <c r="A124" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B124" s="1068" t="s">
+      <c r="B124" s="1061" t="s">
         <v>345</v>
       </c>
-      <c r="C124" s="1073" t="s">
+      <c r="C124" s="1066" t="s">
         <v>2200</v>
       </c>
-      <c r="D124" s="1076" t="s">
+      <c r="D124" s="1069" t="s">
         <v>2034</v>
       </c>
-      <c r="E124" s="1075" t="s">
+      <c r="E124" s="1068" t="s">
         <v>2230</v>
       </c>
-      <c r="F124" s="1063" t="s">
+      <c r="F124" s="1056" t="s">
         <v>2201</v>
       </c>
-      <c r="G124" s="1059" t="s">
+      <c r="G124" s="1052" t="s">
         <v>2035</v>
       </c>
-      <c r="H124" s="1053"/>
-      <c r="I124" s="1054" t="s">
-        <v>18</v>
-      </c>
-      <c r="J124" s="1055" t="s">
-        <v>18</v>
-      </c>
-      <c r="K124" s="1054"/>
-      <c r="L124" s="1054"/>
-      <c r="M124" s="1057"/>
-      <c r="N124" s="1054"/>
-      <c r="O124" s="1082" t="s">
+      <c r="H124" s="1046"/>
+      <c r="I124" s="1047" t="s">
+        <v>18</v>
+      </c>
+      <c r="J124" s="1048" t="s">
+        <v>18</v>
+      </c>
+      <c r="K124" s="1047"/>
+      <c r="L124" s="1047"/>
+      <c r="M124" s="1050"/>
+      <c r="N124" s="1047"/>
+      <c r="O124" s="1075" t="s">
         <v>1856</v>
       </c>
-      <c r="P124" s="1053"/>
-      <c r="Q124" s="1052"/>
-      <c r="R124" s="1065"/>
-      <c r="S124" s="1064"/>
-      <c r="T124" s="1058"/>
-      <c r="U124" s="1064"/>
-      <c r="V124" s="1064"/>
-      <c r="W124" s="1056"/>
-      <c r="X124" s="1070"/>
-      <c r="Y124" s="1059"/>
-      <c r="Z124" s="1053"/>
-      <c r="AA124" s="1054"/>
-      <c r="AB124" s="1066"/>
-      <c r="AC124" s="1052"/>
-      <c r="AD124" s="1069"/>
-      <c r="AE124" s="1090" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="125" spans="1:31" s="1051" customFormat="1" ht="15.75" outlineLevel="1">
-      <c r="A125" s="1067" t="s">
+      <c r="P124" s="1046"/>
+      <c r="Q124" s="1045"/>
+      <c r="R124" s="1058"/>
+      <c r="S124" s="1057"/>
+      <c r="T124" s="1051"/>
+      <c r="U124" s="1057"/>
+      <c r="V124" s="1057"/>
+      <c r="W124" s="1049"/>
+      <c r="X124" s="1063"/>
+      <c r="Y124" s="1052"/>
+      <c r="Z124" s="1046"/>
+      <c r="AA124" s="1047"/>
+      <c r="AB124" s="1059"/>
+      <c r="AC124" s="1045"/>
+      <c r="AD124" s="1062"/>
+      <c r="AE124" s="1083" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="125" spans="1:31" s="1044" customFormat="1" ht="15.75" outlineLevel="1">
+      <c r="A125" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B125" s="1068" t="s">
+      <c r="B125" s="1061" t="s">
         <v>346</v>
       </c>
-      <c r="C125" s="1072" t="s">
+      <c r="C125" s="1065" t="s">
         <v>2225</v>
       </c>
-      <c r="D125" s="1076" t="s">
+      <c r="D125" s="1069" t="s">
         <v>2238</v>
       </c>
-      <c r="E125" s="1075" t="s">
+      <c r="E125" s="1068" t="s">
         <v>2231</v>
       </c>
-      <c r="F125" s="1063"/>
-      <c r="G125" s="1059" t="s">
+      <c r="F125" s="1056"/>
+      <c r="G125" s="1052" t="s">
         <v>646</v>
       </c>
-      <c r="H125" s="1053"/>
-      <c r="I125" s="1081" t="s">
+      <c r="H125" s="1046"/>
+      <c r="I125" s="1074" t="s">
         <v>2242</v>
       </c>
-      <c r="J125" s="1055"/>
-      <c r="K125" s="1054"/>
-      <c r="L125" s="1054"/>
-      <c r="M125" s="1057"/>
-      <c r="N125" s="1054"/>
-      <c r="O125" s="1082" t="s">
+      <c r="J125" s="1048"/>
+      <c r="K125" s="1047"/>
+      <c r="L125" s="1047"/>
+      <c r="M125" s="1050"/>
+      <c r="N125" s="1047"/>
+      <c r="O125" s="1075" t="s">
         <v>1856</v>
       </c>
-      <c r="P125" s="1053"/>
-      <c r="Q125" s="1052"/>
-      <c r="R125" s="1065"/>
-      <c r="S125" s="1064"/>
-      <c r="T125" s="1058"/>
-      <c r="U125" s="1064"/>
-      <c r="V125" s="1064"/>
-      <c r="W125" s="1056"/>
-      <c r="X125" s="1070"/>
-      <c r="Y125" s="1059"/>
-      <c r="Z125" s="1053"/>
-      <c r="AA125" s="1054"/>
-      <c r="AB125" s="1066"/>
-      <c r="AC125" s="1052"/>
-      <c r="AD125" s="1069"/>
-      <c r="AE125" s="1090" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="126" spans="1:31" s="1051" customFormat="1" outlineLevel="1">
-      <c r="A126" s="1067" t="s">
+      <c r="P125" s="1046"/>
+      <c r="Q125" s="1045"/>
+      <c r="R125" s="1058"/>
+      <c r="S125" s="1057"/>
+      <c r="T125" s="1051"/>
+      <c r="U125" s="1057"/>
+      <c r="V125" s="1057"/>
+      <c r="W125" s="1049"/>
+      <c r="X125" s="1063"/>
+      <c r="Y125" s="1052"/>
+      <c r="Z125" s="1046"/>
+      <c r="AA125" s="1047"/>
+      <c r="AB125" s="1059"/>
+      <c r="AC125" s="1045"/>
+      <c r="AD125" s="1062"/>
+      <c r="AE125" s="1083" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="126" spans="1:31" s="1044" customFormat="1" outlineLevel="1">
+      <c r="A126" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B126" s="1068" t="s">
+      <c r="B126" s="1061" t="s">
         <v>347</v>
       </c>
-      <c r="C126" s="1073" t="s">
+      <c r="C126" s="1066" t="s">
         <v>2226</v>
       </c>
-      <c r="D126" s="1076" t="s">
+      <c r="D126" s="1069" t="s">
         <v>2239</v>
       </c>
-      <c r="E126" s="1075" t="s">
+      <c r="E126" s="1068" t="s">
         <v>2232</v>
       </c>
-      <c r="F126" s="1063"/>
-      <c r="G126" s="1059" t="s">
+      <c r="F126" s="1056"/>
+      <c r="G126" s="1052" t="s">
         <v>603</v>
       </c>
-      <c r="H126" s="1053"/>
-      <c r="I126" s="1079" t="s">
-        <v>18</v>
-      </c>
-      <c r="J126" s="1055"/>
-      <c r="K126" s="1054"/>
-      <c r="L126" s="1054"/>
-      <c r="M126" s="1057"/>
-      <c r="N126" s="1054"/>
-      <c r="O126" s="1082" t="s">
+      <c r="H126" s="1046"/>
+      <c r="I126" s="1072" t="s">
+        <v>18</v>
+      </c>
+      <c r="J126" s="1048"/>
+      <c r="K126" s="1047"/>
+      <c r="L126" s="1047"/>
+      <c r="M126" s="1050"/>
+      <c r="N126" s="1047"/>
+      <c r="O126" s="1075" t="s">
         <v>1856</v>
       </c>
-      <c r="P126" s="1053"/>
-      <c r="Q126" s="1052"/>
-      <c r="R126" s="1065"/>
-      <c r="S126" s="1064"/>
-      <c r="T126" s="1058"/>
-      <c r="U126" s="1064"/>
-      <c r="V126" s="1064"/>
-      <c r="W126" s="1056"/>
-      <c r="X126" s="1070"/>
-      <c r="Y126" s="1059"/>
-      <c r="Z126" s="1053"/>
-      <c r="AA126" s="1054"/>
-      <c r="AB126" s="1066"/>
-      <c r="AC126" s="1052"/>
-      <c r="AD126" s="1069"/>
-      <c r="AE126" s="1086">
+      <c r="P126" s="1046"/>
+      <c r="Q126" s="1045"/>
+      <c r="R126" s="1058"/>
+      <c r="S126" s="1057"/>
+      <c r="T126" s="1051"/>
+      <c r="U126" s="1057"/>
+      <c r="V126" s="1057"/>
+      <c r="W126" s="1049"/>
+      <c r="X126" s="1063"/>
+      <c r="Y126" s="1052"/>
+      <c r="Z126" s="1046"/>
+      <c r="AA126" s="1047"/>
+      <c r="AB126" s="1059"/>
+      <c r="AC126" s="1045"/>
+      <c r="AD126" s="1062"/>
+      <c r="AE126" s="1079">
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="1:31" s="1051" customFormat="1" ht="15.75" outlineLevel="1">
-      <c r="A127" s="1067" t="s">
+    <row r="127" spans="1:31" s="1044" customFormat="1" ht="15.75" outlineLevel="1">
+      <c r="A127" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B127" s="1068" t="s">
+      <c r="B127" s="1061" t="s">
         <v>348</v>
       </c>
-      <c r="C127" s="1074" t="s">
+      <c r="C127" s="1067" t="s">
         <v>2227</v>
       </c>
-      <c r="D127" s="1076" t="s">
+      <c r="D127" s="1069" t="s">
         <v>2233</v>
       </c>
-      <c r="E127" s="1075" t="s">
+      <c r="E127" s="1068" t="s">
         <v>2234</v>
       </c>
-      <c r="F127" s="1063"/>
-      <c r="G127" s="1059" t="s">
+      <c r="F127" s="1056"/>
+      <c r="G127" s="1052" t="s">
         <v>793</v>
       </c>
-      <c r="H127" s="1053"/>
-      <c r="I127" s="1081" t="s">
+      <c r="H127" s="1046"/>
+      <c r="I127" s="1074" t="s">
         <v>15</v>
       </c>
-      <c r="J127" s="1055"/>
-      <c r="K127" s="1054"/>
-      <c r="L127" s="1054"/>
-      <c r="M127" s="1057"/>
-      <c r="N127" s="1054"/>
-      <c r="O127" s="1082" t="s">
+      <c r="J127" s="1048"/>
+      <c r="K127" s="1047"/>
+      <c r="L127" s="1047"/>
+      <c r="M127" s="1050"/>
+      <c r="N127" s="1047"/>
+      <c r="O127" s="1075" t="s">
         <v>1856</v>
       </c>
-      <c r="P127" s="1053"/>
-      <c r="Q127" s="1052"/>
-      <c r="R127" s="1065"/>
-      <c r="S127" s="1064"/>
-      <c r="T127" s="1058"/>
-      <c r="U127" s="1064"/>
-      <c r="V127" s="1064"/>
-      <c r="W127" s="1056"/>
-      <c r="X127" s="1070"/>
-      <c r="Y127" s="1059"/>
-      <c r="Z127" s="1053"/>
-      <c r="AA127" s="1054"/>
-      <c r="AB127" s="1066"/>
-      <c r="AC127" s="1052"/>
-      <c r="AD127" s="1069"/>
-      <c r="AE127" s="1086">
+      <c r="P127" s="1046"/>
+      <c r="Q127" s="1045"/>
+      <c r="R127" s="1058"/>
+      <c r="S127" s="1057"/>
+      <c r="T127" s="1051"/>
+      <c r="U127" s="1057"/>
+      <c r="V127" s="1057"/>
+      <c r="W127" s="1049"/>
+      <c r="X127" s="1063"/>
+      <c r="Y127" s="1052"/>
+      <c r="Z127" s="1046"/>
+      <c r="AA127" s="1047"/>
+      <c r="AB127" s="1059"/>
+      <c r="AC127" s="1045"/>
+      <c r="AD127" s="1062"/>
+      <c r="AE127" s="1079">
         <v>4</v>
       </c>
     </row>
-    <row r="128" spans="1:31" s="1051" customFormat="1" ht="15.75" outlineLevel="1">
-      <c r="A128" s="1067" t="s">
+    <row r="128" spans="1:31" s="1044" customFormat="1" ht="15.75" outlineLevel="1">
+      <c r="A128" s="1060" t="s">
         <v>192</v>
       </c>
-      <c r="B128" s="1068" t="s">
+      <c r="B128" s="1061" t="s">
         <v>349</v>
       </c>
-      <c r="C128" s="1074" t="s">
+      <c r="C128" s="1067" t="s">
         <v>2228</v>
       </c>
-      <c r="D128" s="1076" t="s">
+      <c r="D128" s="1069" t="s">
         <v>2240</v>
       </c>
-      <c r="E128" s="1075" t="s">
+      <c r="E128" s="1068" t="s">
         <v>2235</v>
       </c>
-      <c r="F128" s="1063"/>
-      <c r="G128" s="1059" t="s">
+      <c r="F128" s="1056"/>
+      <c r="G128" s="1052" t="s">
         <v>646</v>
       </c>
-      <c r="H128" s="1053"/>
-      <c r="I128" s="1081" t="s">
+      <c r="H128" s="1046"/>
+      <c r="I128" s="1074" t="s">
         <v>2242</v>
       </c>
-      <c r="J128" s="1055"/>
-      <c r="K128" s="1054"/>
-      <c r="L128" s="1054"/>
-      <c r="M128" s="1057"/>
-      <c r="N128" s="1054"/>
-      <c r="O128" s="1082" t="s">
+      <c r="J128" s="1048"/>
+      <c r="K128" s="1047"/>
+      <c r="L128" s="1047"/>
+      <c r="M128" s="1050"/>
+      <c r="N128" s="1047"/>
+      <c r="O128" s="1075" t="s">
         <v>1856</v>
       </c>
-      <c r="P128" s="1053"/>
-      <c r="Q128" s="1052"/>
-      <c r="R128" s="1065"/>
-      <c r="S128" s="1064"/>
-      <c r="T128" s="1058"/>
-      <c r="U128" s="1064"/>
-      <c r="V128" s="1064"/>
-      <c r="W128" s="1056"/>
-      <c r="X128" s="1070"/>
-      <c r="Y128" s="1059"/>
-      <c r="Z128" s="1053"/>
-      <c r="AA128" s="1054"/>
-      <c r="AB128" s="1066"/>
-      <c r="AC128" s="1052"/>
-      <c r="AD128" s="1069"/>
-      <c r="AE128" s="1089">
+      <c r="P128" s="1046"/>
+      <c r="Q128" s="1045"/>
+      <c r="R128" s="1058"/>
+      <c r="S128" s="1057"/>
+      <c r="T128" s="1051"/>
+      <c r="U128" s="1057"/>
+      <c r="V128" s="1057"/>
+      <c r="W128" s="1049"/>
+      <c r="X128" s="1063"/>
+      <c r="Y128" s="1052"/>
+      <c r="Z128" s="1046"/>
+      <c r="AA128" s="1047"/>
+      <c r="AB128" s="1059"/>
+      <c r="AC128" s="1045"/>
+      <c r="AD128" s="1062"/>
+      <c r="AE128" s="1082">
         <v>3</v>
       </c>
     </row>
@@ -42268,16 +42275,16 @@
       <c r="A129" s="458" t="s">
         <v>192</v>
       </c>
-      <c r="B129" s="1068" t="s">
+      <c r="B129" s="1061" t="s">
         <v>350</v>
       </c>
-      <c r="C129" s="1074" t="s">
+      <c r="C129" s="1067" t="s">
         <v>2229</v>
       </c>
-      <c r="D129" s="1076" t="s">
+      <c r="D129" s="1069" t="s">
         <v>2236</v>
       </c>
-      <c r="E129" s="1075" t="s">
+      <c r="E129" s="1068" t="s">
         <v>2237</v>
       </c>
       <c r="F129" s="683"/>
@@ -42285,7 +42292,7 @@
         <v>2241</v>
       </c>
       <c r="H129" s="444"/>
-      <c r="I129" s="1081" t="s">
+      <c r="I129" s="1074" t="s">
         <v>2194</v>
       </c>
       <c r="J129" s="446" t="s">
@@ -42295,7 +42302,7 @@
       <c r="L129" s="445"/>
       <c r="M129" s="449"/>
       <c r="N129" s="445"/>
-      <c r="O129" s="1082" t="s">
+      <c r="O129" s="1075" t="s">
         <v>1856</v>
       </c>
       <c r="P129" s="444"/>
@@ -42311,7 +42318,7 @@
       <c r="Z129" s="444"/>
       <c r="AA129" s="445"/>
       <c r="AB129" s="809"/>
-      <c r="AE129" s="1086">
+      <c r="AE129" s="1079">
         <v>1</v>
       </c>
     </row>
@@ -42346,7 +42353,7 @@
       <c r="Z130" s="8"/>
       <c r="AA130" s="8"/>
       <c r="AB130" s="801"/>
-      <c r="AE130" s="1039"/>
+      <c r="AE130" s="1032"/>
     </row>
     <row r="131" spans="1:31" outlineLevel="1">
       <c r="A131" s="902" t="s">
@@ -42395,7 +42402,7 @@
       <c r="Z131" s="441"/>
       <c r="AA131" s="715"/>
       <c r="AB131" s="812"/>
-      <c r="AE131" s="1039"/>
+      <c r="AE131" s="1032"/>
     </row>
     <row r="132" spans="1:31" outlineLevel="1">
       <c r="A132" s="902" t="s">
@@ -42447,14 +42454,14 @@
       <c r="Y132" s="611" t="s">
         <v>2119</v>
       </c>
-      <c r="Z132" s="1031" t="s">
+      <c r="Z132" s="1084" t="s">
         <v>2131</v>
       </c>
-      <c r="AA132" s="1032"/>
-      <c r="AB132" s="1032"/>
-      <c r="AC132" s="1032"/>
-      <c r="AD132" s="1033"/>
-      <c r="AE132" s="1039">
+      <c r="AA132" s="1085"/>
+      <c r="AB132" s="1085"/>
+      <c r="AC132" s="1085"/>
+      <c r="AD132" s="1086"/>
+      <c r="AE132" s="1032">
         <v>3</v>
       </c>
     </row>
@@ -42505,7 +42512,7 @@
       <c r="Z133" s="441"/>
       <c r="AA133" s="553"/>
       <c r="AB133" s="813"/>
-      <c r="AE133" s="1039"/>
+      <c r="AE133" s="1032"/>
     </row>
     <row r="134" spans="1:31" ht="13.5" outlineLevel="1" thickBot="1">
       <c r="A134" s="906" t="s">
@@ -42555,14 +42562,14 @@
       <c r="Y134" s="608" t="s">
         <v>2119</v>
       </c>
-      <c r="Z134" s="1031" t="s">
+      <c r="Z134" s="1084" t="s">
         <v>2131</v>
       </c>
-      <c r="AA134" s="1032"/>
-      <c r="AB134" s="1032"/>
-      <c r="AC134" s="1032"/>
-      <c r="AD134" s="1033"/>
-      <c r="AE134" s="1039">
+      <c r="AA134" s="1085"/>
+      <c r="AB134" s="1085"/>
+      <c r="AC134" s="1085"/>
+      <c r="AD134" s="1086"/>
+      <c r="AE134" s="1032">
         <v>4</v>
       </c>
     </row>
@@ -42855,10 +42862,10 @@
       <c r="AB140" s="1002" t="s">
         <v>2121</v>
       </c>
-      <c r="AC140" s="1036" t="s">
+      <c r="AC140" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD140" s="1037"/>
+      <c r="AD140" s="1090"/>
       <c r="AE140" s="972">
         <v>4</v>
       </c>
@@ -44542,10 +44549,10 @@
       <c r="AB171" s="816" t="s">
         <v>2155</v>
       </c>
-      <c r="AC171" s="1036" t="s">
+      <c r="AC171" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD171" s="1037"/>
+      <c r="AD171" s="1090"/>
       <c r="AE171" s="996" t="s">
         <v>2184</v>
       </c>
@@ -44721,10 +44728,10 @@
       <c r="AB174" s="816" t="s">
         <v>2157</v>
       </c>
-      <c r="AC174" s="1036" t="s">
+      <c r="AC174" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD174" s="1037"/>
+      <c r="AD174" s="1090"/>
       <c r="AE174" s="996" t="s">
         <v>2184</v>
       </c>
@@ -44840,10 +44847,10 @@
       <c r="AB176" s="1002" t="s">
         <v>2121</v>
       </c>
-      <c r="AC176" s="1036" t="s">
+      <c r="AC176" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD176" s="1037"/>
+      <c r="AD176" s="1090"/>
       <c r="AE176" s="972">
         <v>4</v>
       </c>
@@ -44911,10 +44918,10 @@
       <c r="AB177" s="816" t="s">
         <v>2155</v>
       </c>
-      <c r="AC177" s="1036" t="s">
+      <c r="AC177" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD177" s="1037"/>
+      <c r="AD177" s="1090"/>
       <c r="AE177" s="996" t="s">
         <v>2184</v>
       </c>
@@ -45090,10 +45097,10 @@
       <c r="AB180" s="816" t="s">
         <v>2157</v>
       </c>
-      <c r="AC180" s="1036" t="s">
+      <c r="AC180" s="1089" t="s">
         <v>2154</v>
       </c>
-      <c r="AD180" s="1037"/>
+      <c r="AD180" s="1090"/>
       <c r="AE180" s="996" t="s">
         <v>2184</v>
       </c>
@@ -45223,10 +45230,10 @@
       <c r="AB182" s="839" t="s">
         <v>2153</v>
       </c>
-      <c r="AC182" s="1034" t="s">
+      <c r="AC182" s="1087" t="s">
         <v>2154</v>
       </c>
-      <c r="AD182" s="1035"/>
+      <c r="AD182" s="1088"/>
       <c r="AE182" s="996" t="s">
         <v>2184</v>
       </c>

--- a/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
+++ b/doc/conventions/Complete WTI parameterlijst Aquo.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="2271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9519" uniqueCount="2272">
   <si>
     <t>ID</t>
   </si>
@@ -11382,6 +11382,9 @@
   </si>
   <si>
     <t>Toeslag volume</t>
+  </si>
+  <si>
+    <t>Damage safety factor</t>
   </si>
 </sst>
 </file>
@@ -16134,6 +16137,25 @@
     <xf numFmtId="0" fontId="17" fillId="12" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -16149,25 +16171,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="88" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Neutraal 2" xfId="3"/>
@@ -20572,7 +20575,7 @@
       <c r="J101" s="992" t="s">
         <v>15</v>
       </c>
-      <c r="K101" s="1312" t="s">
+      <c r="K101" s="1307" t="s">
         <v>172</v>
       </c>
       <c r="L101" s="111"/>
@@ -20606,10 +20609,10 @@
         <v>1125</v>
       </c>
       <c r="I102" s="111"/>
-      <c r="J102" s="1312" t="s">
+      <c r="J102" s="1307" t="s">
         <v>1556</v>
       </c>
-      <c r="K102" s="1314" t="s">
+      <c r="K102" s="1309" t="s">
         <v>18</v>
       </c>
       <c r="L102" s="111"/>
@@ -20641,10 +20644,10 @@
         <v>14</v>
       </c>
       <c r="I103" s="111"/>
-      <c r="J103" s="1313" t="s">
-        <v>18</v>
-      </c>
-      <c r="K103" s="1314" t="s">
+      <c r="J103" s="1308" t="s">
+        <v>18</v>
+      </c>
+      <c r="K103" s="1309" t="s">
         <v>18</v>
       </c>
       <c r="L103" s="111"/>
@@ -20668,8 +20671,8 @@
       <c r="G104" s="112"/>
       <c r="H104" s="50"/>
       <c r="I104" s="50"/>
-      <c r="J104" s="1311"/>
-      <c r="K104" s="1310"/>
+      <c r="J104" s="1306"/>
+      <c r="K104" s="1305"/>
       <c r="L104" s="50"/>
       <c r="M104" s="50"/>
       <c r="N104" s="78"/>
@@ -34950,7 +34953,7 @@
       <c r="P432" s="7"/>
       <c r="R432" s="2"/>
     </row>
-    <row r="433" spans="1:18" ht="409.6">
+    <row r="433" spans="1:18">
       <c r="A433" s="2"/>
       <c r="E433" s="6"/>
       <c r="P433" s="7"/>
@@ -36278,10 +36281,10 @@
   <dimension ref="A1:BG1064"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="W2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AE135" sqref="AE135"/>
+      <selection pane="bottomRight" activeCell="E272" sqref="E272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="1"/>
@@ -43737,7 +43740,7 @@
       <c r="D131" s="461" t="s">
         <v>2264</v>
       </c>
-      <c r="E131" s="1315" t="s">
+      <c r="E131" s="1310" t="s">
         <v>2268</v>
       </c>
       <c r="F131" s="947" t="s">
@@ -43790,7 +43793,7 @@
       <c r="D132" s="461" t="s">
         <v>1125</v>
       </c>
-      <c r="E132" s="1315" t="s">
+      <c r="E132" s="1310" t="s">
         <v>2266</v>
       </c>
       <c r="F132" s="947" t="s">
@@ -43829,13 +43832,13 @@
       <c r="Y132" s="550" t="s">
         <v>2036</v>
       </c>
-      <c r="Z132" s="1305" t="s">
+      <c r="Z132" s="1312" t="s">
         <v>2044</v>
       </c>
-      <c r="AA132" s="1306"/>
-      <c r="AB132" s="1306"/>
-      <c r="AC132" s="1306"/>
-      <c r="AD132" s="1307"/>
+      <c r="AA132" s="1313"/>
+      <c r="AB132" s="1313"/>
+      <c r="AC132" s="1313"/>
+      <c r="AD132" s="1314"/>
       <c r="AE132" s="862">
         <v>1</v>
       </c>
@@ -43851,7 +43854,7 @@
       <c r="D133" s="461" t="s">
         <v>2265</v>
       </c>
-      <c r="E133" s="1316" t="s">
+      <c r="E133" s="1311" t="s">
         <v>2267</v>
       </c>
       <c r="F133" s="947" t="s">
@@ -43945,13 +43948,13 @@
       <c r="Y134" s="547" t="s">
         <v>2036</v>
       </c>
-      <c r="Z134" s="1305" t="s">
+      <c r="Z134" s="1312" t="s">
         <v>2044</v>
       </c>
-      <c r="AA134" s="1306"/>
-      <c r="AB134" s="1306"/>
-      <c r="AC134" s="1306"/>
-      <c r="AD134" s="1307"/>
+      <c r="AA134" s="1313"/>
+      <c r="AB134" s="1313"/>
+      <c r="AC134" s="1313"/>
+      <c r="AD134" s="1314"/>
       <c r="AE134" s="862"/>
     </row>
     <row r="135" spans="1:31" ht="13.5" collapsed="1" thickBot="1">
@@ -44252,10 +44255,10 @@
       <c r="AB140" s="1289">
         <v>0.1</v>
       </c>
-      <c r="AC140" s="1308" t="s">
+      <c r="AC140" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD140" s="1309"/>
+      <c r="AD140" s="1316"/>
       <c r="AE140" s="815">
         <v>4</v>
       </c>
@@ -45939,10 +45942,10 @@
       <c r="AB171" s="1289" t="s">
         <v>2260</v>
       </c>
-      <c r="AC171" s="1308" t="s">
+      <c r="AC171" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD171" s="1309"/>
+      <c r="AD171" s="1316"/>
       <c r="AE171" s="833" t="s">
         <v>2263</v>
       </c>
@@ -46118,10 +46121,10 @@
       <c r="AB174" s="1289" t="s">
         <v>2261</v>
       </c>
-      <c r="AC174" s="1308" t="s">
+      <c r="AC174" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD174" s="1309"/>
+      <c r="AD174" s="1316"/>
       <c r="AE174" s="833" t="s">
         <v>2263</v>
       </c>
@@ -46237,10 +46240,10 @@
       <c r="AB176" s="1289">
         <v>0.1</v>
       </c>
-      <c r="AC176" s="1308" t="s">
+      <c r="AC176" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD176" s="1309"/>
+      <c r="AD176" s="1316"/>
       <c r="AE176" s="815">
         <v>4</v>
       </c>
@@ -46308,10 +46311,10 @@
       <c r="AB177" s="1289" t="s">
         <v>2260</v>
       </c>
-      <c r="AC177" s="1308" t="s">
+      <c r="AC177" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD177" s="1309"/>
+      <c r="AD177" s="1316"/>
       <c r="AE177" s="833" t="s">
         <v>2263</v>
       </c>
@@ -46487,10 +46490,10 @@
       <c r="AB180" s="1289" t="s">
         <v>2261</v>
       </c>
-      <c r="AC180" s="1308" t="s">
+      <c r="AC180" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD180" s="1309"/>
+      <c r="AD180" s="1316"/>
       <c r="AE180" s="833" t="s">
         <v>2263</v>
       </c>
@@ -46620,10 +46623,10 @@
       <c r="AB182" s="1291">
         <v>0.25</v>
       </c>
-      <c r="AC182" s="1308" t="s">
+      <c r="AC182" s="1315" t="s">
         <v>2105</v>
       </c>
-      <c r="AD182" s="1309"/>
+      <c r="AD182" s="1316"/>
       <c r="AE182" s="833" t="s">
         <v>2263</v>
       </c>
@@ -51928,7 +51931,7 @@
         <v>2008</v>
       </c>
       <c r="E271" s="422" t="s">
-        <v>2017</v>
+        <v>2271</v>
       </c>
       <c r="F271" s="422" t="s">
         <v>1515</v>
